--- a/apps/static/assets/dbs/Catalogs.xlsx
+++ b/apps/static/assets/dbs/Catalogs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fefox/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FA6135-94E2-EA40-ABCB-6F340298C23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E25D06F-D41A-2843-997F-DD5D4833A695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4080" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4080" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Threat Components" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5720" uniqueCount="1642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5957" uniqueCount="1644">
   <si>
     <t>TID</t>
   </si>
@@ -5097,12 +5097,18 @@
 UNWIND target1_data + target2_data AS component_data
 RETURN component_data.component_id AS component_id, component_data.parameters AS parameters</t>
   </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5254,8 +5260,15 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF548235"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5304,8 +5317,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -5413,11 +5432,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9BC2E6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9BC2E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9BC2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9BC2E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF9BC2E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9BC2E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5581,6 +5633,48 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12349,16 +12443,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DEFAB213-4389-184E-911C-CDCC8CABBD38}" name="Tabella1" displayName="Tabella1" ref="A1:Z393" totalsRowShown="0" dataDxfId="46">
-  <autoFilter ref="A1:Z393" xr:uid="{DEFAB213-4389-184E-911C-CDCC8CABBD38}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Network"/>
-        <filter val="Network.Core"/>
-        <filter val="Network.WiFi"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DEFAB213-4389-184E-911C-CDCC8CABBD38}" name="Tabella1" displayName="Tabella1" ref="A1:Z408" totalsRowShown="0" dataDxfId="46">
+  <autoFilter ref="A1:Z408" xr:uid="{DEFAB213-4389-184E-911C-CDCC8CABBD38}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A255:R269">
     <sortCondition ref="B1:B313"/>
   </sortState>
@@ -12767,11 +12853,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Z393"/>
+  <dimension ref="A1:Z408"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A404" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B396" sqref="B396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -12875,7 +12961,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="48" hidden="1">
+    <row r="2" spans="1:26" ht="48">
       <c r="A2" s="20" t="str">
         <f t="shared" ref="A2:A64" si="0">CONCATENATE("T",ROW(A2)-1)</f>
         <v>T1</v>
@@ -12936,7 +13022,7 @@
       <c r="Y2" s="20"/>
       <c r="Z2" s="20"/>
     </row>
-    <row r="3" spans="1:26" ht="32" hidden="1">
+    <row r="3" spans="1:26" ht="32">
       <c r="A3" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T2</v>
@@ -12997,7 +13083,7 @@
       <c r="Y3" s="20"/>
       <c r="Z3" s="20"/>
     </row>
-    <row r="4" spans="1:26" ht="80" hidden="1">
+    <row r="4" spans="1:26" ht="80">
       <c r="A4" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T3</v>
@@ -13058,7 +13144,7 @@
       <c r="Y4" s="20"/>
       <c r="Z4" s="20"/>
     </row>
-    <row r="5" spans="1:26" ht="32" hidden="1">
+    <row r="5" spans="1:26" ht="32">
       <c r="A5" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T4</v>
@@ -13119,7 +13205,7 @@
       <c r="Y5" s="20"/>
       <c r="Z5" s="20"/>
     </row>
-    <row r="6" spans="1:26" ht="48" hidden="1">
+    <row r="6" spans="1:26" ht="48">
       <c r="A6" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T5</v>
@@ -13180,7 +13266,7 @@
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
     </row>
-    <row r="7" spans="1:26" ht="48" hidden="1">
+    <row r="7" spans="1:26" ht="48">
       <c r="A7" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T6</v>
@@ -13241,7 +13327,7 @@
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
     </row>
-    <row r="8" spans="1:26" ht="48" hidden="1">
+    <row r="8" spans="1:26" ht="48">
       <c r="A8" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T7</v>
@@ -13302,7 +13388,7 @@
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
     </row>
-    <row r="9" spans="1:26" ht="16" hidden="1">
+    <row r="9" spans="1:26" ht="16">
       <c r="A9" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T8</v>
@@ -13363,7 +13449,7 @@
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
     </row>
-    <row r="10" spans="1:26" ht="32" hidden="1">
+    <row r="10" spans="1:26" ht="32">
       <c r="A10" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T9</v>
@@ -13424,7 +13510,7 @@
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
     </row>
-    <row r="11" spans="1:26" ht="32" hidden="1">
+    <row r="11" spans="1:26" ht="32">
       <c r="A11" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T10</v>
@@ -13485,7 +13571,7 @@
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
     </row>
-    <row r="12" spans="1:26" ht="48" hidden="1">
+    <row r="12" spans="1:26" ht="48">
       <c r="A12" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T11</v>
@@ -13546,7 +13632,7 @@
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
     </row>
-    <row r="13" spans="1:26" ht="64" hidden="1">
+    <row r="13" spans="1:26" ht="64">
       <c r="A13" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T12</v>
@@ -13607,7 +13693,7 @@
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
     </row>
-    <row r="14" spans="1:26" ht="48" hidden="1">
+    <row r="14" spans="1:26" ht="48">
       <c r="A14" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T13</v>
@@ -13668,7 +13754,7 @@
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
     </row>
-    <row r="15" spans="1:26" ht="80" hidden="1">
+    <row r="15" spans="1:26" ht="80">
       <c r="A15" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T14</v>
@@ -13729,7 +13815,7 @@
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
     </row>
-    <row r="16" spans="1:26" ht="32" hidden="1">
+    <row r="16" spans="1:26" ht="32">
       <c r="A16" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T15</v>
@@ -13790,7 +13876,7 @@
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
     </row>
-    <row r="17" spans="1:26" ht="32" hidden="1">
+    <row r="17" spans="1:26" ht="32">
       <c r="A17" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T16</v>
@@ -13851,7 +13937,7 @@
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
     </row>
-    <row r="18" spans="1:26" ht="48" hidden="1">
+    <row r="18" spans="1:26" ht="48">
       <c r="A18" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T17</v>
@@ -13912,7 +13998,7 @@
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
     </row>
-    <row r="19" spans="1:26" ht="32" hidden="1">
+    <row r="19" spans="1:26" ht="32">
       <c r="A19" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T18</v>
@@ -13973,7 +14059,7 @@
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
     </row>
-    <row r="20" spans="1:26" ht="48" hidden="1">
+    <row r="20" spans="1:26" ht="48">
       <c r="A20" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T19</v>
@@ -14034,7 +14120,7 @@
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
     </row>
-    <row r="21" spans="1:26" ht="48" hidden="1">
+    <row r="21" spans="1:26" ht="48">
       <c r="A21" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T20</v>
@@ -14095,7 +14181,7 @@
       <c r="Y21" s="20"/>
       <c r="Z21" s="20"/>
     </row>
-    <row r="22" spans="1:26" ht="48" hidden="1">
+    <row r="22" spans="1:26" ht="48">
       <c r="A22" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T21</v>
@@ -14156,7 +14242,7 @@
       <c r="Y22" s="20"/>
       <c r="Z22" s="20"/>
     </row>
-    <row r="23" spans="1:26" ht="48" hidden="1">
+    <row r="23" spans="1:26" ht="48">
       <c r="A23" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T22</v>
@@ -14217,7 +14303,7 @@
       <c r="Y23" s="20"/>
       <c r="Z23" s="20"/>
     </row>
-    <row r="24" spans="1:26" ht="48" hidden="1">
+    <row r="24" spans="1:26" ht="48">
       <c r="A24" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T23</v>
@@ -14281,7 +14367,7 @@
       <c r="Y24" s="20"/>
       <c r="Z24" s="20"/>
     </row>
-    <row r="25" spans="1:26" ht="48" hidden="1">
+    <row r="25" spans="1:26" ht="48">
       <c r="A25" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T24</v>
@@ -14339,7 +14425,7 @@
       <c r="Y25" s="20"/>
       <c r="Z25" s="20"/>
     </row>
-    <row r="26" spans="1:26" ht="48" hidden="1">
+    <row r="26" spans="1:26" ht="48">
       <c r="A26" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T25</v>
@@ -14397,7 +14483,7 @@
       <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
     </row>
-    <row r="27" spans="1:26" ht="64" hidden="1">
+    <row r="27" spans="1:26" ht="64">
       <c r="A27" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T26</v>
@@ -14455,7 +14541,7 @@
       <c r="Y27" s="20"/>
       <c r="Z27" s="20"/>
     </row>
-    <row r="28" spans="1:26" ht="32" hidden="1">
+    <row r="28" spans="1:26" ht="32">
       <c r="A28" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T27</v>
@@ -14513,7 +14599,7 @@
       <c r="Y28" s="20"/>
       <c r="Z28" s="20"/>
     </row>
-    <row r="29" spans="1:26" ht="48" hidden="1">
+    <row r="29" spans="1:26" ht="48">
       <c r="A29" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T28</v>
@@ -14571,7 +14657,7 @@
       <c r="Y29" s="20"/>
       <c r="Z29" s="20"/>
     </row>
-    <row r="30" spans="1:26" ht="48" hidden="1">
+    <row r="30" spans="1:26" ht="48">
       <c r="A30" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T29</v>
@@ -14629,7 +14715,7 @@
       <c r="Y30" s="20"/>
       <c r="Z30" s="20"/>
     </row>
-    <row r="31" spans="1:26" ht="32" hidden="1">
+    <row r="31" spans="1:26" ht="32">
       <c r="A31" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T30</v>
@@ -14687,7 +14773,7 @@
       <c r="Y31" s="20"/>
       <c r="Z31" s="20"/>
     </row>
-    <row r="32" spans="1:26" ht="48" hidden="1">
+    <row r="32" spans="1:26" ht="48">
       <c r="A32" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T31</v>
@@ -14745,7 +14831,7 @@
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
     </row>
-    <row r="33" spans="1:26" ht="32" hidden="1">
+    <row r="33" spans="1:26" ht="32">
       <c r="A33" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T32</v>
@@ -14803,7 +14889,7 @@
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
     </row>
-    <row r="34" spans="1:26" ht="32" hidden="1">
+    <row r="34" spans="1:26" ht="32">
       <c r="A34" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T33</v>
@@ -14861,7 +14947,7 @@
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
     </row>
-    <row r="35" spans="1:26" ht="48" hidden="1">
+    <row r="35" spans="1:26" ht="48">
       <c r="A35" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T34</v>
@@ -14919,7 +15005,7 @@
       <c r="Y35" s="20"/>
       <c r="Z35" s="20"/>
     </row>
-    <row r="36" spans="1:26" ht="32" hidden="1">
+    <row r="36" spans="1:26" ht="32">
       <c r="A36" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T35</v>
@@ -14977,7 +15063,7 @@
       <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
     </row>
-    <row r="37" spans="1:26" ht="16" hidden="1">
+    <row r="37" spans="1:26" ht="16">
       <c r="A37" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T36</v>
@@ -15035,7 +15121,7 @@
       <c r="Y37" s="20"/>
       <c r="Z37" s="20"/>
     </row>
-    <row r="38" spans="1:26" ht="16" hidden="1">
+    <row r="38" spans="1:26" ht="16">
       <c r="A38" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T37</v>
@@ -15093,7 +15179,7 @@
       <c r="Y38" s="20"/>
       <c r="Z38" s="20"/>
     </row>
-    <row r="39" spans="1:26" ht="32" hidden="1">
+    <row r="39" spans="1:26" ht="32">
       <c r="A39" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T38</v>
@@ -15151,7 +15237,7 @@
       <c r="Y39" s="20"/>
       <c r="Z39" s="20"/>
     </row>
-    <row r="40" spans="1:26" ht="32" hidden="1">
+    <row r="40" spans="1:26" ht="32">
       <c r="A40" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T39</v>
@@ -15209,7 +15295,7 @@
       <c r="Y40" s="20"/>
       <c r="Z40" s="20"/>
     </row>
-    <row r="41" spans="1:26" ht="48" hidden="1">
+    <row r="41" spans="1:26" ht="48">
       <c r="A41" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T40</v>
@@ -15267,7 +15353,7 @@
       <c r="Y41" s="20"/>
       <c r="Z41" s="20"/>
     </row>
-    <row r="42" spans="1:26" ht="48" hidden="1">
+    <row r="42" spans="1:26" ht="48">
       <c r="A42" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T41</v>
@@ -15325,7 +15411,7 @@
       <c r="Y42" s="20"/>
       <c r="Z42" s="20"/>
     </row>
-    <row r="43" spans="1:26" ht="16" hidden="1">
+    <row r="43" spans="1:26" ht="16">
       <c r="A43" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T42</v>
@@ -15383,7 +15469,7 @@
       <c r="Y43" s="20"/>
       <c r="Z43" s="20"/>
     </row>
-    <row r="44" spans="1:26" ht="48" hidden="1">
+    <row r="44" spans="1:26" ht="48">
       <c r="A44" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T43</v>
@@ -15441,7 +15527,7 @@
       <c r="Y44" s="20"/>
       <c r="Z44" s="20"/>
     </row>
-    <row r="45" spans="1:26" ht="48" hidden="1">
+    <row r="45" spans="1:26" ht="48">
       <c r="A45" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T44</v>
@@ -15499,7 +15585,7 @@
       <c r="Y45" s="20"/>
       <c r="Z45" s="20"/>
     </row>
-    <row r="46" spans="1:26" ht="32" hidden="1">
+    <row r="46" spans="1:26" ht="32">
       <c r="A46" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T45</v>
@@ -15557,7 +15643,7 @@
       <c r="Y46" s="20"/>
       <c r="Z46" s="20"/>
     </row>
-    <row r="47" spans="1:26" ht="32" hidden="1">
+    <row r="47" spans="1:26" ht="32">
       <c r="A47" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T46</v>
@@ -15621,7 +15707,7 @@
       <c r="Y47" s="20"/>
       <c r="Z47" s="20"/>
     </row>
-    <row r="48" spans="1:26" ht="48" hidden="1">
+    <row r="48" spans="1:26" ht="48">
       <c r="A48" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T47</v>
@@ -15679,7 +15765,7 @@
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
     </row>
-    <row r="49" spans="1:26" ht="32" hidden="1">
+    <row r="49" spans="1:26" ht="32">
       <c r="A49" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T48</v>
@@ -15737,7 +15823,7 @@
       <c r="Y49" s="20"/>
       <c r="Z49" s="20"/>
     </row>
-    <row r="50" spans="1:26" ht="32" hidden="1">
+    <row r="50" spans="1:26" ht="32">
       <c r="A50" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T49</v>
@@ -15795,7 +15881,7 @@
       <c r="Y50" s="20"/>
       <c r="Z50" s="20"/>
     </row>
-    <row r="51" spans="1:26" ht="32" hidden="1">
+    <row r="51" spans="1:26" ht="32">
       <c r="A51" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T50</v>
@@ -15853,7 +15939,7 @@
       <c r="Y51" s="20"/>
       <c r="Z51" s="20"/>
     </row>
-    <row r="52" spans="1:26" ht="32" hidden="1">
+    <row r="52" spans="1:26" ht="32">
       <c r="A52" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T51</v>
@@ -15911,7 +15997,7 @@
       <c r="Y52" s="20"/>
       <c r="Z52" s="20"/>
     </row>
-    <row r="53" spans="1:26" ht="48" hidden="1">
+    <row r="53" spans="1:26" ht="48">
       <c r="A53" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T52</v>
@@ -15969,7 +16055,7 @@
       <c r="Y53" s="20"/>
       <c r="Z53" s="20"/>
     </row>
-    <row r="54" spans="1:26" ht="32" hidden="1">
+    <row r="54" spans="1:26" ht="32">
       <c r="A54" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T53</v>
@@ -16027,7 +16113,7 @@
       <c r="Y54" s="20"/>
       <c r="Z54" s="20"/>
     </row>
-    <row r="55" spans="1:26" ht="48" hidden="1">
+    <row r="55" spans="1:26" ht="48">
       <c r="A55" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T54</v>
@@ -16085,7 +16171,7 @@
       <c r="Y55" s="20"/>
       <c r="Z55" s="20"/>
     </row>
-    <row r="56" spans="1:26" ht="32" hidden="1">
+    <row r="56" spans="1:26" ht="32">
       <c r="A56" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T55</v>
@@ -16143,7 +16229,7 @@
       <c r="Y56" s="20"/>
       <c r="Z56" s="20"/>
     </row>
-    <row r="57" spans="1:26" ht="80" hidden="1">
+    <row r="57" spans="1:26" ht="80">
       <c r="A57" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T56</v>
@@ -16201,7 +16287,7 @@
       <c r="Y57" s="20"/>
       <c r="Z57" s="20"/>
     </row>
-    <row r="58" spans="1:26" ht="32" hidden="1">
+    <row r="58" spans="1:26" ht="32">
       <c r="A58" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T57</v>
@@ -16259,7 +16345,7 @@
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
     </row>
-    <row r="59" spans="1:26" ht="32" hidden="1">
+    <row r="59" spans="1:26" ht="32">
       <c r="A59" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T58</v>
@@ -16317,7 +16403,7 @@
       <c r="Y59" s="20"/>
       <c r="Z59" s="20"/>
     </row>
-    <row r="60" spans="1:26" ht="64" hidden="1">
+    <row r="60" spans="1:26" ht="64">
       <c r="A60" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T59</v>
@@ -16386,7 +16472,7 @@
       <c r="Y60" s="20"/>
       <c r="Z60" s="20"/>
     </row>
-    <row r="61" spans="1:26" ht="395" hidden="1">
+    <row r="61" spans="1:26" ht="395">
       <c r="A61" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T60</v>
@@ -16455,7 +16541,7 @@
       <c r="Y61" s="20"/>
       <c r="Z61" s="20"/>
     </row>
-    <row r="62" spans="1:26" ht="80" hidden="1">
+    <row r="62" spans="1:26" ht="80">
       <c r="A62" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T61</v>
@@ -16524,7 +16610,7 @@
       <c r="Y62" s="20"/>
       <c r="Z62" s="20"/>
     </row>
-    <row r="63" spans="1:26" ht="240" hidden="1">
+    <row r="63" spans="1:26" ht="240">
       <c r="A63" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T62</v>
@@ -16593,7 +16679,7 @@
       <c r="Y63" s="20"/>
       <c r="Z63" s="20"/>
     </row>
-    <row r="64" spans="1:26" ht="48" hidden="1">
+    <row r="64" spans="1:26" ht="48">
       <c r="A64" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T63</v>
@@ -16662,7 +16748,7 @@
       <c r="Y64" s="20"/>
       <c r="Z64" s="20"/>
     </row>
-    <row r="65" spans="1:26" ht="96" hidden="1">
+    <row r="65" spans="1:26" ht="96">
       <c r="A65" s="20" t="str">
         <f t="shared" ref="A65:A128" si="12">CONCATENATE("T",ROW(A65)-1)</f>
         <v>T64</v>
@@ -16733,7 +16819,7 @@
       <c r="Y65" s="20"/>
       <c r="Z65" s="20"/>
     </row>
-    <row r="66" spans="1:26" ht="256" hidden="1">
+    <row r="66" spans="1:26" ht="256">
       <c r="A66" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T65</v>
@@ -16802,7 +16888,7 @@
       <c r="Y66" s="20"/>
       <c r="Z66" s="20"/>
     </row>
-    <row r="67" spans="1:26" ht="16" hidden="1">
+    <row r="67" spans="1:26" ht="16">
       <c r="A67" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T66</v>
@@ -16867,7 +16953,7 @@
       <c r="Y67" s="20"/>
       <c r="Z67" s="20"/>
     </row>
-    <row r="68" spans="1:26" ht="112" hidden="1">
+    <row r="68" spans="1:26" ht="112">
       <c r="A68" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T67</v>
@@ -16938,7 +17024,7 @@
       <c r="Y68" s="20"/>
       <c r="Z68" s="20"/>
     </row>
-    <row r="69" spans="1:26" ht="144" hidden="1">
+    <row r="69" spans="1:26" ht="144">
       <c r="A69" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T68</v>
@@ -17007,7 +17093,7 @@
       <c r="Y69" s="20"/>
       <c r="Z69" s="20"/>
     </row>
-    <row r="70" spans="1:26" ht="96" hidden="1">
+    <row r="70" spans="1:26" ht="96">
       <c r="A70" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T69</v>
@@ -17076,7 +17162,7 @@
       <c r="Y70" s="20"/>
       <c r="Z70" s="20"/>
     </row>
-    <row r="71" spans="1:26" ht="48" hidden="1">
+    <row r="71" spans="1:26" ht="48">
       <c r="A71" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T70</v>
@@ -17141,7 +17227,7 @@
       <c r="Y71" s="20"/>
       <c r="Z71" s="20"/>
     </row>
-    <row r="72" spans="1:26" ht="48" hidden="1">
+    <row r="72" spans="1:26" ht="48">
       <c r="A72" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T71</v>
@@ -17210,7 +17296,7 @@
       <c r="Y72" s="20"/>
       <c r="Z72" s="20"/>
     </row>
-    <row r="73" spans="1:26" ht="48" hidden="1">
+    <row r="73" spans="1:26" ht="48">
       <c r="A73" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T72</v>
@@ -17279,7 +17365,7 @@
       <c r="Y73" s="20"/>
       <c r="Z73" s="20"/>
     </row>
-    <row r="74" spans="1:26" ht="32" hidden="1">
+    <row r="74" spans="1:26" ht="32">
       <c r="A74" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T73</v>
@@ -17348,7 +17434,7 @@
       <c r="Y74" s="20"/>
       <c r="Z74" s="20"/>
     </row>
-    <row r="75" spans="1:26" ht="80" hidden="1">
+    <row r="75" spans="1:26" ht="80">
       <c r="A75" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T74</v>
@@ -17417,7 +17503,7 @@
       <c r="Y75" s="20"/>
       <c r="Z75" s="20"/>
     </row>
-    <row r="76" spans="1:26" ht="160" hidden="1">
+    <row r="76" spans="1:26" ht="160">
       <c r="A76" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T75</v>
@@ -17486,7 +17572,7 @@
       <c r="Y76" s="20"/>
       <c r="Z76" s="20"/>
     </row>
-    <row r="77" spans="1:26" ht="128" hidden="1">
+    <row r="77" spans="1:26" ht="128">
       <c r="A77" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T76</v>
@@ -17553,7 +17639,7 @@
       <c r="Y77" s="20"/>
       <c r="Z77" s="20"/>
     </row>
-    <row r="78" spans="1:26" ht="80" hidden="1">
+    <row r="78" spans="1:26" ht="80">
       <c r="A78" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T77</v>
@@ -17622,7 +17708,7 @@
       <c r="Y78" s="20"/>
       <c r="Z78" s="20"/>
     </row>
-    <row r="79" spans="1:26" ht="96" hidden="1">
+    <row r="79" spans="1:26" ht="96">
       <c r="A79" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T78</v>
@@ -17691,7 +17777,7 @@
       <c r="Y79" s="20"/>
       <c r="Z79" s="20"/>
     </row>
-    <row r="80" spans="1:26" ht="96" hidden="1">
+    <row r="80" spans="1:26" ht="96">
       <c r="A80" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T79</v>
@@ -17760,7 +17846,7 @@
       <c r="Y80" s="20"/>
       <c r="Z80" s="20"/>
     </row>
-    <row r="81" spans="1:26" ht="240" hidden="1">
+    <row r="81" spans="1:26" ht="240">
       <c r="A81" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T80</v>
@@ -17829,7 +17915,7 @@
       <c r="Y81" s="20"/>
       <c r="Z81" s="20"/>
     </row>
-    <row r="82" spans="1:26" ht="32" hidden="1">
+    <row r="82" spans="1:26" ht="32">
       <c r="A82" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T81</v>
@@ -17888,7 +17974,7 @@
       <c r="Y82" s="20"/>
       <c r="Z82" s="20"/>
     </row>
-    <row r="83" spans="1:26" ht="16" hidden="1">
+    <row r="83" spans="1:26" ht="16">
       <c r="A83" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T82</v>
@@ -17947,7 +18033,7 @@
       <c r="Y83" s="20"/>
       <c r="Z83" s="20"/>
     </row>
-    <row r="84" spans="1:26" ht="16" hidden="1">
+    <row r="84" spans="1:26" ht="16">
       <c r="A84" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T83</v>
@@ -18006,7 +18092,7 @@
       <c r="Y84" s="20"/>
       <c r="Z84" s="20"/>
     </row>
-    <row r="85" spans="1:26" ht="96" hidden="1">
+    <row r="85" spans="1:26" ht="96">
       <c r="A85" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T84</v>
@@ -18065,7 +18151,7 @@
       <c r="Y85" s="20"/>
       <c r="Z85" s="20"/>
     </row>
-    <row r="86" spans="1:26" ht="64" hidden="1">
+    <row r="86" spans="1:26" ht="64">
       <c r="A86" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T85</v>
@@ -18124,7 +18210,7 @@
       <c r="Y86" s="20"/>
       <c r="Z86" s="20"/>
     </row>
-    <row r="87" spans="1:26" ht="32" hidden="1">
+    <row r="87" spans="1:26" ht="32">
       <c r="A87" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T86</v>
@@ -18183,7 +18269,7 @@
       <c r="Y87" s="20"/>
       <c r="Z87" s="20"/>
     </row>
-    <row r="88" spans="1:26" ht="16" hidden="1">
+    <row r="88" spans="1:26" ht="16">
       <c r="A88" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T87</v>
@@ -18242,7 +18328,7 @@
       <c r="Y88" s="20"/>
       <c r="Z88" s="20"/>
     </row>
-    <row r="89" spans="1:26" ht="32" hidden="1">
+    <row r="89" spans="1:26" ht="32">
       <c r="A89" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T88</v>
@@ -18301,7 +18387,7 @@
       <c r="Y89" s="20"/>
       <c r="Z89" s="20"/>
     </row>
-    <row r="90" spans="1:26" ht="48" hidden="1">
+    <row r="90" spans="1:26" ht="48">
       <c r="A90" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T89</v>
@@ -18360,7 +18446,7 @@
       <c r="Y90" s="20"/>
       <c r="Z90" s="20"/>
     </row>
-    <row r="91" spans="1:26" ht="96" hidden="1">
+    <row r="91" spans="1:26" ht="96">
       <c r="A91" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T90</v>
@@ -18419,7 +18505,7 @@
       <c r="Y91" s="20"/>
       <c r="Z91" s="20"/>
     </row>
-    <row r="92" spans="1:26" ht="64" hidden="1">
+    <row r="92" spans="1:26" ht="64">
       <c r="A92" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T91</v>
@@ -18478,7 +18564,7 @@
       <c r="Y92" s="20"/>
       <c r="Z92" s="20"/>
     </row>
-    <row r="93" spans="1:26" ht="48" hidden="1">
+    <row r="93" spans="1:26" ht="48">
       <c r="A93" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T92</v>
@@ -18537,7 +18623,7 @@
       <c r="Y93" s="20"/>
       <c r="Z93" s="20"/>
     </row>
-    <row r="94" spans="1:26" ht="32" hidden="1">
+    <row r="94" spans="1:26" ht="32">
       <c r="A94" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T93</v>
@@ -18596,7 +18682,7 @@
       <c r="Y94" s="20"/>
       <c r="Z94" s="20"/>
     </row>
-    <row r="95" spans="1:26" ht="32" hidden="1">
+    <row r="95" spans="1:26" ht="32">
       <c r="A95" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T94</v>
@@ -18655,7 +18741,7 @@
       <c r="Y95" s="20"/>
       <c r="Z95" s="20"/>
     </row>
-    <row r="96" spans="1:26" ht="32" hidden="1">
+    <row r="96" spans="1:26" ht="32">
       <c r="A96" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T95</v>
@@ -18714,7 +18800,7 @@
       <c r="Y96" s="20"/>
       <c r="Z96" s="20"/>
     </row>
-    <row r="97" spans="1:26" ht="64" hidden="1">
+    <row r="97" spans="1:26" ht="64">
       <c r="A97" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T96</v>
@@ -18773,7 +18859,7 @@
       <c r="Y97" s="20"/>
       <c r="Z97" s="20"/>
     </row>
-    <row r="98" spans="1:26" ht="48" hidden="1">
+    <row r="98" spans="1:26" ht="48">
       <c r="A98" s="20" t="str">
         <f t="shared" si="12"/>
         <v>T97</v>
@@ -21579,7 +21665,7 @@
       <c r="Y136" s="61"/>
       <c r="Z136" s="61"/>
     </row>
-    <row r="137" spans="1:26" ht="96" hidden="1">
+    <row r="137" spans="1:26" ht="96">
       <c r="A137" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T136</v>
@@ -21638,7 +21724,7 @@
       <c r="Y137" s="61"/>
       <c r="Z137" s="61"/>
     </row>
-    <row r="138" spans="1:26" ht="80" hidden="1">
+    <row r="138" spans="1:26" ht="80">
       <c r="A138" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T137</v>
@@ -21697,7 +21783,7 @@
       <c r="Y138" s="61"/>
       <c r="Z138" s="61"/>
     </row>
-    <row r="139" spans="1:26" ht="96" hidden="1">
+    <row r="139" spans="1:26" ht="96">
       <c r="A139" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T138</v>
@@ -21756,7 +21842,7 @@
       <c r="Y139" s="61"/>
       <c r="Z139" s="61"/>
     </row>
-    <row r="140" spans="1:26" ht="48" hidden="1">
+    <row r="140" spans="1:26" ht="48">
       <c r="A140" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T139</v>
@@ -21815,7 +21901,7 @@
       <c r="Y140" s="61"/>
       <c r="Z140" s="61"/>
     </row>
-    <row r="141" spans="1:26" ht="80" hidden="1">
+    <row r="141" spans="1:26" ht="80">
       <c r="A141" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T140</v>
@@ -21874,7 +21960,7 @@
       <c r="Y141" s="61"/>
       <c r="Z141" s="61"/>
     </row>
-    <row r="142" spans="1:26" ht="48" hidden="1">
+    <row r="142" spans="1:26" ht="48">
       <c r="A142" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T141</v>
@@ -21933,7 +22019,7 @@
       <c r="Y142" s="61"/>
       <c r="Z142" s="61"/>
     </row>
-    <row r="143" spans="1:26" ht="32" hidden="1">
+    <row r="143" spans="1:26" ht="32">
       <c r="A143" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T142</v>
@@ -21992,7 +22078,7 @@
       <c r="Y143" s="61"/>
       <c r="Z143" s="61"/>
     </row>
-    <row r="144" spans="1:26" ht="32" hidden="1">
+    <row r="144" spans="1:26" ht="32">
       <c r="A144" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T143</v>
@@ -22051,7 +22137,7 @@
       <c r="Y144" s="61"/>
       <c r="Z144" s="61"/>
     </row>
-    <row r="145" spans="1:26" ht="80" hidden="1">
+    <row r="145" spans="1:26" ht="80">
       <c r="A145" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T144</v>
@@ -22110,7 +22196,7 @@
       <c r="Y145" s="61"/>
       <c r="Z145" s="61"/>
     </row>
-    <row r="146" spans="1:26" ht="64" hidden="1">
+    <row r="146" spans="1:26" ht="64">
       <c r="A146" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T145</v>
@@ -22169,7 +22255,7 @@
       <c r="Y146" s="61"/>
       <c r="Z146" s="61"/>
     </row>
-    <row r="147" spans="1:26" ht="64" hidden="1">
+    <row r="147" spans="1:26" ht="64">
       <c r="A147" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T146</v>
@@ -22228,7 +22314,7 @@
       <c r="Y147" s="61"/>
       <c r="Z147" s="61"/>
     </row>
-    <row r="148" spans="1:26" ht="32" hidden="1">
+    <row r="148" spans="1:26" ht="32">
       <c r="A148" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T147</v>
@@ -22287,7 +22373,7 @@
       <c r="Y148" s="61"/>
       <c r="Z148" s="61"/>
     </row>
-    <row r="149" spans="1:26" ht="64" hidden="1">
+    <row r="149" spans="1:26" ht="64">
       <c r="A149" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T148</v>
@@ -22346,7 +22432,7 @@
       <c r="Y149" s="61"/>
       <c r="Z149" s="61"/>
     </row>
-    <row r="150" spans="1:26" ht="112" hidden="1">
+    <row r="150" spans="1:26" ht="112">
       <c r="A150" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T149</v>
@@ -22405,7 +22491,7 @@
       <c r="Y150" s="61"/>
       <c r="Z150" s="61"/>
     </row>
-    <row r="151" spans="1:26" ht="64" hidden="1">
+    <row r="151" spans="1:26" ht="64">
       <c r="A151" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T150</v>
@@ -22464,7 +22550,7 @@
       <c r="Y151" s="61"/>
       <c r="Z151" s="61"/>
     </row>
-    <row r="152" spans="1:26" ht="96" hidden="1">
+    <row r="152" spans="1:26" ht="96">
       <c r="A152" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T151</v>
@@ -22523,7 +22609,7 @@
       <c r="Y152" s="61"/>
       <c r="Z152" s="61"/>
     </row>
-    <row r="153" spans="1:26" ht="160" hidden="1">
+    <row r="153" spans="1:26" ht="160">
       <c r="A153" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T152</v>
@@ -22582,7 +22668,7 @@
       <c r="Y153" s="61"/>
       <c r="Z153" s="61"/>
     </row>
-    <row r="154" spans="1:26" ht="96" hidden="1">
+    <row r="154" spans="1:26" ht="96">
       <c r="A154" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T153</v>
@@ -22641,7 +22727,7 @@
       <c r="Y154" s="61"/>
       <c r="Z154" s="61"/>
     </row>
-    <row r="155" spans="1:26" ht="80" hidden="1">
+    <row r="155" spans="1:26" ht="80">
       <c r="A155" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T154</v>
@@ -22700,7 +22786,7 @@
       <c r="Y155" s="61"/>
       <c r="Z155" s="61"/>
     </row>
-    <row r="156" spans="1:26" ht="96" hidden="1">
+    <row r="156" spans="1:26" ht="96">
       <c r="A156" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T155</v>
@@ -22759,7 +22845,7 @@
       <c r="Y156" s="61"/>
       <c r="Z156" s="61"/>
     </row>
-    <row r="157" spans="1:26" ht="48" hidden="1">
+    <row r="157" spans="1:26" ht="48">
       <c r="A157" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T156</v>
@@ -22818,7 +22904,7 @@
       <c r="Y157" s="61"/>
       <c r="Z157" s="61"/>
     </row>
-    <row r="158" spans="1:26" ht="32" hidden="1">
+    <row r="158" spans="1:26" ht="32">
       <c r="A158" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T157</v>
@@ -22877,7 +22963,7 @@
       <c r="Y158" s="61"/>
       <c r="Z158" s="61"/>
     </row>
-    <row r="159" spans="1:26" ht="80" hidden="1">
+    <row r="159" spans="1:26" ht="80">
       <c r="A159" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T158</v>
@@ -22936,7 +23022,7 @@
       <c r="Y159" s="61"/>
       <c r="Z159" s="61"/>
     </row>
-    <row r="160" spans="1:26" ht="80" hidden="1">
+    <row r="160" spans="1:26" ht="80">
       <c r="A160" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T159</v>
@@ -22995,7 +23081,7 @@
       <c r="Y160" s="61"/>
       <c r="Z160" s="61"/>
     </row>
-    <row r="161" spans="1:26" ht="64" hidden="1">
+    <row r="161" spans="1:26" ht="64">
       <c r="A161" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T160</v>
@@ -23054,7 +23140,7 @@
       <c r="Y161" s="61"/>
       <c r="Z161" s="61"/>
     </row>
-    <row r="162" spans="1:26" ht="64" hidden="1">
+    <row r="162" spans="1:26" ht="64">
       <c r="A162" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T161</v>
@@ -23113,7 +23199,7 @@
       <c r="Y162" s="61"/>
       <c r="Z162" s="61"/>
     </row>
-    <row r="163" spans="1:26" ht="48" hidden="1">
+    <row r="163" spans="1:26" ht="48">
       <c r="A163" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T162</v>
@@ -23172,7 +23258,7 @@
       <c r="Y163" s="61"/>
       <c r="Z163" s="61"/>
     </row>
-    <row r="164" spans="1:26" ht="32" hidden="1">
+    <row r="164" spans="1:26" ht="32">
       <c r="A164" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T163</v>
@@ -23231,7 +23317,7 @@
       <c r="Y164" s="61"/>
       <c r="Z164" s="61"/>
     </row>
-    <row r="165" spans="1:26" ht="32" hidden="1">
+    <row r="165" spans="1:26" ht="32">
       <c r="A165" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T164</v>
@@ -23290,7 +23376,7 @@
       <c r="Y165" s="61"/>
       <c r="Z165" s="61"/>
     </row>
-    <row r="166" spans="1:26" ht="32" hidden="1">
+    <row r="166" spans="1:26" ht="32">
       <c r="A166" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T165</v>
@@ -23349,7 +23435,7 @@
       <c r="Y166" s="61"/>
       <c r="Z166" s="61"/>
     </row>
-    <row r="167" spans="1:26" ht="32" hidden="1">
+    <row r="167" spans="1:26" ht="32">
       <c r="A167" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T166</v>
@@ -23408,7 +23494,7 @@
       <c r="Y167" s="61"/>
       <c r="Z167" s="61"/>
     </row>
-    <row r="168" spans="1:26" ht="64" hidden="1">
+    <row r="168" spans="1:26" ht="64">
       <c r="A168" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T167</v>
@@ -23467,7 +23553,7 @@
       <c r="Y168" s="61"/>
       <c r="Z168" s="61"/>
     </row>
-    <row r="169" spans="1:26" ht="48" hidden="1">
+    <row r="169" spans="1:26" ht="48">
       <c r="A169" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T168</v>
@@ -23526,7 +23612,7 @@
       <c r="Y169" s="61"/>
       <c r="Z169" s="61"/>
     </row>
-    <row r="170" spans="1:26" ht="32" hidden="1">
+    <row r="170" spans="1:26" ht="32">
       <c r="A170" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T169</v>
@@ -23585,7 +23671,7 @@
       <c r="Y170" s="61"/>
       <c r="Z170" s="61"/>
     </row>
-    <row r="171" spans="1:26" ht="32" hidden="1">
+    <row r="171" spans="1:26" ht="32">
       <c r="A171" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T170</v>
@@ -23644,7 +23730,7 @@
       <c r="Y171" s="61"/>
       <c r="Z171" s="61"/>
     </row>
-    <row r="172" spans="1:26" ht="16" hidden="1">
+    <row r="172" spans="1:26" ht="16">
       <c r="A172" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T171</v>
@@ -23703,7 +23789,7 @@
       <c r="Y172" s="61"/>
       <c r="Z172" s="61"/>
     </row>
-    <row r="173" spans="1:26" ht="16" hidden="1">
+    <row r="173" spans="1:26" ht="16">
       <c r="A173" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T172</v>
@@ -23762,7 +23848,7 @@
       <c r="Y173" s="61"/>
       <c r="Z173" s="61"/>
     </row>
-    <row r="174" spans="1:26" ht="64" hidden="1">
+    <row r="174" spans="1:26" ht="64">
       <c r="A174" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T173</v>
@@ -23821,7 +23907,7 @@
       <c r="Y174" s="61"/>
       <c r="Z174" s="61"/>
     </row>
-    <row r="175" spans="1:26" ht="64" hidden="1">
+    <row r="175" spans="1:26" ht="64">
       <c r="A175" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T174</v>
@@ -23880,7 +23966,7 @@
       <c r="Y175" s="61"/>
       <c r="Z175" s="61"/>
     </row>
-    <row r="176" spans="1:26" ht="80" hidden="1">
+    <row r="176" spans="1:26" ht="80">
       <c r="A176" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T175</v>
@@ -23939,7 +24025,7 @@
       <c r="Y176" s="61"/>
       <c r="Z176" s="61"/>
     </row>
-    <row r="177" spans="1:26" ht="48" hidden="1">
+    <row r="177" spans="1:26" ht="48">
       <c r="A177" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T176</v>
@@ -23998,7 +24084,7 @@
       <c r="Y177" s="61"/>
       <c r="Z177" s="61"/>
     </row>
-    <row r="178" spans="1:26" ht="32" hidden="1">
+    <row r="178" spans="1:26" ht="32">
       <c r="A178" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T177</v>
@@ -24057,7 +24143,7 @@
       <c r="Y178" s="61"/>
       <c r="Z178" s="61"/>
     </row>
-    <row r="179" spans="1:26" ht="32" hidden="1">
+    <row r="179" spans="1:26" ht="32">
       <c r="A179" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T178</v>
@@ -24116,7 +24202,7 @@
       <c r="Y179" s="61"/>
       <c r="Z179" s="61"/>
     </row>
-    <row r="180" spans="1:26" ht="80" hidden="1">
+    <row r="180" spans="1:26" ht="80">
       <c r="A180" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T179</v>
@@ -24175,7 +24261,7 @@
       <c r="Y180" s="61"/>
       <c r="Z180" s="61"/>
     </row>
-    <row r="181" spans="1:26" ht="64" hidden="1">
+    <row r="181" spans="1:26" ht="64">
       <c r="A181" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T180</v>
@@ -24234,7 +24320,7 @@
       <c r="Y181" s="61"/>
       <c r="Z181" s="61"/>
     </row>
-    <row r="182" spans="1:26" ht="64" hidden="1">
+    <row r="182" spans="1:26" ht="64">
       <c r="A182" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T181</v>
@@ -24293,7 +24379,7 @@
       <c r="Y182" s="61"/>
       <c r="Z182" s="61"/>
     </row>
-    <row r="183" spans="1:26" ht="144" hidden="1">
+    <row r="183" spans="1:26" ht="144">
       <c r="A183" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T182</v>
@@ -24352,7 +24438,7 @@
       <c r="Y183" s="61"/>
       <c r="Z183" s="61"/>
     </row>
-    <row r="184" spans="1:26" ht="96" hidden="1">
+    <row r="184" spans="1:26" ht="96">
       <c r="A184" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T183</v>
@@ -24411,7 +24497,7 @@
       <c r="Y184" s="61"/>
       <c r="Z184" s="61"/>
     </row>
-    <row r="185" spans="1:26" ht="48" hidden="1">
+    <row r="185" spans="1:26" ht="48">
       <c r="A185" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T184</v>
@@ -24470,7 +24556,7 @@
       <c r="Y185" s="61"/>
       <c r="Z185" s="61"/>
     </row>
-    <row r="186" spans="1:26" ht="16" hidden="1">
+    <row r="186" spans="1:26" ht="16">
       <c r="A186" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T185</v>
@@ -24529,7 +24615,7 @@
       <c r="Y186" s="61"/>
       <c r="Z186" s="61"/>
     </row>
-    <row r="187" spans="1:26" ht="144" hidden="1">
+    <row r="187" spans="1:26" ht="144">
       <c r="A187" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T186</v>
@@ -24588,7 +24674,7 @@
       <c r="Y187" s="61"/>
       <c r="Z187" s="61"/>
     </row>
-    <row r="188" spans="1:26" ht="128" hidden="1">
+    <row r="188" spans="1:26" ht="128">
       <c r="A188" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T187</v>
@@ -24647,7 +24733,7 @@
       <c r="Y188" s="61"/>
       <c r="Z188" s="61"/>
     </row>
-    <row r="189" spans="1:26" ht="128" hidden="1">
+    <row r="189" spans="1:26" ht="128">
       <c r="A189" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T188</v>
@@ -24706,7 +24792,7 @@
       <c r="Y189" s="61"/>
       <c r="Z189" s="61"/>
     </row>
-    <row r="190" spans="1:26" ht="96" hidden="1">
+    <row r="190" spans="1:26" ht="96">
       <c r="A190" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T189</v>
@@ -24765,7 +24851,7 @@
       <c r="Y190" s="61"/>
       <c r="Z190" s="61"/>
     </row>
-    <row r="191" spans="1:26" ht="80" hidden="1">
+    <row r="191" spans="1:26" ht="80">
       <c r="A191" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T190</v>
@@ -24824,7 +24910,7 @@
       <c r="Y191" s="61"/>
       <c r="Z191" s="61"/>
     </row>
-    <row r="192" spans="1:26" ht="80" hidden="1">
+    <row r="192" spans="1:26" ht="80">
       <c r="A192" s="20" t="str">
         <f t="shared" si="23"/>
         <v>T191</v>
@@ -24883,7 +24969,7 @@
       <c r="Y192" s="61"/>
       <c r="Z192" s="61"/>
     </row>
-    <row r="193" spans="1:26" ht="48" hidden="1">
+    <row r="193" spans="1:26" ht="48">
       <c r="A193" s="20" t="str">
         <f t="shared" ref="A193:A254" si="28">CONCATENATE("T",ROW(A193)-1)</f>
         <v>T192</v>
@@ -24942,7 +25028,7 @@
       <c r="Y193" s="61"/>
       <c r="Z193" s="61"/>
     </row>
-    <row r="194" spans="1:26" ht="32" hidden="1">
+    <row r="194" spans="1:26" ht="32">
       <c r="A194" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T193</v>
@@ -25001,7 +25087,7 @@
       <c r="Y194" s="61"/>
       <c r="Z194" s="61"/>
     </row>
-    <row r="195" spans="1:26" ht="80" hidden="1">
+    <row r="195" spans="1:26" ht="80">
       <c r="A195" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T194</v>
@@ -25060,7 +25146,7 @@
       <c r="Y195" s="61"/>
       <c r="Z195" s="61"/>
     </row>
-    <row r="196" spans="1:26" ht="96" hidden="1">
+    <row r="196" spans="1:26" ht="96">
       <c r="A196" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T195</v>
@@ -25119,7 +25205,7 @@
       <c r="Y196" s="61"/>
       <c r="Z196" s="61"/>
     </row>
-    <row r="197" spans="1:26" ht="48" hidden="1">
+    <row r="197" spans="1:26" ht="48">
       <c r="A197" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T196</v>
@@ -25178,7 +25264,7 @@
       <c r="Y197" s="61"/>
       <c r="Z197" s="61"/>
     </row>
-    <row r="198" spans="1:26" ht="80" hidden="1">
+    <row r="198" spans="1:26" ht="80">
       <c r="A198" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T197</v>
@@ -25237,7 +25323,7 @@
       <c r="Y198" s="61"/>
       <c r="Z198" s="61"/>
     </row>
-    <row r="199" spans="1:26" ht="48" hidden="1">
+    <row r="199" spans="1:26" ht="48">
       <c r="A199" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T198</v>
@@ -25296,7 +25382,7 @@
       <c r="Y199" s="61"/>
       <c r="Z199" s="61"/>
     </row>
-    <row r="200" spans="1:26" ht="32" hidden="1">
+    <row r="200" spans="1:26" ht="32">
       <c r="A200" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T199</v>
@@ -25355,7 +25441,7 @@
       <c r="Y200" s="61"/>
       <c r="Z200" s="61"/>
     </row>
-    <row r="201" spans="1:26" ht="32" hidden="1">
+    <row r="201" spans="1:26" ht="32">
       <c r="A201" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T200</v>
@@ -25414,7 +25500,7 @@
       <c r="Y201" s="61"/>
       <c r="Z201" s="61"/>
     </row>
-    <row r="202" spans="1:26" ht="80" hidden="1">
+    <row r="202" spans="1:26" ht="80">
       <c r="A202" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T201</v>
@@ -25473,7 +25559,7 @@
       <c r="Y202" s="61"/>
       <c r="Z202" s="61"/>
     </row>
-    <row r="203" spans="1:26" ht="64" hidden="1">
+    <row r="203" spans="1:26" ht="64">
       <c r="A203" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T202</v>
@@ -25532,7 +25618,7 @@
       <c r="Y203" s="61"/>
       <c r="Z203" s="61"/>
     </row>
-    <row r="204" spans="1:26" ht="64" hidden="1">
+    <row r="204" spans="1:26" ht="64">
       <c r="A204" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T203</v>
@@ -25591,7 +25677,7 @@
       <c r="Y204" s="61"/>
       <c r="Z204" s="61"/>
     </row>
-    <row r="205" spans="1:26" ht="32" hidden="1">
+    <row r="205" spans="1:26" ht="32">
       <c r="A205" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T204</v>
@@ -25650,7 +25736,7 @@
       <c r="Y205" s="61"/>
       <c r="Z205" s="61"/>
     </row>
-    <row r="206" spans="1:26" ht="80" hidden="1">
+    <row r="206" spans="1:26" ht="80">
       <c r="A206" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T205</v>
@@ -25709,7 +25795,7 @@
       <c r="Y206" s="61"/>
       <c r="Z206" s="61"/>
     </row>
-    <row r="207" spans="1:26" ht="96" hidden="1">
+    <row r="207" spans="1:26" ht="96">
       <c r="A207" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T206</v>
@@ -25768,7 +25854,7 @@
       <c r="Y207" s="61"/>
       <c r="Z207" s="61"/>
     </row>
-    <row r="208" spans="1:26" ht="80" hidden="1">
+    <row r="208" spans="1:26" ht="80">
       <c r="A208" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T207</v>
@@ -25827,7 +25913,7 @@
       <c r="Y208" s="61"/>
       <c r="Z208" s="61"/>
     </row>
-    <row r="209" spans="1:26" ht="80" hidden="1">
+    <row r="209" spans="1:26" ht="80">
       <c r="A209" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T208</v>
@@ -25886,7 +25972,7 @@
       <c r="Y209" s="61"/>
       <c r="Z209" s="61"/>
     </row>
-    <row r="210" spans="1:26" ht="48" hidden="1">
+    <row r="210" spans="1:26" ht="48">
       <c r="A210" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T209</v>
@@ -25945,7 +26031,7 @@
       <c r="Y210" s="61"/>
       <c r="Z210" s="61"/>
     </row>
-    <row r="211" spans="1:26" ht="32" hidden="1">
+    <row r="211" spans="1:26" ht="32">
       <c r="A211" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T210</v>
@@ -26004,7 +26090,7 @@
       <c r="Y211" s="61"/>
       <c r="Z211" s="61"/>
     </row>
-    <row r="212" spans="1:26" ht="144" hidden="1">
+    <row r="212" spans="1:26" ht="144">
       <c r="A212" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T211</v>
@@ -26063,7 +26149,7 @@
       <c r="Y212" s="61"/>
       <c r="Z212" s="61"/>
     </row>
-    <row r="213" spans="1:26" ht="80" hidden="1">
+    <row r="213" spans="1:26" ht="80">
       <c r="A213" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T212</v>
@@ -26122,7 +26208,7 @@
       <c r="Y213" s="61"/>
       <c r="Z213" s="61"/>
     </row>
-    <row r="214" spans="1:26" ht="96" hidden="1">
+    <row r="214" spans="1:26" ht="96">
       <c r="A214" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T213</v>
@@ -26181,7 +26267,7 @@
       <c r="Y214" s="61"/>
       <c r="Z214" s="61"/>
     </row>
-    <row r="215" spans="1:26" ht="96" hidden="1">
+    <row r="215" spans="1:26" ht="96">
       <c r="A215" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T214</v>
@@ -26240,7 +26326,7 @@
       <c r="Y215" s="61"/>
       <c r="Z215" s="61"/>
     </row>
-    <row r="216" spans="1:26" ht="80" hidden="1">
+    <row r="216" spans="1:26" ht="80">
       <c r="A216" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T215</v>
@@ -26299,7 +26385,7 @@
       <c r="Y216" s="61"/>
       <c r="Z216" s="61"/>
     </row>
-    <row r="217" spans="1:26" ht="80" hidden="1">
+    <row r="217" spans="1:26" ht="80">
       <c r="A217" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T216</v>
@@ -26358,7 +26444,7 @@
       <c r="Y217" s="61"/>
       <c r="Z217" s="61"/>
     </row>
-    <row r="218" spans="1:26" ht="48" hidden="1">
+    <row r="218" spans="1:26" ht="48">
       <c r="A218" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T217</v>
@@ -26417,7 +26503,7 @@
       <c r="Y218" s="61"/>
       <c r="Z218" s="61"/>
     </row>
-    <row r="219" spans="1:26" ht="32" hidden="1">
+    <row r="219" spans="1:26" ht="32">
       <c r="A219" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T218</v>
@@ -26476,7 +26562,7 @@
       <c r="Y219" s="61"/>
       <c r="Z219" s="61"/>
     </row>
-    <row r="220" spans="1:26" ht="64" hidden="1">
+    <row r="220" spans="1:26" ht="64">
       <c r="A220" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T219</v>
@@ -26535,7 +26621,7 @@
       <c r="Y220" s="61"/>
       <c r="Z220" s="61"/>
     </row>
-    <row r="221" spans="1:26" ht="16" hidden="1">
+    <row r="221" spans="1:26" ht="16">
       <c r="A221" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T220</v>
@@ -26594,7 +26680,7 @@
       <c r="Y221" s="61"/>
       <c r="Z221" s="61"/>
     </row>
-    <row r="222" spans="1:26" ht="64" hidden="1">
+    <row r="222" spans="1:26" ht="64">
       <c r="A222" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T221</v>
@@ -26653,7 +26739,7 @@
       <c r="Y222" s="61"/>
       <c r="Z222" s="61"/>
     </row>
-    <row r="223" spans="1:26" ht="96" hidden="1">
+    <row r="223" spans="1:26" ht="96">
       <c r="A223" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T222</v>
@@ -26712,7 +26798,7 @@
       <c r="Y223" s="61"/>
       <c r="Z223" s="61"/>
     </row>
-    <row r="224" spans="1:26" ht="80" hidden="1">
+    <row r="224" spans="1:26" ht="80">
       <c r="A224" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T223</v>
@@ -26771,7 +26857,7 @@
       <c r="Y224" s="61"/>
       <c r="Z224" s="61"/>
     </row>
-    <row r="225" spans="1:26" ht="80" hidden="1">
+    <row r="225" spans="1:26" ht="80">
       <c r="A225" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T224</v>
@@ -26830,7 +26916,7 @@
       <c r="Y225" s="61"/>
       <c r="Z225" s="61"/>
     </row>
-    <row r="226" spans="1:26" ht="64" hidden="1">
+    <row r="226" spans="1:26" ht="64">
       <c r="A226" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T225</v>
@@ -26889,7 +26975,7 @@
       <c r="Y226" s="61"/>
       <c r="Z226" s="61"/>
     </row>
-    <row r="227" spans="1:26" ht="80" hidden="1">
+    <row r="227" spans="1:26" ht="80">
       <c r="A227" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T226</v>
@@ -26948,7 +27034,7 @@
       <c r="Y227" s="61"/>
       <c r="Z227" s="61"/>
     </row>
-    <row r="228" spans="1:26" ht="64" hidden="1">
+    <row r="228" spans="1:26" ht="64">
       <c r="A228" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T227</v>
@@ -27007,7 +27093,7 @@
       <c r="Y228" s="61"/>
       <c r="Z228" s="61"/>
     </row>
-    <row r="229" spans="1:26" ht="48" hidden="1">
+    <row r="229" spans="1:26" ht="48">
       <c r="A229" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T228</v>
@@ -27066,7 +27152,7 @@
       <c r="Y229" s="61"/>
       <c r="Z229" s="61"/>
     </row>
-    <row r="230" spans="1:26" ht="80" hidden="1">
+    <row r="230" spans="1:26" ht="80">
       <c r="A230" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T229</v>
@@ -27125,7 +27211,7 @@
       <c r="Y230" s="61"/>
       <c r="Z230" s="61"/>
     </row>
-    <row r="231" spans="1:26" ht="80" hidden="1">
+    <row r="231" spans="1:26" ht="80">
       <c r="A231" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T230</v>
@@ -27184,7 +27270,7 @@
       <c r="Y231" s="61"/>
       <c r="Z231" s="61"/>
     </row>
-    <row r="232" spans="1:26" ht="48" hidden="1">
+    <row r="232" spans="1:26" ht="48">
       <c r="A232" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T231</v>
@@ -27243,7 +27329,7 @@
       <c r="Y232" s="61"/>
       <c r="Z232" s="61"/>
     </row>
-    <row r="233" spans="1:26" ht="96" hidden="1">
+    <row r="233" spans="1:26" ht="96">
       <c r="A233" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T232</v>
@@ -27302,7 +27388,7 @@
       <c r="Y233" s="61"/>
       <c r="Z233" s="61"/>
     </row>
-    <row r="234" spans="1:26" ht="96" hidden="1">
+    <row r="234" spans="1:26" ht="96">
       <c r="A234" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T233</v>
@@ -27361,7 +27447,7 @@
       <c r="Y234" s="61"/>
       <c r="Z234" s="61"/>
     </row>
-    <row r="235" spans="1:26" ht="80" hidden="1">
+    <row r="235" spans="1:26" ht="80">
       <c r="A235" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T234</v>
@@ -27420,7 +27506,7 @@
       <c r="Y235" s="61"/>
       <c r="Z235" s="61"/>
     </row>
-    <row r="236" spans="1:26" ht="80" hidden="1">
+    <row r="236" spans="1:26" ht="80">
       <c r="A236" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T235</v>
@@ -27479,7 +27565,7 @@
       <c r="Y236" s="61"/>
       <c r="Z236" s="61"/>
     </row>
-    <row r="237" spans="1:26" ht="48" hidden="1">
+    <row r="237" spans="1:26" ht="48">
       <c r="A237" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T236</v>
@@ -27538,7 +27624,7 @@
       <c r="Y237" s="61"/>
       <c r="Z237" s="61"/>
     </row>
-    <row r="238" spans="1:26" ht="32" hidden="1">
+    <row r="238" spans="1:26" ht="32">
       <c r="A238" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T237</v>
@@ -27597,7 +27683,7 @@
       <c r="Y238" s="61"/>
       <c r="Z238" s="61"/>
     </row>
-    <row r="239" spans="1:26" ht="80" hidden="1">
+    <row r="239" spans="1:26" ht="80">
       <c r="A239" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T238</v>
@@ -27656,7 +27742,7 @@
       <c r="Y239" s="61"/>
       <c r="Z239" s="61"/>
     </row>
-    <row r="240" spans="1:26" ht="80" hidden="1">
+    <row r="240" spans="1:26" ht="80">
       <c r="A240" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T239</v>
@@ -27715,7 +27801,7 @@
       <c r="Y240" s="61"/>
       <c r="Z240" s="61"/>
     </row>
-    <row r="241" spans="1:26" ht="48" hidden="1">
+    <row r="241" spans="1:26" ht="48">
       <c r="A241" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T240</v>
@@ -27774,7 +27860,7 @@
       <c r="Y241" s="61"/>
       <c r="Z241" s="61"/>
     </row>
-    <row r="242" spans="1:26" ht="32" hidden="1">
+    <row r="242" spans="1:26" ht="32">
       <c r="A242" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T241</v>
@@ -27833,7 +27919,7 @@
       <c r="Y242" s="61"/>
       <c r="Z242" s="61"/>
     </row>
-    <row r="243" spans="1:26" ht="32" hidden="1">
+    <row r="243" spans="1:26" ht="32">
       <c r="A243" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T242</v>
@@ -27892,7 +27978,7 @@
       <c r="Y243" s="61"/>
       <c r="Z243" s="61"/>
     </row>
-    <row r="244" spans="1:26" ht="32" hidden="1">
+    <row r="244" spans="1:26" ht="32">
       <c r="A244" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T243</v>
@@ -27951,7 +28037,7 @@
       <c r="Y244" s="61"/>
       <c r="Z244" s="61"/>
     </row>
-    <row r="245" spans="1:26" ht="80" hidden="1">
+    <row r="245" spans="1:26" ht="80">
       <c r="A245" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T244</v>
@@ -28010,7 +28096,7 @@
       <c r="Y245" s="61"/>
       <c r="Z245" s="61"/>
     </row>
-    <row r="246" spans="1:26" ht="32" hidden="1">
+    <row r="246" spans="1:26" ht="32">
       <c r="A246" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T245</v>
@@ -28069,7 +28155,7 @@
       <c r="Y246" s="61"/>
       <c r="Z246" s="61"/>
     </row>
-    <row r="247" spans="1:26" ht="32" hidden="1">
+    <row r="247" spans="1:26" ht="32">
       <c r="A247" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T246</v>
@@ -28128,7 +28214,7 @@
       <c r="Y247" s="61"/>
       <c r="Z247" s="61"/>
     </row>
-    <row r="248" spans="1:26" ht="80" hidden="1">
+    <row r="248" spans="1:26" ht="80">
       <c r="A248" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T247</v>
@@ -28187,7 +28273,7 @@
       <c r="Y248" s="61"/>
       <c r="Z248" s="61"/>
     </row>
-    <row r="249" spans="1:26" ht="64" hidden="1">
+    <row r="249" spans="1:26" ht="64">
       <c r="A249" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T248</v>
@@ -28246,7 +28332,7 @@
       <c r="Y249" s="61"/>
       <c r="Z249" s="61"/>
     </row>
-    <row r="250" spans="1:26" ht="64" hidden="1">
+    <row r="250" spans="1:26" ht="64">
       <c r="A250" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T249</v>
@@ -28305,7 +28391,7 @@
       <c r="Y250" s="61"/>
       <c r="Z250" s="61"/>
     </row>
-    <row r="251" spans="1:26" ht="96" hidden="1">
+    <row r="251" spans="1:26" ht="96">
       <c r="A251" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T250</v>
@@ -28364,7 +28450,7 @@
       <c r="Y251" s="61"/>
       <c r="Z251" s="61"/>
     </row>
-    <row r="252" spans="1:26" ht="48" hidden="1">
+    <row r="252" spans="1:26" ht="48">
       <c r="A252" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T251</v>
@@ -28423,7 +28509,7 @@
       <c r="Y252" s="61"/>
       <c r="Z252" s="61"/>
     </row>
-    <row r="253" spans="1:26" ht="80" hidden="1">
+    <row r="253" spans="1:26" ht="80">
       <c r="A253" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T252</v>
@@ -28482,7 +28568,7 @@
       <c r="Y253" s="61"/>
       <c r="Z253" s="61"/>
     </row>
-    <row r="254" spans="1:26" ht="16" hidden="1">
+    <row r="254" spans="1:26" ht="16">
       <c r="A254" s="20" t="str">
         <f t="shared" si="28"/>
         <v>T253</v>
@@ -28541,7 +28627,7 @@
       <c r="Y254" s="61"/>
       <c r="Z254" s="61"/>
     </row>
-    <row r="255" spans="1:26" ht="16" hidden="1">
+    <row r="255" spans="1:26" ht="16">
       <c r="A255" s="20" t="str">
         <f t="shared" ref="A255:A269" si="33">CONCATENATE("T",ROW(A255)-1)</f>
         <v>T254</v>
@@ -28626,7 +28712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:26" ht="16" hidden="1">
+    <row r="256" spans="1:26" ht="16">
       <c r="A256" s="20" t="str">
         <f t="shared" si="33"/>
         <v>T255</v>
@@ -28711,7 +28797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:26" ht="16" hidden="1">
+    <row r="257" spans="1:26" ht="16">
       <c r="A257" s="20" t="str">
         <f t="shared" si="33"/>
         <v>T256</v>
@@ -28796,7 +28882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:26" ht="16" hidden="1">
+    <row r="258" spans="1:26" ht="16">
       <c r="A258" s="20" t="str">
         <f t="shared" si="33"/>
         <v>T257</v>
@@ -28881,7 +28967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:26" ht="240" hidden="1">
+    <row r="259" spans="1:26" ht="240">
       <c r="A259" s="20" t="str">
         <f t="shared" si="33"/>
         <v>T258</v>
@@ -28966,7 +29052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:26" ht="16" hidden="1">
+    <row r="260" spans="1:26" ht="16">
       <c r="A260" s="20" t="str">
         <f t="shared" si="33"/>
         <v>T259</v>
@@ -29051,7 +29137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:26" ht="16" hidden="1">
+    <row r="261" spans="1:26" ht="16">
       <c r="A261" s="20" t="str">
         <f t="shared" si="33"/>
         <v>T260</v>
@@ -29136,7 +29222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:26" ht="48" hidden="1">
+    <row r="262" spans="1:26" ht="48">
       <c r="A262" s="20" t="str">
         <f t="shared" si="33"/>
         <v>T261</v>
@@ -29217,7 +29303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:26" ht="32" hidden="1">
+    <row r="263" spans="1:26" ht="32">
       <c r="A263" s="20" t="str">
         <f t="shared" si="33"/>
         <v>T262</v>
@@ -29302,7 +29388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:26" ht="128" hidden="1">
+    <row r="264" spans="1:26" ht="128">
       <c r="A264" s="20" t="str">
         <f t="shared" si="33"/>
         <v>T263</v>
@@ -29387,7 +29473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:26" ht="64" hidden="1">
+    <row r="265" spans="1:26" ht="64">
       <c r="A265" s="20" t="str">
         <f t="shared" si="33"/>
         <v>T264</v>
@@ -29472,7 +29558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:26" ht="48" hidden="1">
+    <row r="266" spans="1:26" ht="48">
       <c r="A266" s="20" t="str">
         <f t="shared" si="33"/>
         <v>T265</v>
@@ -29557,7 +29643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:26" ht="48" hidden="1">
+    <row r="267" spans="1:26" ht="48">
       <c r="A267" s="20" t="str">
         <f t="shared" si="33"/>
         <v>T266</v>
@@ -29638,7 +29724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:26" ht="32" hidden="1">
+    <row r="268" spans="1:26" ht="32">
       <c r="A268" s="20" t="str">
         <f t="shared" si="33"/>
         <v>T267</v>
@@ -29723,7 +29809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:26" ht="32" hidden="1">
+    <row r="269" spans="1:26" ht="32">
       <c r="A269" s="20" t="str">
         <f t="shared" si="33"/>
         <v>T268</v>
@@ -29808,7 +29894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:26" ht="128" hidden="1">
+    <row r="270" spans="1:26" ht="128">
       <c r="A270" s="20" t="str">
         <f t="shared" ref="A270:A313" si="40">CONCATENATE("T",ROW(A270)-1)</f>
         <v>T269</v>
@@ -29877,7 +29963,7 @@
       <c r="Y270" s="61"/>
       <c r="Z270" s="61"/>
     </row>
-    <row r="271" spans="1:26" ht="32" hidden="1">
+    <row r="271" spans="1:26" ht="32">
       <c r="A271" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T270</v>
@@ -29946,7 +30032,7 @@
       <c r="Y271" s="61"/>
       <c r="Z271" s="61"/>
     </row>
-    <row r="272" spans="1:26" ht="96" hidden="1">
+    <row r="272" spans="1:26" ht="96">
       <c r="A272" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T271</v>
@@ -30015,7 +30101,7 @@
       <c r="Y272" s="61"/>
       <c r="Z272" s="61"/>
     </row>
-    <row r="273" spans="1:26" ht="64" hidden="1">
+    <row r="273" spans="1:26" ht="64">
       <c r="A273" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T272</v>
@@ -30084,7 +30170,7 @@
       <c r="Y273" s="61"/>
       <c r="Z273" s="61"/>
     </row>
-    <row r="274" spans="1:26" ht="128" hidden="1">
+    <row r="274" spans="1:26" ht="128">
       <c r="A274" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T273</v>
@@ -30153,7 +30239,7 @@
       <c r="Y274" s="61"/>
       <c r="Z274" s="61"/>
     </row>
-    <row r="275" spans="1:26" ht="96" hidden="1">
+    <row r="275" spans="1:26" ht="96">
       <c r="A275" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T274</v>
@@ -30234,7 +30320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:26" ht="80" hidden="1">
+    <row r="276" spans="1:26" ht="80">
       <c r="A276" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T275</v>
@@ -30315,7 +30401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:26" ht="64" hidden="1">
+    <row r="277" spans="1:26" ht="64">
       <c r="A277" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T276</v>
@@ -30396,7 +30482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:26" ht="96" hidden="1">
+    <row r="278" spans="1:26" ht="96">
       <c r="A278" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T277</v>
@@ -30481,7 +30567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:26" ht="48" hidden="1">
+    <row r="279" spans="1:26" ht="48">
       <c r="A279" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T278</v>
@@ -30562,7 +30648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:26" ht="48" hidden="1">
+    <row r="280" spans="1:26" ht="48">
       <c r="A280" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T279</v>
@@ -30647,7 +30733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:26" ht="48" hidden="1">
+    <row r="281" spans="1:26" ht="48">
       <c r="A281" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T280</v>
@@ -30732,7 +30818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:26" ht="32" hidden="1">
+    <row r="282" spans="1:26" ht="32">
       <c r="A282" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T281</v>
@@ -30817,7 +30903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:26" ht="80" hidden="1">
+    <row r="283" spans="1:26" ht="80">
       <c r="A283" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T282</v>
@@ -30900,7 +30986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:26" ht="160" hidden="1">
+    <row r="284" spans="1:26" ht="160">
       <c r="A284" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T283</v>
@@ -30985,7 +31071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="285" spans="1:26" ht="128" hidden="1">
+    <row r="285" spans="1:26" ht="128">
       <c r="A285" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T284</v>
@@ -31070,7 +31156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:26" ht="48" hidden="1">
+    <row r="286" spans="1:26" ht="48">
       <c r="A286" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T285</v>
@@ -31155,7 +31241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:26" ht="96" hidden="1">
+    <row r="287" spans="1:26" ht="96">
       <c r="A287" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T286</v>
@@ -31240,7 +31326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:26" ht="96" hidden="1">
+    <row r="288" spans="1:26" ht="96">
       <c r="A288" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T287</v>
@@ -31325,7 +31411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:26" ht="240" hidden="1">
+    <row r="289" spans="1:26" ht="240">
       <c r="A289" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T288</v>
@@ -31410,7 +31496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:26" ht="96" hidden="1">
+    <row r="290" spans="1:26" ht="96">
       <c r="A290" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T289</v>
@@ -31497,7 +31583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:26" ht="176" hidden="1">
+    <row r="291" spans="1:26" ht="176">
       <c r="A291" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T290</v>
@@ -31582,7 +31668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:26" ht="380" hidden="1">
+    <row r="292" spans="1:26" ht="380">
       <c r="A292" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T291</v>
@@ -31667,7 +31753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:26" ht="144" hidden="1">
+    <row r="293" spans="1:26" ht="144">
       <c r="A293" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T292</v>
@@ -31752,7 +31838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:26" ht="112" hidden="1">
+    <row r="294" spans="1:26" ht="112">
       <c r="A294" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T293</v>
@@ -31837,7 +31923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:26" ht="96" hidden="1">
+    <row r="295" spans="1:26" ht="96">
       <c r="A295" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T294</v>
@@ -31922,7 +32008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:26" ht="32" hidden="1">
+    <row r="296" spans="1:26" ht="32">
       <c r="A296" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T295</v>
@@ -32005,7 +32091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:26" ht="32" hidden="1">
+    <row r="297" spans="1:26" ht="32">
       <c r="A297" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T296</v>
@@ -32090,7 +32176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:26" ht="48" hidden="1">
+    <row r="298" spans="1:26" ht="48">
       <c r="A298" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T297</v>
@@ -32175,7 +32261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:26" ht="16" hidden="1">
+    <row r="299" spans="1:26" ht="16">
       <c r="A299" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T298</v>
@@ -32258,7 +32344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:26" ht="16" hidden="1">
+    <row r="300" spans="1:26" ht="16">
       <c r="A300" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T299</v>
@@ -32341,7 +32427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:26" ht="16" hidden="1">
+    <row r="301" spans="1:26" ht="16">
       <c r="A301" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T300</v>
@@ -32424,7 +32510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:26" ht="16" hidden="1">
+    <row r="302" spans="1:26" ht="16">
       <c r="A302" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T301</v>
@@ -32509,7 +32595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:26" ht="240" hidden="1">
+    <row r="303" spans="1:26" ht="240">
       <c r="A303" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T302</v>
@@ -32594,7 +32680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:26" ht="16" hidden="1">
+    <row r="304" spans="1:26" ht="16">
       <c r="A304" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T303</v>
@@ -32677,7 +32763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:26" ht="16" hidden="1">
+    <row r="305" spans="1:26" ht="16">
       <c r="A305" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T304</v>
@@ -32762,7 +32848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="306" spans="1:26" ht="48" hidden="1">
+    <row r="306" spans="1:26" ht="48">
       <c r="A306" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T305</v>
@@ -32843,7 +32929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="1:26" ht="32" hidden="1">
+    <row r="307" spans="1:26" ht="32">
       <c r="A307" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T306</v>
@@ -32928,7 +33014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:26" ht="128" hidden="1">
+    <row r="308" spans="1:26" ht="128">
       <c r="A308" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T307</v>
@@ -33013,7 +33099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:26" ht="64" hidden="1">
+    <row r="309" spans="1:26" ht="64">
       <c r="A309" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T308</v>
@@ -33098,7 +33184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:26" ht="48" hidden="1">
+    <row r="310" spans="1:26" ht="48">
       <c r="A310" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T309</v>
@@ -33167,7 +33253,7 @@
       <c r="Y310" s="61"/>
       <c r="Z310" s="61"/>
     </row>
-    <row r="311" spans="1:26" ht="48" hidden="1">
+    <row r="311" spans="1:26" ht="48">
       <c r="A311" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T310</v>
@@ -33232,7 +33318,7 @@
       <c r="Y311" s="61"/>
       <c r="Z311" s="61"/>
     </row>
-    <row r="312" spans="1:26" ht="32" hidden="1">
+    <row r="312" spans="1:26" ht="32">
       <c r="A312" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T311</v>
@@ -33301,7 +33387,7 @@
       <c r="Y312" s="61"/>
       <c r="Z312" s="61"/>
     </row>
-    <row r="313" spans="1:26" ht="16" hidden="1">
+    <row r="313" spans="1:26" ht="16">
       <c r="A313" s="20" t="str">
         <f t="shared" si="40"/>
         <v>T312</v>
@@ -33368,7 +33454,7 @@
       <c r="Y313" s="61"/>
       <c r="Z313" s="61"/>
     </row>
-    <row r="314" spans="1:26" ht="96" hidden="1">
+    <row r="314" spans="1:26" ht="96">
       <c r="A314" s="20" t="str">
         <f t="shared" ref="A314:A320" si="53">CONCATENATE("T",ROW(A314)-1)</f>
         <v>T313</v>
@@ -33427,7 +33513,7 @@
       <c r="Y314" s="61"/>
       <c r="Z314" s="61"/>
     </row>
-    <row r="315" spans="1:26" ht="32" hidden="1">
+    <row r="315" spans="1:26" ht="32">
       <c r="A315" s="20" t="str">
         <f t="shared" si="53"/>
         <v>T314</v>
@@ -33486,7 +33572,7 @@
       <c r="Y315" s="61"/>
       <c r="Z315" s="61"/>
     </row>
-    <row r="316" spans="1:26" ht="80" hidden="1">
+    <row r="316" spans="1:26" ht="80">
       <c r="A316" s="20" t="str">
         <f t="shared" si="53"/>
         <v>T315</v>
@@ -33545,7 +33631,7 @@
       <c r="Y316" s="61"/>
       <c r="Z316" s="61"/>
     </row>
-    <row r="317" spans="1:26" ht="96" hidden="1">
+    <row r="317" spans="1:26" ht="96">
       <c r="A317" s="20" t="str">
         <f t="shared" si="53"/>
         <v>T316</v>
@@ -33604,7 +33690,7 @@
       <c r="Y317" s="61"/>
       <c r="Z317" s="61"/>
     </row>
-    <row r="318" spans="1:26" ht="64" hidden="1">
+    <row r="318" spans="1:26" ht="64">
       <c r="A318" s="20" t="str">
         <f t="shared" si="53"/>
         <v>T317</v>
@@ -33663,7 +33749,7 @@
       <c r="Y318" s="61"/>
       <c r="Z318" s="61"/>
     </row>
-    <row r="319" spans="1:26" ht="112" hidden="1">
+    <row r="319" spans="1:26" ht="112">
       <c r="A319" s="20" t="str">
         <f t="shared" si="53"/>
         <v>T318</v>
@@ -33722,7 +33808,7 @@
       <c r="Y319" s="61"/>
       <c r="Z319" s="61"/>
     </row>
-    <row r="320" spans="1:26" ht="64" hidden="1">
+    <row r="320" spans="1:26" ht="64">
       <c r="A320" s="20" t="str">
         <f t="shared" si="53"/>
         <v>T319</v>
@@ -33781,7 +33867,7 @@
       <c r="Y320" s="61"/>
       <c r="Z320" s="61"/>
     </row>
-    <row r="321" spans="1:26" ht="16" hidden="1">
+    <row r="321" spans="1:26" ht="16">
       <c r="A321" s="20" t="str">
         <f t="shared" ref="A321:A324" si="56">CONCATENATE("T",ROW(A321)-1)</f>
         <v>T320</v>
@@ -33840,7 +33926,7 @@
       <c r="Y321" s="61"/>
       <c r="Z321" s="61"/>
     </row>
-    <row r="322" spans="1:26" ht="80" hidden="1">
+    <row r="322" spans="1:26" ht="80">
       <c r="A322" s="20" t="str">
         <f t="shared" si="56"/>
         <v>T321</v>
@@ -33899,7 +33985,7 @@
       <c r="Y322" s="61"/>
       <c r="Z322" s="61"/>
     </row>
-    <row r="323" spans="1:26" ht="80" hidden="1">
+    <row r="323" spans="1:26" ht="80">
       <c r="A323" s="20" t="str">
         <f t="shared" si="56"/>
         <v>T322</v>
@@ -33949,7 +34035,7 @@
       <c r="Y323" s="61"/>
       <c r="Z323" s="61"/>
     </row>
-    <row r="324" spans="1:26" ht="48" hidden="1">
+    <row r="324" spans="1:26" ht="48">
       <c r="A324" s="20" t="str">
         <f t="shared" si="56"/>
         <v>T323</v>
@@ -33999,7 +34085,7 @@
       <c r="Y324" s="61"/>
       <c r="Z324" s="61"/>
     </row>
-    <row r="325" spans="1:26" ht="48" hidden="1">
+    <row r="325" spans="1:26" ht="48">
       <c r="A325" s="20" t="str">
         <f>CONCATENATE("T",ROW(A325)-1)</f>
         <v>T324</v>
@@ -34049,7 +34135,7 @@
       <c r="Y325" s="61"/>
       <c r="Z325" s="61"/>
     </row>
-    <row r="326" spans="1:26" ht="48" hidden="1">
+    <row r="326" spans="1:26" ht="48">
       <c r="A326" s="20" t="str">
         <f>CONCATENATE("T",ROW(A326)-1)</f>
         <v>T325</v>
@@ -34099,7 +34185,7 @@
       <c r="Y326" s="61"/>
       <c r="Z326" s="61"/>
     </row>
-    <row r="327" spans="1:26" ht="48" hidden="1">
+    <row r="327" spans="1:26" ht="48">
       <c r="A327" s="20" t="str">
         <f t="shared" ref="A327:A332" si="60">CONCATENATE("T",ROW(A327)-1)</f>
         <v>T326</v>
@@ -34149,7 +34235,7 @@
       <c r="Y327" s="61"/>
       <c r="Z327" s="61"/>
     </row>
-    <row r="328" spans="1:26" ht="48" hidden="1">
+    <row r="328" spans="1:26" ht="48">
       <c r="A328" s="20" t="str">
         <f t="shared" si="60"/>
         <v>T327</v>
@@ -34199,7 +34285,7 @@
       <c r="Y328" s="61"/>
       <c r="Z328" s="61"/>
     </row>
-    <row r="329" spans="1:26" ht="48" hidden="1">
+    <row r="329" spans="1:26" ht="48">
       <c r="A329" s="20" t="str">
         <f t="shared" si="60"/>
         <v>T328</v>
@@ -34249,7 +34335,7 @@
       <c r="Y329" s="61"/>
       <c r="Z329" s="61"/>
     </row>
-    <row r="330" spans="1:26" ht="48" hidden="1">
+    <row r="330" spans="1:26" ht="48">
       <c r="A330" s="20" t="str">
         <f t="shared" si="60"/>
         <v>T329</v>
@@ -34299,7 +34385,7 @@
       <c r="Y330" s="61"/>
       <c r="Z330" s="61"/>
     </row>
-    <row r="331" spans="1:26" ht="48" hidden="1">
+    <row r="331" spans="1:26" ht="48">
       <c r="A331" s="20" t="str">
         <f t="shared" si="60"/>
         <v>T330</v>
@@ -34349,7 +34435,7 @@
       <c r="Y331" s="61"/>
       <c r="Z331" s="61"/>
     </row>
-    <row r="332" spans="1:26" ht="48" hidden="1">
+    <row r="332" spans="1:26" ht="48">
       <c r="A332" s="20" t="str">
         <f t="shared" si="60"/>
         <v>T331</v>
@@ -34399,7 +34485,7 @@
       <c r="Y332" s="61"/>
       <c r="Z332" s="61"/>
     </row>
-    <row r="333" spans="1:26" ht="32" hidden="1">
+    <row r="333" spans="1:26" ht="32">
       <c r="A333" s="20" t="str">
         <f>CONCATENATE("T",ROW(A333)-1)</f>
         <v>T332</v>
@@ -34449,7 +34535,7 @@
       <c r="Y333" s="61"/>
       <c r="Z333" s="61"/>
     </row>
-    <row r="334" spans="1:26" ht="48" hidden="1">
+    <row r="334" spans="1:26" ht="48">
       <c r="A334" s="20" t="str">
         <f t="shared" ref="A334:A335" si="61">CONCATENATE("T",ROW(A334)-1)</f>
         <v>T333</v>
@@ -34499,7 +34585,7 @@
       <c r="Y334" s="61"/>
       <c r="Z334" s="61"/>
     </row>
-    <row r="335" spans="1:26" ht="58" hidden="1" customHeight="1">
+    <row r="335" spans="1:26" ht="58" customHeight="1">
       <c r="A335" s="20" t="str">
         <f t="shared" si="61"/>
         <v>T334</v>
@@ -34568,7 +34654,7 @@
       <c r="Y335" s="61"/>
       <c r="Z335" s="61"/>
     </row>
-    <row r="336" spans="1:26" ht="48" hidden="1">
+    <row r="336" spans="1:26" ht="48">
       <c r="A336" s="20" t="str">
         <f>CONCATENATE("T",ROW(A336)-1)</f>
         <v>T335</v>
@@ -34631,7 +34717,7 @@
       <c r="Y336" s="61"/>
       <c r="Z336" s="61"/>
     </row>
-    <row r="337" spans="1:26" ht="96" hidden="1">
+    <row r="337" spans="1:26" ht="96">
       <c r="A337" s="20" t="str">
         <f>CONCATENATE("T",ROW(A337)-1)</f>
         <v>T336</v>
@@ -34694,7 +34780,7 @@
       <c r="Y337" s="61"/>
       <c r="Z337" s="61"/>
     </row>
-    <row r="338" spans="1:26" ht="96" hidden="1">
+    <row r="338" spans="1:26" ht="96">
       <c r="A338" s="20" t="str">
         <f>CONCATENATE("T",ROW(A338)-1)</f>
         <v>T337</v>
@@ -34757,7 +34843,7 @@
       <c r="Y338" s="61"/>
       <c r="Z338" s="61"/>
     </row>
-    <row r="339" spans="1:26" ht="32" hidden="1">
+    <row r="339" spans="1:26" ht="32">
       <c r="A339" s="20" t="str">
         <f t="shared" ref="A339:A341" si="65">CONCATENATE("T",ROW(A339)-1)</f>
         <v>T338</v>
@@ -34823,7 +34909,7 @@
       <c r="Y339" s="61"/>
       <c r="Z339" s="61"/>
     </row>
-    <row r="340" spans="1:26" ht="32" hidden="1">
+    <row r="340" spans="1:26" ht="32">
       <c r="A340" s="20" t="str">
         <f>CONCATENATE("T",ROW(A340)-1)</f>
         <v>T339</v>
@@ -34886,7 +34972,7 @@
       <c r="Y340" s="61"/>
       <c r="Z340" s="61"/>
     </row>
-    <row r="341" spans="1:26" ht="96" hidden="1">
+    <row r="341" spans="1:26" ht="96">
       <c r="A341" s="20" t="str">
         <f t="shared" si="65"/>
         <v>T340</v>
@@ -34955,7 +35041,7 @@
       <c r="Y341" s="61"/>
       <c r="Z341" s="61"/>
     </row>
-    <row r="342" spans="1:26" ht="48" hidden="1">
+    <row r="342" spans="1:26" ht="48">
       <c r="A342" s="20" t="str">
         <f>CONCATENATE("T",ROW(A342)-1)</f>
         <v>T341</v>
@@ -35005,7 +35091,7 @@
       <c r="Y342" s="61"/>
       <c r="Z342" s="61"/>
     </row>
-    <row r="343" spans="1:26" ht="48" hidden="1">
+    <row r="343" spans="1:26" ht="48">
       <c r="A343" s="20" t="str">
         <f t="shared" ref="A343:A355" si="72">CONCATENATE("T",ROW(A343)-1)</f>
         <v>T342</v>
@@ -35055,7 +35141,7 @@
       <c r="Y343" s="61"/>
       <c r="Z343" s="61"/>
     </row>
-    <row r="344" spans="1:26" ht="48" hidden="1">
+    <row r="344" spans="1:26" ht="48">
       <c r="A344" s="20" t="str">
         <f t="shared" si="72"/>
         <v>T343</v>
@@ -35105,7 +35191,7 @@
       <c r="Y344" s="61"/>
       <c r="Z344" s="61"/>
     </row>
-    <row r="345" spans="1:26" ht="48" hidden="1">
+    <row r="345" spans="1:26" ht="48">
       <c r="A345" s="20" t="str">
         <f t="shared" si="72"/>
         <v>T344</v>
@@ -35155,7 +35241,7 @@
       <c r="Y345" s="61"/>
       <c r="Z345" s="61"/>
     </row>
-    <row r="346" spans="1:26" ht="48" hidden="1">
+    <row r="346" spans="1:26" ht="48">
       <c r="A346" s="20" t="str">
         <f t="shared" si="72"/>
         <v>T345</v>
@@ -35205,7 +35291,7 @@
       <c r="Y346" s="61"/>
       <c r="Z346" s="61"/>
     </row>
-    <row r="347" spans="1:26" ht="48" hidden="1">
+    <row r="347" spans="1:26" ht="48">
       <c r="A347" s="20" t="str">
         <f t="shared" si="72"/>
         <v>T346</v>
@@ -35255,7 +35341,7 @@
       <c r="Y347" s="61"/>
       <c r="Z347" s="61"/>
     </row>
-    <row r="348" spans="1:26" ht="64" hidden="1">
+    <row r="348" spans="1:26" ht="64">
       <c r="A348" s="20" t="str">
         <f t="shared" si="72"/>
         <v>T347</v>
@@ -35305,7 +35391,7 @@
       <c r="Y348" s="61"/>
       <c r="Z348" s="61"/>
     </row>
-    <row r="349" spans="1:26" ht="48" hidden="1">
+    <row r="349" spans="1:26" ht="48">
       <c r="A349" s="20" t="str">
         <f t="shared" si="72"/>
         <v>T348</v>
@@ -35355,7 +35441,7 @@
       <c r="Y349" s="61"/>
       <c r="Z349" s="61"/>
     </row>
-    <row r="350" spans="1:26" ht="48" hidden="1">
+    <row r="350" spans="1:26" ht="48">
       <c r="A350" s="20" t="str">
         <f t="shared" si="72"/>
         <v>T349</v>
@@ -35405,7 +35491,7 @@
       <c r="Y350" s="61"/>
       <c r="Z350" s="61"/>
     </row>
-    <row r="351" spans="1:26" ht="48" hidden="1">
+    <row r="351" spans="1:26" ht="48">
       <c r="A351" s="20" t="str">
         <f t="shared" si="72"/>
         <v>T350</v>
@@ -35455,7 +35541,7 @@
       <c r="Y351" s="61"/>
       <c r="Z351" s="61"/>
     </row>
-    <row r="352" spans="1:26" ht="48" hidden="1">
+    <row r="352" spans="1:26" ht="48">
       <c r="A352" s="20" t="str">
         <f t="shared" si="72"/>
         <v>T351</v>
@@ -35505,7 +35591,7 @@
       <c r="Y352" s="61"/>
       <c r="Z352" s="61"/>
     </row>
-    <row r="353" spans="1:26" ht="48" hidden="1">
+    <row r="353" spans="1:26" ht="48">
       <c r="A353" s="20" t="str">
         <f t="shared" si="72"/>
         <v>T352</v>
@@ -35555,7 +35641,7 @@
       <c r="Y353" s="61"/>
       <c r="Z353" s="61"/>
     </row>
-    <row r="354" spans="1:26" ht="48" hidden="1">
+    <row r="354" spans="1:26" ht="48">
       <c r="A354" s="20" t="str">
         <f t="shared" si="72"/>
         <v>T353</v>
@@ -35605,7 +35691,7 @@
       <c r="Y354" s="61"/>
       <c r="Z354" s="61"/>
     </row>
-    <row r="355" spans="1:26" ht="48" hidden="1">
+    <row r="355" spans="1:26" ht="48">
       <c r="A355" s="20" t="str">
         <f t="shared" si="72"/>
         <v>T354</v>
@@ -35655,7 +35741,7 @@
       <c r="Y355" s="61"/>
       <c r="Z355" s="61"/>
     </row>
-    <row r="356" spans="1:26" ht="48" hidden="1">
+    <row r="356" spans="1:26" ht="48">
       <c r="A356" s="20" t="str">
         <f t="shared" ref="A356:A382" si="82">CONCATENATE("T",ROW(A356)-1)</f>
         <v>T355</v>
@@ -35705,7 +35791,7 @@
       <c r="Y356" s="61"/>
       <c r="Z356" s="61"/>
     </row>
-    <row r="357" spans="1:26" ht="48" hidden="1">
+    <row r="357" spans="1:26" ht="48">
       <c r="A357" s="20" t="str">
         <f t="shared" si="82"/>
         <v>T356</v>
@@ -35755,7 +35841,7 @@
       <c r="Y357" s="61"/>
       <c r="Z357" s="61"/>
     </row>
-    <row r="358" spans="1:26" ht="32" hidden="1">
+    <row r="358" spans="1:26" ht="32">
       <c r="A358" s="20" t="str">
         <f t="shared" si="82"/>
         <v>T357</v>
@@ -35805,7 +35891,7 @@
       <c r="Y358" s="61"/>
       <c r="Z358" s="61"/>
     </row>
-    <row r="359" spans="1:26" ht="48" hidden="1">
+    <row r="359" spans="1:26" ht="48">
       <c r="A359" s="20" t="str">
         <f t="shared" si="82"/>
         <v>T358</v>
@@ -35855,7 +35941,7 @@
       <c r="Y359" s="61"/>
       <c r="Z359" s="61"/>
     </row>
-    <row r="360" spans="1:26" ht="32" hidden="1">
+    <row r="360" spans="1:26" ht="32">
       <c r="A360" s="20" t="str">
         <f t="shared" si="82"/>
         <v>T359</v>
@@ -35905,7 +35991,7 @@
       <c r="Y360" s="61"/>
       <c r="Z360" s="61"/>
     </row>
-    <row r="361" spans="1:26" ht="32" hidden="1">
+    <row r="361" spans="1:26" ht="32">
       <c r="A361" s="20" t="str">
         <f t="shared" si="82"/>
         <v>T360</v>
@@ -35955,7 +36041,7 @@
       <c r="Y361" s="61"/>
       <c r="Z361" s="61"/>
     </row>
-    <row r="362" spans="1:26" ht="32" hidden="1">
+    <row r="362" spans="1:26" ht="32">
       <c r="A362" s="20" t="str">
         <f t="shared" si="82"/>
         <v>T361</v>
@@ -36005,7 +36091,7 @@
       <c r="Y362" s="61"/>
       <c r="Z362" s="61"/>
     </row>
-    <row r="363" spans="1:26" ht="32" hidden="1">
+    <row r="363" spans="1:26" ht="32">
       <c r="A363" s="20" t="str">
         <f t="shared" si="82"/>
         <v>T362</v>
@@ -36055,7 +36141,7 @@
       <c r="Y363" s="61"/>
       <c r="Z363" s="61"/>
     </row>
-    <row r="364" spans="1:26" ht="32" hidden="1">
+    <row r="364" spans="1:26" ht="32">
       <c r="A364" s="20" t="str">
         <f t="shared" si="82"/>
         <v>T363</v>
@@ -36105,7 +36191,7 @@
       <c r="Y364" s="61"/>
       <c r="Z364" s="61"/>
     </row>
-    <row r="365" spans="1:26" ht="32" hidden="1">
+    <row r="365" spans="1:26" ht="32">
       <c r="A365" s="20" t="str">
         <f t="shared" si="82"/>
         <v>T364</v>
@@ -36155,7 +36241,7 @@
       <c r="Y365" s="61"/>
       <c r="Z365" s="61"/>
     </row>
-    <row r="366" spans="1:26" ht="32" hidden="1">
+    <row r="366" spans="1:26" ht="32">
       <c r="A366" s="20" t="str">
         <f t="shared" si="82"/>
         <v>T365</v>
@@ -36205,7 +36291,7 @@
       <c r="Y366" s="61"/>
       <c r="Z366" s="61"/>
     </row>
-    <row r="367" spans="1:26" ht="32" hidden="1">
+    <row r="367" spans="1:26" ht="32">
       <c r="A367" s="20" t="str">
         <f t="shared" si="82"/>
         <v>T366</v>
@@ -36255,7 +36341,7 @@
       <c r="Y367" s="61"/>
       <c r="Z367" s="61"/>
     </row>
-    <row r="368" spans="1:26" ht="32" hidden="1">
+    <row r="368" spans="1:26" ht="32">
       <c r="A368" s="20" t="str">
         <f t="shared" si="82"/>
         <v>T367</v>
@@ -36305,7 +36391,7 @@
       <c r="Y368" s="61"/>
       <c r="Z368" s="61"/>
     </row>
-    <row r="369" spans="1:26" ht="48" hidden="1">
+    <row r="369" spans="1:26" ht="48">
       <c r="A369" s="20" t="str">
         <f t="shared" si="82"/>
         <v>T368</v>
@@ -36355,7 +36441,7 @@
       <c r="Y369" s="61"/>
       <c r="Z369" s="61"/>
     </row>
-    <row r="370" spans="1:26" ht="48" hidden="1">
+    <row r="370" spans="1:26" ht="48">
       <c r="A370" s="20" t="str">
         <f t="shared" si="82"/>
         <v>T369</v>
@@ -36407,7 +36493,7 @@
       <c r="Y370" s="61"/>
       <c r="Z370" s="61"/>
     </row>
-    <row r="371" spans="1:26" ht="48" hidden="1">
+    <row r="371" spans="1:26" ht="48">
       <c r="A371" s="20" t="str">
         <f t="shared" si="82"/>
         <v>T370</v>
@@ -36457,7 +36543,7 @@
       <c r="Y371" s="61"/>
       <c r="Z371" s="61"/>
     </row>
-    <row r="372" spans="1:26" ht="48" hidden="1">
+    <row r="372" spans="1:26" ht="48">
       <c r="A372" s="20" t="str">
         <f t="shared" si="82"/>
         <v>T371</v>
@@ -36507,7 +36593,7 @@
       <c r="Y372" s="61"/>
       <c r="Z372" s="61"/>
     </row>
-    <row r="373" spans="1:26" ht="48" hidden="1">
+    <row r="373" spans="1:26" ht="48">
       <c r="A373" s="20" t="str">
         <f t="shared" si="82"/>
         <v>T372</v>
@@ -36557,7 +36643,7 @@
       <c r="Y373" s="61"/>
       <c r="Z373" s="61"/>
     </row>
-    <row r="374" spans="1:26" ht="48" hidden="1">
+    <row r="374" spans="1:26" ht="48">
       <c r="A374" s="20" t="str">
         <f t="shared" si="82"/>
         <v>T373</v>
@@ -36607,7 +36693,7 @@
       <c r="Y374" s="61"/>
       <c r="Z374" s="61"/>
     </row>
-    <row r="375" spans="1:26" ht="80" hidden="1">
+    <row r="375" spans="1:26" ht="80">
       <c r="A375" s="20" t="str">
         <f t="shared" si="82"/>
         <v>T374</v>
@@ -36671,7 +36757,7 @@
       <c r="Y375" s="61"/>
       <c r="Z375" s="61"/>
     </row>
-    <row r="376" spans="1:26" ht="32" hidden="1">
+    <row r="376" spans="1:26" ht="32">
       <c r="A376" s="20" t="str">
         <f t="shared" si="82"/>
         <v>T375</v>
@@ -36725,7 +36811,7 @@
       <c r="Y376" s="61"/>
       <c r="Z376" s="61"/>
     </row>
-    <row r="377" spans="1:26" ht="32" hidden="1">
+    <row r="377" spans="1:26" ht="32">
       <c r="A377" s="20" t="str">
         <f t="shared" si="82"/>
         <v>T376</v>
@@ -36779,7 +36865,7 @@
       <c r="Y377" s="61"/>
       <c r="Z377" s="61"/>
     </row>
-    <row r="378" spans="1:26" ht="32" hidden="1">
+    <row r="378" spans="1:26" ht="32">
       <c r="A378" s="20" t="str">
         <f t="shared" si="82"/>
         <v>T377</v>
@@ -36833,7 +36919,7 @@
       <c r="Y378" s="61"/>
       <c r="Z378" s="61"/>
     </row>
-    <row r="379" spans="1:26" ht="32" hidden="1">
+    <row r="379" spans="1:26" ht="32">
       <c r="A379" s="20" t="str">
         <f t="shared" si="82"/>
         <v>T378</v>
@@ -36885,7 +36971,7 @@
       <c r="Y379" s="61"/>
       <c r="Z379" s="61"/>
     </row>
-    <row r="380" spans="1:26" ht="32" hidden="1">
+    <row r="380" spans="1:26" ht="32">
       <c r="A380" s="20" t="str">
         <f t="shared" si="82"/>
         <v>T379</v>
@@ -36937,7 +37023,7 @@
       <c r="Y380" s="61"/>
       <c r="Z380" s="61"/>
     </row>
-    <row r="381" spans="1:26" ht="32" hidden="1">
+    <row r="381" spans="1:26" ht="32">
       <c r="A381" s="20" t="str">
         <f t="shared" si="82"/>
         <v>T380</v>
@@ -36989,7 +37075,7 @@
       <c r="Y381" s="61"/>
       <c r="Z381" s="61"/>
     </row>
-    <row r="382" spans="1:26" ht="32" hidden="1">
+    <row r="382" spans="1:26" ht="32">
       <c r="A382" s="20" t="str">
         <f t="shared" si="82"/>
         <v>T381</v>
@@ -37041,7 +37127,7 @@
       <c r="Y382" s="61"/>
       <c r="Z382" s="61"/>
     </row>
-    <row r="383" spans="1:26" ht="32" hidden="1">
+    <row r="383" spans="1:26" ht="32">
       <c r="A383" s="20" t="str">
         <f>CONCATENATE("T",ROW(A383)-1)</f>
         <v>T382</v>
@@ -37105,7 +37191,7 @@
       <c r="Y383" s="61"/>
       <c r="Z383" s="61"/>
     </row>
-    <row r="384" spans="1:26" ht="96" hidden="1">
+    <row r="384" spans="1:26" ht="96">
       <c r="A384" s="20" t="str">
         <f>CONCATENATE("T",ROW(A384)-1)</f>
         <v>T383</v>
@@ -37174,7 +37260,7 @@
       <c r="Y384" s="61"/>
       <c r="Z384" s="61"/>
     </row>
-    <row r="385" spans="1:26" ht="48" hidden="1">
+    <row r="385" spans="1:26" ht="48">
       <c r="A385" s="20" t="str">
         <f t="shared" ref="A385:A388" si="93">CONCATENATE("T",ROW(A385)-1)</f>
         <v>T384</v>
@@ -37239,7 +37325,7 @@
       <c r="Y385" s="61"/>
       <c r="Z385" s="61"/>
     </row>
-    <row r="386" spans="1:26" ht="48" hidden="1">
+    <row r="386" spans="1:26" ht="48">
       <c r="A386" s="20" t="str">
         <f t="shared" si="93"/>
         <v>T385</v>
@@ -37308,7 +37394,7 @@
       <c r="Y386" s="61"/>
       <c r="Z386" s="61"/>
     </row>
-    <row r="387" spans="1:26" ht="48" hidden="1">
+    <row r="387" spans="1:26" ht="48">
       <c r="A387" s="20" t="str">
         <f t="shared" si="93"/>
         <v>T386</v>
@@ -37377,7 +37463,7 @@
       <c r="Y387" s="61"/>
       <c r="Z387" s="61"/>
     </row>
-    <row r="388" spans="1:26" ht="32" hidden="1">
+    <row r="388" spans="1:26" ht="32">
       <c r="A388" s="20" t="str">
         <f t="shared" si="93"/>
         <v>T387</v>
@@ -37446,7 +37532,7 @@
       <c r="Y388" s="61"/>
       <c r="Z388" s="61"/>
     </row>
-    <row r="389" spans="1:26" ht="160" hidden="1">
+    <row r="389" spans="1:26" ht="160">
       <c r="A389" s="20" t="str">
         <f t="shared" ref="A389:A393" si="94">CONCATENATE("T",ROW(A389)-1)</f>
         <v>T388</v>
@@ -37515,7 +37601,7 @@
       <c r="Y389" s="61"/>
       <c r="Z389" s="61"/>
     </row>
-    <row r="390" spans="1:26" ht="128" hidden="1">
+    <row r="390" spans="1:26" ht="128">
       <c r="A390" s="20" t="str">
         <f t="shared" si="94"/>
         <v>T389</v>
@@ -37584,7 +37670,7 @@
       <c r="Y390" s="61"/>
       <c r="Z390" s="61"/>
     </row>
-    <row r="391" spans="1:26" ht="96" hidden="1">
+    <row r="391" spans="1:26" ht="96">
       <c r="A391" s="20" t="str">
         <f t="shared" si="94"/>
         <v>T390</v>
@@ -37653,7 +37739,7 @@
       <c r="Y391" s="61"/>
       <c r="Z391" s="61"/>
     </row>
-    <row r="392" spans="1:26" ht="96" hidden="1">
+    <row r="392" spans="1:26" ht="96">
       <c r="A392" s="20" t="str">
         <f t="shared" si="94"/>
         <v>T391</v>
@@ -37722,7 +37808,7 @@
       <c r="Y392" s="61"/>
       <c r="Z392" s="61"/>
     </row>
-    <row r="393" spans="1:26" ht="240" hidden="1">
+    <row r="393" spans="1:26" ht="240">
       <c r="A393" s="20" t="str">
         <f t="shared" si="94"/>
         <v>T392</v>
@@ -37790,6 +37876,1185 @@
       <c r="X393" s="61"/>
       <c r="Y393" s="61"/>
       <c r="Z393" s="61"/>
+    </row>
+    <row r="394" spans="1:26" ht="96">
+      <c r="A394" s="75" t="str">
+        <f>CONCATENATE("T",ROW(A394)-1)</f>
+        <v>T393</v>
+      </c>
+      <c r="B394" s="56" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C394" s="56" t="s">
+        <v>641</v>
+      </c>
+      <c r="D394" s="56" t="s">
+        <v>642</v>
+      </c>
+      <c r="E394" s="56" t="s">
+        <v>391</v>
+      </c>
+      <c r="F394" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="G394" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="H394" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="I394" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="J394" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="K394" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="L394" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="M394" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="N394" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="O394" s="70" t="s">
+        <v>643</v>
+      </c>
+      <c r="P394" s="70" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q394" s="70" t="s">
+        <v>645</v>
+      </c>
+      <c r="R394" s="70"/>
+      <c r="S394" s="76">
+        <v>5</v>
+      </c>
+      <c r="T394" s="76">
+        <v>6</v>
+      </c>
+      <c r="U394" s="76">
+        <v>5</v>
+      </c>
+      <c r="V394" s="76">
+        <v>5</v>
+      </c>
+      <c r="W394" s="76">
+        <v>7</v>
+      </c>
+      <c r="X394" s="76">
+        <v>7</v>
+      </c>
+      <c r="Y394" s="76">
+        <v>6</v>
+      </c>
+      <c r="Z394" s="78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395" spans="1:26" ht="80">
+      <c r="A395" s="75" t="str">
+        <f t="shared" ref="A395:A408" si="95">CONCATENATE("T",ROW(A395)-1)</f>
+        <v>T394</v>
+      </c>
+      <c r="B395" s="56" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C395" s="71" t="s">
+        <v>646</v>
+      </c>
+      <c r="D395" s="71" t="s">
+        <v>647</v>
+      </c>
+      <c r="E395" s="71" t="s">
+        <v>648</v>
+      </c>
+      <c r="F395" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="G395" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="H395" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="I395" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="J395" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="K395" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="L395" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="M395" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="N395" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="O395" s="72" t="s">
+        <v>649</v>
+      </c>
+      <c r="P395" s="72" t="s">
+        <v>650</v>
+      </c>
+      <c r="Q395" s="72" t="s">
+        <v>651</v>
+      </c>
+      <c r="R395" s="73"/>
+      <c r="S395" s="77">
+        <v>6</v>
+      </c>
+      <c r="T395" s="77">
+        <v>5</v>
+      </c>
+      <c r="U395" s="77">
+        <v>5</v>
+      </c>
+      <c r="V395" s="77">
+        <v>4</v>
+      </c>
+      <c r="W395" s="77">
+        <v>8</v>
+      </c>
+      <c r="X395" s="77">
+        <v>6</v>
+      </c>
+      <c r="Y395" s="77">
+        <v>5</v>
+      </c>
+      <c r="Z395" s="79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:26" ht="64">
+      <c r="A396" s="75" t="str">
+        <f t="shared" si="95"/>
+        <v>T395</v>
+      </c>
+      <c r="B396" s="56" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C396" s="56" t="s">
+        <v>652</v>
+      </c>
+      <c r="D396" s="56" t="s">
+        <v>653</v>
+      </c>
+      <c r="E396" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="F396" s="56" t="s">
+        <v>403</v>
+      </c>
+      <c r="G396" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="H396" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="I396" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="J396" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="K396" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="L396" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="M396" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="N396" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="O396" s="74" t="s">
+        <v>654</v>
+      </c>
+      <c r="P396" s="74" t="s">
+        <v>655</v>
+      </c>
+      <c r="Q396" s="74" t="s">
+        <v>656</v>
+      </c>
+      <c r="R396" s="70"/>
+      <c r="S396" s="76">
+        <v>5</v>
+      </c>
+      <c r="T396" s="76">
+        <v>6</v>
+      </c>
+      <c r="U396" s="76">
+        <v>5</v>
+      </c>
+      <c r="V396" s="76">
+        <v>6</v>
+      </c>
+      <c r="W396" s="76">
+        <v>9</v>
+      </c>
+      <c r="X396" s="76">
+        <v>7</v>
+      </c>
+      <c r="Y396" s="76">
+        <v>7</v>
+      </c>
+      <c r="Z396" s="78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:26" ht="96">
+      <c r="A397" s="75" t="str">
+        <f t="shared" si="95"/>
+        <v>T396</v>
+      </c>
+      <c r="B397" s="56" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C397" s="71" t="s">
+        <v>226</v>
+      </c>
+      <c r="D397" s="71" t="s">
+        <v>227</v>
+      </c>
+      <c r="E397" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F397" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="G397" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="H397" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="I397" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="J397" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="K397" s="71" t="s">
+        <v>1642</v>
+      </c>
+      <c r="L397" s="71" t="s">
+        <v>1642</v>
+      </c>
+      <c r="M397" s="71" t="s">
+        <v>1643</v>
+      </c>
+      <c r="N397" s="71" t="s">
+        <v>657</v>
+      </c>
+      <c r="O397" s="72" t="s">
+        <v>658</v>
+      </c>
+      <c r="P397" s="72" t="s">
+        <v>659</v>
+      </c>
+      <c r="Q397" s="72" t="s">
+        <v>660</v>
+      </c>
+      <c r="R397" s="73"/>
+      <c r="S397" s="77">
+        <v>8</v>
+      </c>
+      <c r="T397" s="77">
+        <v>7</v>
+      </c>
+      <c r="U397" s="77">
+        <v>6</v>
+      </c>
+      <c r="V397" s="77">
+        <v>5</v>
+      </c>
+      <c r="W397" s="77">
+        <v>9</v>
+      </c>
+      <c r="X397" s="77">
+        <v>8</v>
+      </c>
+      <c r="Y397" s="77">
+        <v>6</v>
+      </c>
+      <c r="Z397" s="79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:26" ht="48">
+      <c r="A398" s="75" t="str">
+        <f t="shared" si="95"/>
+        <v>T397</v>
+      </c>
+      <c r="B398" s="56" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C398" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="D398" s="56" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E398" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="F398" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="G398" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="H398" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="I398" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="J398" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="K398" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="L398" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="M398" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="N398" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="O398" s="57"/>
+      <c r="P398" s="57"/>
+      <c r="Q398" s="57"/>
+      <c r="R398" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="S398" s="76">
+        <v>6</v>
+      </c>
+      <c r="T398" s="76">
+        <v>6</v>
+      </c>
+      <c r="U398" s="76">
+        <v>5</v>
+      </c>
+      <c r="V398" s="76">
+        <v>6</v>
+      </c>
+      <c r="W398" s="76">
+        <v>3</v>
+      </c>
+      <c r="X398" s="76">
+        <v>4</v>
+      </c>
+      <c r="Y398" s="76">
+        <v>9</v>
+      </c>
+      <c r="Z398" s="78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:26" ht="48">
+      <c r="A399" s="75" t="str">
+        <f t="shared" si="95"/>
+        <v>T398</v>
+      </c>
+      <c r="B399" s="56" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C399" s="71" t="s">
+        <v>235</v>
+      </c>
+      <c r="D399" s="71" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E399" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="F399" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="G399" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="H399" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="I399" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="J399" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="K399" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="L399" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="M399" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="N399" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="O399" s="73" t="s">
+        <v>237</v>
+      </c>
+      <c r="P399" s="73" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q399" s="73" t="s">
+        <v>239</v>
+      </c>
+      <c r="R399" s="73"/>
+      <c r="S399" s="77">
+        <v>6</v>
+      </c>
+      <c r="T399" s="77">
+        <v>6</v>
+      </c>
+      <c r="U399" s="77">
+        <v>5</v>
+      </c>
+      <c r="V399" s="77">
+        <v>5</v>
+      </c>
+      <c r="W399" s="77">
+        <v>8</v>
+      </c>
+      <c r="X399" s="77">
+        <v>7</v>
+      </c>
+      <c r="Y399" s="77">
+        <v>5</v>
+      </c>
+      <c r="Z399" s="79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="400" spans="1:26" ht="48">
+      <c r="A400" s="75" t="str">
+        <f t="shared" si="95"/>
+        <v>T399</v>
+      </c>
+      <c r="B400" s="56" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C400" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="D400" s="56" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E400" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F400" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="G400" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="H400" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="I400" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="J400" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="K400" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="L400" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="M400" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="N400" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="O400" s="70" t="s">
+        <v>242</v>
+      </c>
+      <c r="P400" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q400" s="70" t="s">
+        <v>244</v>
+      </c>
+      <c r="R400" s="70"/>
+      <c r="S400" s="76">
+        <v>6</v>
+      </c>
+      <c r="T400" s="76">
+        <v>6</v>
+      </c>
+      <c r="U400" s="76">
+        <v>5</v>
+      </c>
+      <c r="V400" s="76">
+        <v>5</v>
+      </c>
+      <c r="W400" s="76">
+        <v>8</v>
+      </c>
+      <c r="X400" s="76">
+        <v>7</v>
+      </c>
+      <c r="Y400" s="76">
+        <v>6</v>
+      </c>
+      <c r="Z400" s="78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401" spans="1:26" ht="32">
+      <c r="A401" s="75" t="str">
+        <f t="shared" si="95"/>
+        <v>T400</v>
+      </c>
+      <c r="B401" s="56" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C401" s="71" t="s">
+        <v>661</v>
+      </c>
+      <c r="D401" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="E401" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F401" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="G401" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="H401" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="I401" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="J401" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="K401" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="L401" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="M401" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="N401" s="71" t="s">
+        <v>247</v>
+      </c>
+      <c r="O401" s="73" t="s">
+        <v>248</v>
+      </c>
+      <c r="P401" s="73" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q401" s="73" t="s">
+        <v>250</v>
+      </c>
+      <c r="R401" s="73"/>
+      <c r="S401" s="77">
+        <v>5</v>
+      </c>
+      <c r="T401" s="77">
+        <v>6</v>
+      </c>
+      <c r="U401" s="77">
+        <v>5</v>
+      </c>
+      <c r="V401" s="77">
+        <v>6</v>
+      </c>
+      <c r="W401" s="77">
+        <v>7</v>
+      </c>
+      <c r="X401" s="77">
+        <v>9</v>
+      </c>
+      <c r="Y401" s="77">
+        <v>5</v>
+      </c>
+      <c r="Z401" s="79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:26" ht="80">
+      <c r="A402" s="75" t="str">
+        <f t="shared" si="95"/>
+        <v>T401</v>
+      </c>
+      <c r="B402" s="56" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C402" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="D402" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="E402" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="F402" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="G402" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="H402" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="I402" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="J402" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="K402" s="56" t="s">
+        <v>1642</v>
+      </c>
+      <c r="L402" s="56" t="s">
+        <v>1642</v>
+      </c>
+      <c r="M402" s="56" t="s">
+        <v>1643</v>
+      </c>
+      <c r="N402" s="56" t="s">
+        <v>662</v>
+      </c>
+      <c r="O402" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="P402" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q402" s="57"/>
+      <c r="R402" s="70"/>
+      <c r="S402" s="76">
+        <v>5</v>
+      </c>
+      <c r="T402" s="76">
+        <v>6</v>
+      </c>
+      <c r="U402" s="76">
+        <v>5</v>
+      </c>
+      <c r="V402" s="76">
+        <v>6</v>
+      </c>
+      <c r="W402" s="76">
+        <v>3</v>
+      </c>
+      <c r="X402" s="76">
+        <v>4</v>
+      </c>
+      <c r="Y402" s="76">
+        <v>9</v>
+      </c>
+      <c r="Z402" s="78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="403" spans="1:26" ht="160">
+      <c r="A403" s="75" t="str">
+        <f t="shared" si="95"/>
+        <v>T402</v>
+      </c>
+      <c r="B403" s="56" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C403" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="D403" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="E403" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="F403" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="G403" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="H403" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="I403" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="J403" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="K403" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="L403" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="M403" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="N403" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="O403" s="73" t="s">
+        <v>257</v>
+      </c>
+      <c r="P403" s="73" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q403" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="R403" s="73"/>
+      <c r="S403" s="77">
+        <v>6</v>
+      </c>
+      <c r="T403" s="77">
+        <v>7</v>
+      </c>
+      <c r="U403" s="77">
+        <v>5</v>
+      </c>
+      <c r="V403" s="77">
+        <v>5</v>
+      </c>
+      <c r="W403" s="77">
+        <v>8</v>
+      </c>
+      <c r="X403" s="77">
+        <v>8</v>
+      </c>
+      <c r="Y403" s="77">
+        <v>6</v>
+      </c>
+      <c r="Z403" s="79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="404" spans="1:26" ht="128">
+      <c r="A404" s="75" t="str">
+        <f t="shared" si="95"/>
+        <v>T403</v>
+      </c>
+      <c r="B404" s="56" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C404" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="D404" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="E404" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F404" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="G404" s="56" t="s">
+        <v>1642</v>
+      </c>
+      <c r="H404" s="56" t="s">
+        <v>1642</v>
+      </c>
+      <c r="I404" s="56" t="s">
+        <v>1643</v>
+      </c>
+      <c r="J404" s="56" t="s">
+        <v>663</v>
+      </c>
+      <c r="K404" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="L404" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="M404" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="N404" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="O404" s="74" t="s">
+        <v>664</v>
+      </c>
+      <c r="P404" s="74" t="s">
+        <v>665</v>
+      </c>
+      <c r="Q404" s="74" t="s">
+        <v>666</v>
+      </c>
+      <c r="R404" s="70"/>
+      <c r="S404" s="76">
+        <v>7</v>
+      </c>
+      <c r="T404" s="76">
+        <v>6</v>
+      </c>
+      <c r="U404" s="76">
+        <v>8</v>
+      </c>
+      <c r="V404" s="76">
+        <v>6</v>
+      </c>
+      <c r="W404" s="76">
+        <v>9</v>
+      </c>
+      <c r="X404" s="76">
+        <v>9</v>
+      </c>
+      <c r="Y404" s="76">
+        <v>7</v>
+      </c>
+      <c r="Z404" s="78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="405" spans="1:26" ht="48">
+      <c r="A405" s="75" t="str">
+        <f t="shared" si="95"/>
+        <v>T404</v>
+      </c>
+      <c r="B405" s="56" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C405" s="71" t="s">
+        <v>293</v>
+      </c>
+      <c r="D405" s="71" t="s">
+        <v>667</v>
+      </c>
+      <c r="E405" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="F405" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="G405" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="H405" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="I405" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="J405" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K405" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="L405" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="M405" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="N405" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="O405" s="73" t="s">
+        <v>363</v>
+      </c>
+      <c r="P405" s="73" t="s">
+        <v>668</v>
+      </c>
+      <c r="Q405" s="73" t="s">
+        <v>669</v>
+      </c>
+      <c r="R405" s="73"/>
+      <c r="S405" s="77">
+        <v>5</v>
+      </c>
+      <c r="T405" s="77">
+        <v>7</v>
+      </c>
+      <c r="U405" s="77">
+        <v>6</v>
+      </c>
+      <c r="V405" s="77">
+        <v>6</v>
+      </c>
+      <c r="W405" s="77">
+        <v>2</v>
+      </c>
+      <c r="X405" s="77">
+        <v>4</v>
+      </c>
+      <c r="Y405" s="77">
+        <v>9</v>
+      </c>
+      <c r="Z405" s="79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:26" ht="96">
+      <c r="A406" s="75" t="str">
+        <f t="shared" si="95"/>
+        <v>T405</v>
+      </c>
+      <c r="B406" s="56" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C406" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="D406" s="56" t="s">
+        <v>270</v>
+      </c>
+      <c r="E406" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="F406" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="G406" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="H406" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="I406" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="J406" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="K406" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="L406" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="M406" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="N406" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="O406" s="74" t="s">
+        <v>242</v>
+      </c>
+      <c r="P406" s="74" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q406" s="74" t="s">
+        <v>671</v>
+      </c>
+      <c r="R406" s="70"/>
+      <c r="S406" s="76">
+        <v>5</v>
+      </c>
+      <c r="T406" s="76">
+        <v>7</v>
+      </c>
+      <c r="U406" s="76">
+        <v>6</v>
+      </c>
+      <c r="V406" s="76">
+        <v>6</v>
+      </c>
+      <c r="W406" s="76">
+        <v>6</v>
+      </c>
+      <c r="X406" s="76">
+        <v>9</v>
+      </c>
+      <c r="Y406" s="76">
+        <v>6</v>
+      </c>
+      <c r="Z406" s="78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:26" ht="96">
+      <c r="A407" s="75" t="str">
+        <f t="shared" si="95"/>
+        <v>T406</v>
+      </c>
+      <c r="B407" s="56" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C407" s="71" t="s">
+        <v>274</v>
+      </c>
+      <c r="D407" s="71" t="s">
+        <v>275</v>
+      </c>
+      <c r="E407" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="F407" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="G407" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="H407" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="I407" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="J407" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="K407" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="L407" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="M407" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="N407" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="O407" s="73" t="s">
+        <v>276</v>
+      </c>
+      <c r="P407" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q407" s="73" t="s">
+        <v>278</v>
+      </c>
+      <c r="R407" s="73"/>
+      <c r="S407" s="77">
+        <v>6</v>
+      </c>
+      <c r="T407" s="77">
+        <v>8</v>
+      </c>
+      <c r="U407" s="77">
+        <v>6</v>
+      </c>
+      <c r="V407" s="77">
+        <v>6</v>
+      </c>
+      <c r="W407" s="77">
+        <v>7</v>
+      </c>
+      <c r="X407" s="77">
+        <v>9</v>
+      </c>
+      <c r="Y407" s="77">
+        <v>6</v>
+      </c>
+      <c r="Z407" s="79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:26" ht="240">
+      <c r="A408" s="75" t="str">
+        <f t="shared" si="95"/>
+        <v>T407</v>
+      </c>
+      <c r="B408" s="56" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C408" s="80" t="s">
+        <v>279</v>
+      </c>
+      <c r="D408" s="80" t="s">
+        <v>280</v>
+      </c>
+      <c r="E408" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F408" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="G408" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="H408" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="I408" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="J408" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="K408" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="L408" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="M408" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="N408" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="O408" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="P408" s="81" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q408" s="81" t="s">
+        <v>283</v>
+      </c>
+      <c r="R408" s="81"/>
+      <c r="S408" s="82">
+        <v>6</v>
+      </c>
+      <c r="T408" s="82">
+        <v>5</v>
+      </c>
+      <c r="U408" s="82">
+        <v>5</v>
+      </c>
+      <c r="V408" s="82">
+        <v>5</v>
+      </c>
+      <c r="W408" s="82">
+        <v>6</v>
+      </c>
+      <c r="X408" s="82">
+        <v>4</v>
+      </c>
+      <c r="Y408" s="82">
+        <v>4</v>
+      </c>
+      <c r="Z408" s="83">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -45321,8 +46586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51FC597-29FA-1D4E-A4C8-B79027768242}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>

--- a/apps/static/assets/dbs/Catalogs.xlsx
+++ b/apps/static/assets/dbs/Catalogs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511" codeName="{F4499BBC-C50B-8ECA-441A-04C5B9BE7170}"/>
+  <workbookPr codeName="Questa_cartella_di_lavoro"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fefox/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E25D06F-D41A-2843-997F-DD5D4833A695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC03064E-21C9-6249-B8A0-F3DE464F8DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4080" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4080" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Threat Components" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId15"/>
+    <pivotCache cacheId="0" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3753,9 +3753,6 @@
   </si>
   <si>
     <t>match (target)-[:uses]-&gt;(b {type:'Service.NoSQLDB'}) return target.component_id as component_id, target.parameters as parameters</t>
-  </si>
-  <si>
-    <t>match (target {type:'Service.VM'}) return target.component_id as component_id, target.parameters as parameters</t>
   </si>
   <si>
     <t>match (target:Network) return target.component_id as component_id, target.parameters as parameters</t>
@@ -4667,9 +4664,6 @@
     <t>#40E0D0</t>
   </si>
   <si>
-    <t>#FFF5EE</t>
-  </si>
-  <si>
     <t>#20B2AA</t>
   </si>
   <si>
@@ -4691,9 +4685,6 @@
     <t>#F08080</t>
   </si>
   <si>
-    <t>#7FFF00</t>
-  </si>
-  <si>
     <t>#EE82EE</t>
   </si>
   <si>
@@ -4730,9 +4721,6 @@
     <t>#ADFF2F</t>
   </si>
   <si>
-    <t>#7CFC00</t>
-  </si>
-  <si>
     <t>#FF0000</t>
   </si>
   <si>
@@ -5087,9 +5075,20 @@
     <t>A physical network device that forwards data packets between different networks, directing traffic based on IP addresses.</t>
   </si>
   <si>
-    <t>MATCH (net:Network )-[:connects]-&gt;(target1) 
+    <t>,</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>MATCH (target)
+WHERE target.type IN ['Service.VM', 'Service.Container']
+RETURN target.component_id AS component_id, target.parameters AS parameters</t>
+  </si>
+  <si>
+    <t>MATCH (net:Network {type:'Network'})-[:connects]-&gt;(target1) 
 WITH target1
-MATCH (net: Network)-[:connects]-&gt;(hw {type:'HW.SOC'})-[:hosts]-&gt;(target2 {type:'Service.Firmware'})
+MATCH (net: Network {type:'Network'})-[:connects]-&gt;(hw {type:'HW.SOC'})-[:hosts]-&gt;(target2 {type:'Service.Firmware'})
 WHERE target1.component_id &lt;&gt; hw.component_id
 WITH 
     collect({component_id: target1.component_id, parameters: target1.parameters}) AS target1_data,
@@ -5098,10 +5097,13 @@
 RETURN component_data.component_id AS component_id, component_data.parameters AS parameters</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>]</t>
+    <t>#9C9692</t>
+  </si>
+  <si>
+    <t>#B0BD5B</t>
+  </si>
+  <si>
+    <t>#E05352</t>
   </si>
 </sst>
 </file>
@@ -5268,7 +5270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="64">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5321,6 +5323,330 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDDEBF7"/>
         <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDF5E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6495ED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEB887"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8860B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2691E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6347"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDAB9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF40E0D0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9C9692"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF20B2AA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9A9A9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADD8E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9400D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEE8AA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0C4DE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF08080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0BD5B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFEEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEE82EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7B68EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCDCDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8BFD8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA500"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00BFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEBCD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFE0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE4E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFAFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDB76B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF7F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAF0E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4A460"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA8072"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8C00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDEAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CDAA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2A84AD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2A61AD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9967A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBBD6E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE4B6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF48D1CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9932CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4169E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF98FB98"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3CB371"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADFF2F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE05352"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -5469,7 +5795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5616,23 +5942,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5649,19 +5962,13 @@
     <xf numFmtId="49" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5670,12 +5977,76 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -12278,7 +12649,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{48CB07D6-9F6C-094F-A3D3-916741F281CD}" name="Tabella pivot1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{48CB07D6-9F6C-094F-A3D3-916741F281CD}" name="Tabella pivot1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -12850,13 +13221,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Foglio1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:Z408"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A404" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B396" sqref="B396"/>
     </sheetView>
   </sheetViews>
@@ -12910,7 +13281,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -12937,28 +13308,28 @@
         <v>17</v>
       </c>
       <c r="S1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="T1" t="s">
         <v>1355</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>1356</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>1357</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>1358</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>1359</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>1360</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>1361</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="48">
@@ -15689,13 +16060,13 @@
         <v>73</v>
       </c>
       <c r="O47" s="57" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="P47" s="57" t="s">
+        <v>1290</v>
+      </c>
+      <c r="Q47" s="57" t="s">
         <v>1291</v>
-      </c>
-      <c r="Q47" s="57" t="s">
-        <v>1292</v>
       </c>
       <c r="R47" s="24"/>
       <c r="S47" s="20"/>
@@ -29975,7 +30346,7 @@
         <v>624</v>
       </c>
       <c r="D271" s="20" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="E271" s="20" t="s">
         <v>43</v>
@@ -30044,7 +30415,7 @@
         <v>629</v>
       </c>
       <c r="D272" s="20" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="E272" s="20" t="s">
         <v>21</v>
@@ -30113,7 +30484,7 @@
         <v>633</v>
       </c>
       <c r="D273" s="20" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="E273" s="20" t="s">
         <v>37</v>
@@ -30579,7 +30950,7 @@
         <v>231</v>
       </c>
       <c r="D279" s="20" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E279" s="20" t="s">
         <v>27</v>
@@ -30660,7 +31031,7 @@
         <v>235</v>
       </c>
       <c r="D280" s="20" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E280" s="20" t="s">
         <v>21</v>
@@ -30745,7 +31116,7 @@
         <v>240</v>
       </c>
       <c r="D281" s="20" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E281" s="20" t="s">
         <v>21</v>
@@ -34147,7 +34518,7 @@
         <v>1166</v>
       </c>
       <c r="D326" s="20" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E326" s="20" t="s">
         <v>72</v>
@@ -34954,13 +35325,13 @@
         <v>73</v>
       </c>
       <c r="O340" s="57" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="P340" s="57" t="s">
+        <v>1290</v>
+      </c>
+      <c r="Q340" s="57" t="s">
         <v>1291</v>
-      </c>
-      <c r="Q340" s="57" t="s">
-        <v>1292</v>
       </c>
       <c r="R340" s="58"/>
       <c r="S340" s="61"/>
@@ -34984,7 +35355,7 @@
         <v>226</v>
       </c>
       <c r="D341" s="20" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E341" s="20" t="s">
         <v>43</v>
@@ -35750,10 +36121,10 @@
         <v>1159</v>
       </c>
       <c r="C356" s="20" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D356" s="20" t="s">
         <v>1239</v>
-      </c>
-      <c r="D356" s="20" t="s">
-        <v>1240</v>
       </c>
       <c r="E356" s="20" t="s">
         <v>37</v>
@@ -35803,7 +36174,7 @@
         <v>1186</v>
       </c>
       <c r="D357" s="20" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E357" s="20" t="s">
         <v>43</v>
@@ -35853,7 +36224,7 @@
         <v>1205</v>
       </c>
       <c r="D358" s="20" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E358" s="20" t="s">
         <v>1171</v>
@@ -35900,10 +36271,10 @@
         <v>1159</v>
       </c>
       <c r="C359" s="20" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D359" s="20" t="s">
         <v>1243</v>
-      </c>
-      <c r="D359" s="20" t="s">
-        <v>1244</v>
       </c>
       <c r="E359" s="20" t="s">
         <v>1165</v>
@@ -35953,7 +36324,7 @@
         <v>1175</v>
       </c>
       <c r="D360" s="20" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E360" s="20" t="s">
         <v>116</v>
@@ -36003,7 +36374,7 @@
         <v>1177</v>
       </c>
       <c r="D361" s="20" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E361" s="20" t="s">
         <v>72</v>
@@ -36050,10 +36421,10 @@
         <v>1159</v>
       </c>
       <c r="C362" s="20" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D362" s="20" t="s">
         <v>1247</v>
-      </c>
-      <c r="D362" s="20" t="s">
-        <v>1248</v>
       </c>
       <c r="E362" s="20" t="s">
         <v>43</v>
@@ -36100,10 +36471,10 @@
         <v>1159</v>
       </c>
       <c r="C363" s="20" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D363" s="20" t="s">
         <v>1249</v>
-      </c>
-      <c r="D363" s="20" t="s">
-        <v>1250</v>
       </c>
       <c r="E363" s="20" t="s">
         <v>43</v>
@@ -36150,10 +36521,10 @@
         <v>1159</v>
       </c>
       <c r="C364" s="20" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D364" s="20" t="s">
         <v>1251</v>
-      </c>
-      <c r="D364" s="20" t="s">
-        <v>1252</v>
       </c>
       <c r="E364" s="20" t="s">
         <v>43</v>
@@ -36200,10 +36571,10 @@
         <v>1159</v>
       </c>
       <c r="C365" s="20" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D365" s="20" t="s">
         <v>1253</v>
-      </c>
-      <c r="D365" s="20" t="s">
-        <v>1254</v>
       </c>
       <c r="E365" s="20" t="s">
         <v>43</v>
@@ -36250,10 +36621,10 @@
         <v>1159</v>
       </c>
       <c r="C366" s="20" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D366" s="20" t="s">
         <v>1255</v>
-      </c>
-      <c r="D366" s="20" t="s">
-        <v>1256</v>
       </c>
       <c r="E366" s="20" t="s">
         <v>43</v>
@@ -36300,10 +36671,10 @@
         <v>1159</v>
       </c>
       <c r="C367" s="20" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D367" s="20" t="s">
         <v>1257</v>
-      </c>
-      <c r="D367" s="20" t="s">
-        <v>1258</v>
       </c>
       <c r="E367" s="20" t="s">
         <v>43</v>
@@ -36350,10 +36721,10 @@
         <v>1159</v>
       </c>
       <c r="C368" s="20" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D368" s="20" t="s">
         <v>1259</v>
-      </c>
-      <c r="D368" s="20" t="s">
-        <v>1260</v>
       </c>
       <c r="E368" s="20" t="s">
         <v>116</v>
@@ -36403,7 +36774,7 @@
         <v>1149</v>
       </c>
       <c r="D369" s="20" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E369" s="20" t="s">
         <v>116</v>
@@ -36453,7 +36824,7 @@
         <v>1150</v>
       </c>
       <c r="D370" s="20" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E370" s="20" t="s">
         <v>43</v>
@@ -36481,7 +36852,7 @@
       <c r="O370" s="24"/>
       <c r="P370" s="24"/>
       <c r="Q370" s="24" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="R370" s="24"/>
       <c r="S370" s="61"/>
@@ -36705,7 +37076,7 @@
         <v>251</v>
       </c>
       <c r="D375" s="20" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E375" s="20" t="s">
         <v>27</v>
@@ -36763,13 +37134,13 @@
         <v>T375</v>
       </c>
       <c r="B376" s="20" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C376" s="20" t="s">
         <v>1271</v>
       </c>
-      <c r="C376" s="20" t="s">
-        <v>1272</v>
-      </c>
       <c r="D376" s="20" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E376" s="20" t="s">
         <v>116</v>
@@ -36793,13 +37164,13 @@
       </c>
       <c r="N376" s="20"/>
       <c r="O376" s="24" t="s">
+        <v>1285</v>
+      </c>
+      <c r="P376" s="24" t="s">
+        <v>1268</v>
+      </c>
+      <c r="Q376" s="24" t="s">
         <v>1286</v>
-      </c>
-      <c r="P376" s="24" t="s">
-        <v>1269</v>
-      </c>
-      <c r="Q376" s="24" t="s">
-        <v>1287</v>
       </c>
       <c r="R376" s="24"/>
       <c r="S376" s="61"/>
@@ -36817,13 +37188,13 @@
         <v>T376</v>
       </c>
       <c r="B377" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C377" s="55" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D377" s="20" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E377" s="20" t="s">
         <v>43</v>
@@ -36847,13 +37218,13 @@
       </c>
       <c r="N377" s="20"/>
       <c r="O377" s="24" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="P377" s="24" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="Q377" s="24" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="R377" s="24"/>
       <c r="S377" s="61"/>
@@ -36871,13 +37242,13 @@
         <v>T377</v>
       </c>
       <c r="B378" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C378" s="20" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D378" s="20" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E378" s="20" t="s">
         <v>43</v>
@@ -36901,13 +37272,13 @@
       </c>
       <c r="N378" s="20"/>
       <c r="O378" s="24" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="P378" s="24" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="Q378" s="24" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="R378" s="24"/>
       <c r="S378" s="61"/>
@@ -36925,13 +37296,13 @@
         <v>T378</v>
       </c>
       <c r="B379" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C379" s="20" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D379" s="20" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E379" s="20" t="s">
         <v>116</v>
@@ -36955,10 +37326,10 @@
       </c>
       <c r="N379" s="20"/>
       <c r="O379" s="24" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="P379" s="24" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="Q379" s="24"/>
       <c r="R379" s="24"/>
@@ -36977,13 +37348,13 @@
         <v>T379</v>
       </c>
       <c r="B380" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C380" s="20" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D380" s="20" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E380" s="20" t="s">
         <v>116</v>
@@ -37007,10 +37378,10 @@
       </c>
       <c r="N380" s="20"/>
       <c r="O380" s="24" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="P380" s="24" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="Q380" s="24"/>
       <c r="R380" s="24"/>
@@ -37029,13 +37400,13 @@
         <v>T380</v>
       </c>
       <c r="B381" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C381" s="20" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D381" s="20" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E381" s="20" t="s">
         <v>116</v>
@@ -37059,10 +37430,10 @@
       </c>
       <c r="N381" s="20"/>
       <c r="O381" s="24" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="P381" s="24" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="Q381" s="24"/>
       <c r="R381" s="24"/>
@@ -37081,13 +37452,13 @@
         <v>T381</v>
       </c>
       <c r="B382" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C382" s="20" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D382" s="20" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E382" s="20" t="s">
         <v>116</v>
@@ -37111,10 +37482,10 @@
       </c>
       <c r="N382" s="20"/>
       <c r="O382" s="24" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="P382" s="24" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="Q382" s="24"/>
       <c r="R382" s="24"/>
@@ -37133,7 +37504,7 @@
         <v>T382</v>
       </c>
       <c r="B383" s="20" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C383" s="20" t="s">
         <v>145</v>
@@ -37173,13 +37544,13 @@
         <v>73</v>
       </c>
       <c r="O383" s="57" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="P383" s="57" t="s">
+        <v>1290</v>
+      </c>
+      <c r="Q383" s="57" t="s">
         <v>1291</v>
-      </c>
-      <c r="Q383" s="57" t="s">
-        <v>1292</v>
       </c>
       <c r="R383" s="24"/>
       <c r="S383" s="61"/>
@@ -37197,7 +37568,7 @@
         <v>T383</v>
       </c>
       <c r="B384" s="20" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C384" s="20" t="s">
         <v>226</v>
@@ -37266,13 +37637,13 @@
         <v>T384</v>
       </c>
       <c r="B385" s="20" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C385" s="20" t="s">
         <v>231</v>
       </c>
       <c r="D385" s="20" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E385" s="20" t="s">
         <v>27</v>
@@ -37331,13 +37702,13 @@
         <v>T385</v>
       </c>
       <c r="B386" s="20" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C386" s="20" t="s">
         <v>235</v>
       </c>
       <c r="D386" s="20" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E386" s="20" t="s">
         <v>21</v>
@@ -37400,13 +37771,13 @@
         <v>T386</v>
       </c>
       <c r="B387" s="20" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C387" s="20" t="s">
         <v>240</v>
       </c>
       <c r="D387" s="20" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E387" s="20" t="s">
         <v>21</v>
@@ -37469,7 +37840,7 @@
         <v>T387</v>
       </c>
       <c r="B388" s="20" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C388" s="20" t="s">
         <v>661</v>
@@ -37538,7 +37909,7 @@
         <v>T388</v>
       </c>
       <c r="B389" s="20" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C389" s="20" t="s">
         <v>255</v>
@@ -37607,7 +37978,7 @@
         <v>T389</v>
       </c>
       <c r="B390" s="20" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C390" s="20" t="s">
         <v>260</v>
@@ -37676,7 +38047,7 @@
         <v>T390</v>
       </c>
       <c r="B391" s="20" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C391" s="20" t="s">
         <v>269</v>
@@ -37745,7 +38116,7 @@
         <v>T391</v>
       </c>
       <c r="B392" s="20" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C392" s="20" t="s">
         <v>274</v>
@@ -37814,7 +38185,7 @@
         <v>T392</v>
       </c>
       <c r="B393" s="20" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C393" s="20" t="s">
         <v>279</v>
@@ -37878,12 +38249,12 @@
       <c r="Z393" s="61"/>
     </row>
     <row r="394" spans="1:26" ht="96">
-      <c r="A394" s="75" t="str">
+      <c r="A394" s="70" t="str">
         <f>CONCATENATE("T",ROW(A394)-1)</f>
         <v>T393</v>
       </c>
       <c r="B394" s="56" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="C394" s="56" t="s">
         <v>641</v>
@@ -37921,127 +38292,127 @@
       <c r="N394" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="O394" s="70" t="s">
+      <c r="O394" s="65" t="s">
         <v>643</v>
       </c>
-      <c r="P394" s="70" t="s">
+      <c r="P394" s="65" t="s">
         <v>644</v>
       </c>
-      <c r="Q394" s="70" t="s">
+      <c r="Q394" s="65" t="s">
         <v>645</v>
       </c>
-      <c r="R394" s="70"/>
-      <c r="S394" s="76">
+      <c r="R394" s="65"/>
+      <c r="S394" s="56">
         <v>5</v>
       </c>
-      <c r="T394" s="76">
+      <c r="T394" s="56">
         <v>6</v>
       </c>
-      <c r="U394" s="76">
+      <c r="U394" s="56">
         <v>5</v>
       </c>
-      <c r="V394" s="76">
+      <c r="V394" s="56">
         <v>5</v>
       </c>
-      <c r="W394" s="76">
+      <c r="W394" s="56">
         <v>7</v>
       </c>
-      <c r="X394" s="76">
+      <c r="X394" s="56">
         <v>7</v>
       </c>
-      <c r="Y394" s="76">
+      <c r="Y394" s="56">
         <v>6</v>
       </c>
-      <c r="Z394" s="78">
+      <c r="Z394" s="71">
         <v>4</v>
       </c>
     </row>
     <row r="395" spans="1:26" ht="80">
-      <c r="A395" s="75" t="str">
+      <c r="A395" s="70" t="str">
         <f t="shared" ref="A395:A408" si="95">CONCATENATE("T",ROW(A395)-1)</f>
         <v>T394</v>
       </c>
       <c r="B395" s="56" t="s">
-        <v>1627</v>
-      </c>
-      <c r="C395" s="71" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C395" s="66" t="s">
         <v>646</v>
       </c>
-      <c r="D395" s="71" t="s">
+      <c r="D395" s="66" t="s">
         <v>647</v>
       </c>
-      <c r="E395" s="71" t="s">
+      <c r="E395" s="66" t="s">
         <v>648</v>
       </c>
-      <c r="F395" s="71" t="s">
+      <c r="F395" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="G395" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="H395" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="I395" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="J395" s="71" t="s">
+      <c r="G395" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="H395" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="I395" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J395" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="K395" s="71" t="s">
+      <c r="K395" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="L395" s="71" t="s">
+      <c r="L395" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="M395" s="71" t="s">
+      <c r="M395" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="N395" s="71" t="s">
+      <c r="N395" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="O395" s="72" t="s">
+      <c r="O395" s="67" t="s">
         <v>649</v>
       </c>
-      <c r="P395" s="72" t="s">
+      <c r="P395" s="67" t="s">
         <v>650</v>
       </c>
-      <c r="Q395" s="72" t="s">
+      <c r="Q395" s="67" t="s">
         <v>651</v>
       </c>
-      <c r="R395" s="73"/>
-      <c r="S395" s="77">
+      <c r="R395" s="68"/>
+      <c r="S395" s="66">
         <v>6</v>
       </c>
-      <c r="T395" s="77">
+      <c r="T395" s="66">
         <v>5</v>
       </c>
-      <c r="U395" s="77">
+      <c r="U395" s="66">
         <v>5</v>
       </c>
-      <c r="V395" s="77">
+      <c r="V395" s="66">
         <v>4</v>
       </c>
-      <c r="W395" s="77">
+      <c r="W395" s="66">
         <v>8</v>
       </c>
-      <c r="X395" s="77">
+      <c r="X395" s="66">
         <v>6</v>
       </c>
-      <c r="Y395" s="77">
+      <c r="Y395" s="66">
         <v>5</v>
       </c>
-      <c r="Z395" s="79">
+      <c r="Z395" s="72">
         <v>4</v>
       </c>
     </row>
     <row r="396" spans="1:26" ht="64">
-      <c r="A396" s="75" t="str">
+      <c r="A396" s="70" t="str">
         <f t="shared" si="95"/>
         <v>T395</v>
       </c>
       <c r="B396" s="56" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="C396" s="56" t="s">
         <v>652</v>
@@ -38079,133 +38450,133 @@
       <c r="N396" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="O396" s="74" t="s">
+      <c r="O396" s="69" t="s">
         <v>654</v>
       </c>
-      <c r="P396" s="74" t="s">
+      <c r="P396" s="69" t="s">
         <v>655</v>
       </c>
-      <c r="Q396" s="74" t="s">
+      <c r="Q396" s="69" t="s">
         <v>656</v>
       </c>
-      <c r="R396" s="70"/>
-      <c r="S396" s="76">
+      <c r="R396" s="65"/>
+      <c r="S396" s="56">
         <v>5</v>
       </c>
-      <c r="T396" s="76">
+      <c r="T396" s="56">
         <v>6</v>
       </c>
-      <c r="U396" s="76">
+      <c r="U396" s="56">
         <v>5</v>
       </c>
-      <c r="V396" s="76">
+      <c r="V396" s="56">
         <v>6</v>
       </c>
-      <c r="W396" s="76">
+      <c r="W396" s="56">
         <v>9</v>
       </c>
-      <c r="X396" s="76">
+      <c r="X396" s="56">
         <v>7</v>
       </c>
-      <c r="Y396" s="76">
+      <c r="Y396" s="56">
         <v>7</v>
       </c>
-      <c r="Z396" s="78">
+      <c r="Z396" s="71">
         <v>4</v>
       </c>
     </row>
     <row r="397" spans="1:26" ht="96">
-      <c r="A397" s="75" t="str">
+      <c r="A397" s="70" t="str">
         <f t="shared" si="95"/>
         <v>T396</v>
       </c>
       <c r="B397" s="56" t="s">
-        <v>1627</v>
-      </c>
-      <c r="C397" s="71" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C397" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="D397" s="71" t="s">
+      <c r="D397" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="E397" s="71" t="s">
+      <c r="E397" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="F397" s="71" t="s">
+      <c r="F397" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="G397" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="H397" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="I397" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="J397" s="71" t="s">
+      <c r="G397" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="H397" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="I397" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J397" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="K397" s="71" t="s">
-        <v>1642</v>
-      </c>
-      <c r="L397" s="71" t="s">
-        <v>1642</v>
-      </c>
-      <c r="M397" s="71" t="s">
-        <v>1643</v>
-      </c>
-      <c r="N397" s="71" t="s">
+      <c r="K397" s="66" t="s">
+        <v>1637</v>
+      </c>
+      <c r="L397" s="66" t="s">
+        <v>1637</v>
+      </c>
+      <c r="M397" s="66" t="s">
+        <v>1638</v>
+      </c>
+      <c r="N397" s="66" t="s">
         <v>657</v>
       </c>
-      <c r="O397" s="72" t="s">
+      <c r="O397" s="67" t="s">
         <v>658</v>
       </c>
-      <c r="P397" s="72" t="s">
+      <c r="P397" s="67" t="s">
         <v>659</v>
       </c>
-      <c r="Q397" s="72" t="s">
+      <c r="Q397" s="67" t="s">
         <v>660</v>
       </c>
-      <c r="R397" s="73"/>
-      <c r="S397" s="77">
+      <c r="R397" s="68"/>
+      <c r="S397" s="66">
         <v>8</v>
       </c>
-      <c r="T397" s="77">
+      <c r="T397" s="66">
         <v>7</v>
       </c>
-      <c r="U397" s="77">
+      <c r="U397" s="66">
         <v>6</v>
       </c>
-      <c r="V397" s="77">
+      <c r="V397" s="66">
         <v>5</v>
       </c>
-      <c r="W397" s="77">
+      <c r="W397" s="66">
         <v>9</v>
       </c>
-      <c r="X397" s="77">
+      <c r="X397" s="66">
         <v>8</v>
       </c>
-      <c r="Y397" s="77">
+      <c r="Y397" s="66">
         <v>6</v>
       </c>
-      <c r="Z397" s="79">
+      <c r="Z397" s="72">
         <v>5</v>
       </c>
     </row>
     <row r="398" spans="1:26" ht="48">
-      <c r="A398" s="75" t="str">
+      <c r="A398" s="70" t="str">
         <f t="shared" si="95"/>
         <v>T397</v>
       </c>
       <c r="B398" s="56" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="C398" s="56" t="s">
         <v>231</v>
       </c>
       <c r="D398" s="56" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E398" s="56" t="s">
         <v>27</v>
@@ -38240,126 +38611,126 @@
       <c r="O398" s="57"/>
       <c r="P398" s="57"/>
       <c r="Q398" s="57"/>
-      <c r="R398" s="70" t="s">
+      <c r="R398" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="S398" s="76">
+      <c r="S398" s="56">
         <v>6</v>
       </c>
-      <c r="T398" s="76">
+      <c r="T398" s="56">
         <v>6</v>
       </c>
-      <c r="U398" s="76">
+      <c r="U398" s="56">
         <v>5</v>
       </c>
-      <c r="V398" s="76">
+      <c r="V398" s="56">
         <v>6</v>
       </c>
-      <c r="W398" s="76">
+      <c r="W398" s="56">
         <v>3</v>
       </c>
-      <c r="X398" s="76">
+      <c r="X398" s="56">
         <v>4</v>
       </c>
-      <c r="Y398" s="76">
+      <c r="Y398" s="56">
         <v>9</v>
       </c>
-      <c r="Z398" s="78">
+      <c r="Z398" s="71">
         <v>4</v>
       </c>
     </row>
     <row r="399" spans="1:26" ht="48">
-      <c r="A399" s="75" t="str">
+      <c r="A399" s="70" t="str">
         <f t="shared" si="95"/>
         <v>T398</v>
       </c>
       <c r="B399" s="56" t="s">
-        <v>1627</v>
-      </c>
-      <c r="C399" s="71" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C399" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="D399" s="71" t="s">
-        <v>1297</v>
-      </c>
-      <c r="E399" s="71" t="s">
+      <c r="D399" s="66" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E399" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F399" s="71" t="s">
+      <c r="F399" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="G399" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="H399" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="I399" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="J399" s="71" t="s">
+      <c r="G399" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="H399" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="I399" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J399" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="K399" s="71" t="s">
+      <c r="K399" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="L399" s="71" t="s">
+      <c r="L399" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="M399" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="N399" s="71" t="s">
+      <c r="M399" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="N399" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="O399" s="73" t="s">
+      <c r="O399" s="68" t="s">
         <v>237</v>
       </c>
-      <c r="P399" s="73" t="s">
+      <c r="P399" s="68" t="s">
         <v>238</v>
       </c>
-      <c r="Q399" s="73" t="s">
+      <c r="Q399" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="R399" s="73"/>
-      <c r="S399" s="77">
+      <c r="R399" s="68"/>
+      <c r="S399" s="66">
         <v>6</v>
       </c>
-      <c r="T399" s="77">
+      <c r="T399" s="66">
         <v>6</v>
       </c>
-      <c r="U399" s="77">
+      <c r="U399" s="66">
         <v>5</v>
       </c>
-      <c r="V399" s="77">
+      <c r="V399" s="66">
         <v>5</v>
       </c>
-      <c r="W399" s="77">
+      <c r="W399" s="66">
         <v>8</v>
       </c>
-      <c r="X399" s="77">
+      <c r="X399" s="66">
         <v>7</v>
       </c>
-      <c r="Y399" s="77">
+      <c r="Y399" s="66">
         <v>5</v>
       </c>
-      <c r="Z399" s="79">
+      <c r="Z399" s="72">
         <v>6</v>
       </c>
     </row>
     <row r="400" spans="1:26" ht="48">
-      <c r="A400" s="75" t="str">
+      <c r="A400" s="70" t="str">
         <f t="shared" si="95"/>
         <v>T399</v>
       </c>
       <c r="B400" s="56" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="C400" s="56" t="s">
         <v>240</v>
       </c>
       <c r="D400" s="56" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E400" s="56" t="s">
         <v>21</v>
@@ -38391,127 +38762,127 @@
       <c r="N400" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="O400" s="70" t="s">
+      <c r="O400" s="65" t="s">
         <v>242</v>
       </c>
-      <c r="P400" s="70" t="s">
+      <c r="P400" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="Q400" s="70" t="s">
+      <c r="Q400" s="65" t="s">
         <v>244</v>
       </c>
-      <c r="R400" s="70"/>
-      <c r="S400" s="76">
+      <c r="R400" s="65"/>
+      <c r="S400" s="56">
         <v>6</v>
       </c>
-      <c r="T400" s="76">
+      <c r="T400" s="56">
         <v>6</v>
       </c>
-      <c r="U400" s="76">
+      <c r="U400" s="56">
         <v>5</v>
       </c>
-      <c r="V400" s="76">
+      <c r="V400" s="56">
         <v>5</v>
       </c>
-      <c r="W400" s="76">
+      <c r="W400" s="56">
         <v>8</v>
       </c>
-      <c r="X400" s="76">
+      <c r="X400" s="56">
         <v>7</v>
       </c>
-      <c r="Y400" s="76">
+      <c r="Y400" s="56">
         <v>6</v>
       </c>
-      <c r="Z400" s="78">
+      <c r="Z400" s="71">
         <v>5</v>
       </c>
     </row>
     <row r="401" spans="1:26" ht="32">
-      <c r="A401" s="75" t="str">
+      <c r="A401" s="70" t="str">
         <f t="shared" si="95"/>
         <v>T400</v>
       </c>
       <c r="B401" s="56" t="s">
-        <v>1627</v>
-      </c>
-      <c r="C401" s="71" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C401" s="66" t="s">
         <v>661</v>
       </c>
-      <c r="D401" s="71" t="s">
+      <c r="D401" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="E401" s="71" t="s">
+      <c r="E401" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="F401" s="71" t="s">
+      <c r="F401" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="G401" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="H401" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="I401" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="J401" s="71" t="s">
+      <c r="G401" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="H401" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="I401" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J401" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="K401" s="71" t="s">
+      <c r="K401" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="L401" s="71" t="s">
+      <c r="L401" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="M401" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="N401" s="71" t="s">
+      <c r="M401" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="N401" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="O401" s="73" t="s">
+      <c r="O401" s="68" t="s">
         <v>248</v>
       </c>
-      <c r="P401" s="73" t="s">
+      <c r="P401" s="68" t="s">
         <v>249</v>
       </c>
-      <c r="Q401" s="73" t="s">
+      <c r="Q401" s="68" t="s">
         <v>250</v>
       </c>
-      <c r="R401" s="73"/>
-      <c r="S401" s="77">
+      <c r="R401" s="68"/>
+      <c r="S401" s="66">
         <v>5</v>
       </c>
-      <c r="T401" s="77">
+      <c r="T401" s="66">
         <v>6</v>
       </c>
-      <c r="U401" s="77">
+      <c r="U401" s="66">
         <v>5</v>
       </c>
-      <c r="V401" s="77">
+      <c r="V401" s="66">
         <v>6</v>
       </c>
-      <c r="W401" s="77">
+      <c r="W401" s="66">
         <v>7</v>
       </c>
-      <c r="X401" s="77">
+      <c r="X401" s="66">
         <v>9</v>
       </c>
-      <c r="Y401" s="77">
+      <c r="Y401" s="66">
         <v>5</v>
       </c>
-      <c r="Z401" s="79">
+      <c r="Z401" s="72">
         <v>5</v>
       </c>
     </row>
     <row r="402" spans="1:26" ht="80">
-      <c r="A402" s="75" t="str">
+      <c r="A402" s="70" t="str">
         <f t="shared" si="95"/>
         <v>T401</v>
       </c>
       <c r="B402" s="56" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="C402" s="56" t="s">
         <v>251</v>
@@ -38538,136 +38909,136 @@
         <v>91</v>
       </c>
       <c r="K402" s="56" t="s">
-        <v>1642</v>
+        <v>1637</v>
       </c>
       <c r="L402" s="56" t="s">
-        <v>1642</v>
+        <v>1637</v>
       </c>
       <c r="M402" s="56" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
       <c r="N402" s="56" t="s">
         <v>662</v>
       </c>
-      <c r="O402" s="70" t="s">
+      <c r="O402" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="P402" s="70" t="s">
+      <c r="P402" s="65" t="s">
         <v>254</v>
       </c>
       <c r="Q402" s="57"/>
-      <c r="R402" s="70"/>
-      <c r="S402" s="76">
+      <c r="R402" s="65"/>
+      <c r="S402" s="56">
         <v>5</v>
       </c>
-      <c r="T402" s="76">
+      <c r="T402" s="56">
         <v>6</v>
       </c>
-      <c r="U402" s="76">
+      <c r="U402" s="56">
         <v>5</v>
       </c>
-      <c r="V402" s="76">
+      <c r="V402" s="56">
         <v>6</v>
       </c>
-      <c r="W402" s="76">
+      <c r="W402" s="56">
         <v>3</v>
       </c>
-      <c r="X402" s="76">
+      <c r="X402" s="56">
         <v>4</v>
       </c>
-      <c r="Y402" s="76">
+      <c r="Y402" s="56">
         <v>9</v>
       </c>
-      <c r="Z402" s="78">
+      <c r="Z402" s="71">
         <v>4</v>
       </c>
     </row>
     <row r="403" spans="1:26" ht="160">
-      <c r="A403" s="75" t="str">
+      <c r="A403" s="70" t="str">
         <f t="shared" si="95"/>
         <v>T402</v>
       </c>
       <c r="B403" s="56" t="s">
-        <v>1627</v>
-      </c>
-      <c r="C403" s="71" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C403" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="D403" s="71" t="s">
+      <c r="D403" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="E403" s="71" t="s">
+      <c r="E403" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F403" s="71" t="s">
+      <c r="F403" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="G403" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="H403" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="I403" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="J403" s="71" t="s">
+      <c r="G403" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="H403" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="I403" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J403" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="K403" s="71" t="s">
+      <c r="K403" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="L403" s="71" t="s">
+      <c r="L403" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="M403" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="N403" s="71" t="s">
+      <c r="M403" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="N403" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="O403" s="73" t="s">
+      <c r="O403" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="P403" s="73" t="s">
+      <c r="P403" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="Q403" s="73" t="s">
+      <c r="Q403" s="68" t="s">
         <v>259</v>
       </c>
-      <c r="R403" s="73"/>
-      <c r="S403" s="77">
+      <c r="R403" s="68"/>
+      <c r="S403" s="66">
         <v>6</v>
       </c>
-      <c r="T403" s="77">
+      <c r="T403" s="66">
         <v>7</v>
       </c>
-      <c r="U403" s="77">
+      <c r="U403" s="66">
         <v>5</v>
       </c>
-      <c r="V403" s="77">
+      <c r="V403" s="66">
         <v>5</v>
       </c>
-      <c r="W403" s="77">
+      <c r="W403" s="66">
         <v>8</v>
       </c>
-      <c r="X403" s="77">
+      <c r="X403" s="66">
         <v>8</v>
       </c>
-      <c r="Y403" s="77">
+      <c r="Y403" s="66">
         <v>6</v>
       </c>
-      <c r="Z403" s="79">
+      <c r="Z403" s="72">
         <v>6</v>
       </c>
     </row>
     <row r="404" spans="1:26" ht="128">
-      <c r="A404" s="75" t="str">
+      <c r="A404" s="70" t="str">
         <f t="shared" si="95"/>
         <v>T403</v>
       </c>
       <c r="B404" s="56" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="C404" s="56" t="s">
         <v>260</v>
@@ -38682,13 +39053,13 @@
         <v>160</v>
       </c>
       <c r="G404" s="56" t="s">
-        <v>1642</v>
+        <v>1637</v>
       </c>
       <c r="H404" s="56" t="s">
-        <v>1642</v>
+        <v>1637</v>
       </c>
       <c r="I404" s="56" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
       <c r="J404" s="56" t="s">
         <v>663</v>
@@ -38705,127 +39076,127 @@
       <c r="N404" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="O404" s="74" t="s">
+      <c r="O404" s="69" t="s">
         <v>664</v>
       </c>
-      <c r="P404" s="74" t="s">
+      <c r="P404" s="69" t="s">
         <v>665</v>
       </c>
-      <c r="Q404" s="74" t="s">
+      <c r="Q404" s="69" t="s">
         <v>666</v>
       </c>
-      <c r="R404" s="70"/>
-      <c r="S404" s="76">
+      <c r="R404" s="65"/>
+      <c r="S404" s="56">
         <v>7</v>
       </c>
-      <c r="T404" s="76">
+      <c r="T404" s="56">
         <v>6</v>
       </c>
-      <c r="U404" s="76">
+      <c r="U404" s="56">
         <v>8</v>
       </c>
-      <c r="V404" s="76">
+      <c r="V404" s="56">
         <v>6</v>
       </c>
-      <c r="W404" s="76">
+      <c r="W404" s="56">
         <v>9</v>
       </c>
-      <c r="X404" s="76">
+      <c r="X404" s="56">
         <v>9</v>
       </c>
-      <c r="Y404" s="76">
+      <c r="Y404" s="56">
         <v>7</v>
       </c>
-      <c r="Z404" s="78">
+      <c r="Z404" s="71">
         <v>6</v>
       </c>
     </row>
     <row r="405" spans="1:26" ht="48">
-      <c r="A405" s="75" t="str">
+      <c r="A405" s="70" t="str">
         <f t="shared" si="95"/>
         <v>T404</v>
       </c>
       <c r="B405" s="56" t="s">
-        <v>1627</v>
-      </c>
-      <c r="C405" s="71" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C405" s="66" t="s">
         <v>293</v>
       </c>
-      <c r="D405" s="71" t="s">
+      <c r="D405" s="66" t="s">
         <v>667</v>
       </c>
-      <c r="E405" s="71" t="s">
+      <c r="E405" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="F405" s="71" t="s">
+      <c r="F405" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="G405" s="71" t="s">
+      <c r="G405" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="H405" s="71" t="s">
+      <c r="H405" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="I405" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="J405" s="71" t="s">
+      <c r="I405" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J405" s="66" t="s">
         <v>265</v>
       </c>
-      <c r="K405" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="L405" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="M405" s="71" t="s">
+      <c r="K405" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="L405" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="M405" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="N405" s="71" t="s">
+      <c r="N405" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="O405" s="73" t="s">
+      <c r="O405" s="68" t="s">
         <v>363</v>
       </c>
-      <c r="P405" s="73" t="s">
+      <c r="P405" s="68" t="s">
         <v>668</v>
       </c>
-      <c r="Q405" s="73" t="s">
+      <c r="Q405" s="68" t="s">
         <v>669</v>
       </c>
-      <c r="R405" s="73"/>
-      <c r="S405" s="77">
+      <c r="R405" s="68"/>
+      <c r="S405" s="66">
         <v>5</v>
       </c>
-      <c r="T405" s="77">
+      <c r="T405" s="66">
         <v>7</v>
       </c>
-      <c r="U405" s="77">
+      <c r="U405" s="66">
         <v>6</v>
       </c>
-      <c r="V405" s="77">
+      <c r="V405" s="66">
         <v>6</v>
       </c>
-      <c r="W405" s="77">
+      <c r="W405" s="66">
         <v>2</v>
       </c>
-      <c r="X405" s="77">
+      <c r="X405" s="66">
         <v>4</v>
       </c>
-      <c r="Y405" s="77">
+      <c r="Y405" s="66">
         <v>9</v>
       </c>
-      <c r="Z405" s="79">
+      <c r="Z405" s="72">
         <v>4</v>
       </c>
     </row>
     <row r="406" spans="1:26" ht="96">
-      <c r="A406" s="75" t="str">
+      <c r="A406" s="70" t="str">
         <f t="shared" si="95"/>
         <v>T405</v>
       </c>
       <c r="B406" s="56" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="C406" s="56" t="s">
         <v>269</v>
@@ -38863,196 +39234,196 @@
       <c r="N406" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="O406" s="74" t="s">
+      <c r="O406" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="P406" s="74" t="s">
+      <c r="P406" s="69" t="s">
         <v>670</v>
       </c>
-      <c r="Q406" s="74" t="s">
+      <c r="Q406" s="69" t="s">
         <v>671</v>
       </c>
-      <c r="R406" s="70"/>
-      <c r="S406" s="76">
+      <c r="R406" s="65"/>
+      <c r="S406" s="56">
         <v>5</v>
       </c>
-      <c r="T406" s="76">
+      <c r="T406" s="56">
         <v>7</v>
       </c>
-      <c r="U406" s="76">
+      <c r="U406" s="56">
         <v>6</v>
       </c>
-      <c r="V406" s="76">
+      <c r="V406" s="56">
         <v>6</v>
       </c>
-      <c r="W406" s="76">
+      <c r="W406" s="56">
         <v>6</v>
       </c>
-      <c r="X406" s="76">
+      <c r="X406" s="56">
         <v>9</v>
       </c>
-      <c r="Y406" s="76">
+      <c r="Y406" s="56">
         <v>6</v>
       </c>
-      <c r="Z406" s="78">
+      <c r="Z406" s="71">
         <v>4</v>
       </c>
     </row>
     <row r="407" spans="1:26" ht="96">
-      <c r="A407" s="75" t="str">
+      <c r="A407" s="70" t="str">
         <f t="shared" si="95"/>
         <v>T406</v>
       </c>
       <c r="B407" s="56" t="s">
-        <v>1627</v>
-      </c>
-      <c r="C407" s="71" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C407" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="D407" s="71" t="s">
+      <c r="D407" s="66" t="s">
         <v>275</v>
       </c>
-      <c r="E407" s="71" t="s">
+      <c r="E407" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="F407" s="71" t="s">
+      <c r="F407" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="G407" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="H407" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="I407" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="J407" s="71" t="s">
+      <c r="G407" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="H407" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="I407" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J407" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="K407" s="71" t="s">
+      <c r="K407" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="L407" s="71" t="s">
+      <c r="L407" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="M407" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="N407" s="71" t="s">
+      <c r="M407" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="N407" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="O407" s="73" t="s">
+      <c r="O407" s="68" t="s">
         <v>276</v>
       </c>
-      <c r="P407" s="73" t="s">
+      <c r="P407" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="Q407" s="73" t="s">
+      <c r="Q407" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="R407" s="73"/>
-      <c r="S407" s="77">
+      <c r="R407" s="68"/>
+      <c r="S407" s="66">
         <v>6</v>
       </c>
-      <c r="T407" s="77">
+      <c r="T407" s="66">
         <v>8</v>
       </c>
-      <c r="U407" s="77">
+      <c r="U407" s="66">
         <v>6</v>
       </c>
-      <c r="V407" s="77">
+      <c r="V407" s="66">
         <v>6</v>
       </c>
-      <c r="W407" s="77">
+      <c r="W407" s="66">
         <v>7</v>
       </c>
-      <c r="X407" s="77">
+      <c r="X407" s="66">
         <v>9</v>
       </c>
-      <c r="Y407" s="77">
+      <c r="Y407" s="66">
         <v>6</v>
       </c>
-      <c r="Z407" s="79">
+      <c r="Z407" s="72">
         <v>5</v>
       </c>
     </row>
     <row r="408" spans="1:26" ht="240">
-      <c r="A408" s="75" t="str">
+      <c r="A408" s="70" t="str">
         <f t="shared" si="95"/>
         <v>T407</v>
       </c>
       <c r="B408" s="56" t="s">
-        <v>1627</v>
-      </c>
-      <c r="C408" s="80" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C408" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="D408" s="80" t="s">
+      <c r="D408" s="73" t="s">
         <v>280</v>
       </c>
-      <c r="E408" s="80" t="s">
+      <c r="E408" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="F408" s="80" t="s">
+      <c r="F408" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="G408" s="80" t="s">
+      <c r="G408" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="H408" s="80" t="s">
+      <c r="H408" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="I408" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="J408" s="80" t="s">
+      <c r="I408" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="J408" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="K408" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="L408" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="M408" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="N408" s="80" t="s">
+      <c r="K408" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="L408" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="M408" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="N408" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="O408" s="81" t="s">
+      <c r="O408" s="74" t="s">
         <v>281</v>
       </c>
-      <c r="P408" s="81" t="s">
+      <c r="P408" s="74" t="s">
         <v>282</v>
       </c>
-      <c r="Q408" s="81" t="s">
+      <c r="Q408" s="74" t="s">
         <v>283</v>
       </c>
-      <c r="R408" s="81"/>
-      <c r="S408" s="82">
+      <c r="R408" s="74"/>
+      <c r="S408" s="73">
         <v>6</v>
       </c>
-      <c r="T408" s="82">
+      <c r="T408" s="73">
         <v>5</v>
       </c>
-      <c r="U408" s="82">
+      <c r="U408" s="73">
         <v>5</v>
       </c>
-      <c r="V408" s="82">
+      <c r="V408" s="73">
         <v>5</v>
       </c>
-      <c r="W408" s="82">
+      <c r="W408" s="73">
         <v>6</v>
       </c>
-      <c r="X408" s="82">
+      <c r="X408" s="73">
         <v>4</v>
       </c>
-      <c r="Y408" s="82">
+      <c r="Y408" s="73">
         <v>4</v>
       </c>
-      <c r="Z408" s="83">
+      <c r="Z408" s="75">
         <v>4</v>
       </c>
     </row>
@@ -39081,7 +39452,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FF4181-4BF6-4FB2-875D-8C65281B7663}">
-  <sheetPr>
+  <sheetPr codeName="Foglio10">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:F22"/>
@@ -39135,10 +39506,10 @@
         <v>1004</v>
       </c>
       <c r="E2" s="41" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F2" s="36" t="s">
         <v>1317</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29">
@@ -39155,10 +39526,10 @@
         <v>1007</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29">
@@ -39175,10 +39546,10 @@
         <v>1010</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29">
@@ -39195,10 +39566,10 @@
         <v>1013</v>
       </c>
       <c r="E5" s="41" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F5" s="36" t="s">
         <v>1321</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="29">
@@ -39215,10 +39586,10 @@
         <v>1016</v>
       </c>
       <c r="E6" s="41" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F6" s="36" t="s">
         <v>1323</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -39235,10 +39606,10 @@
         <v>1019</v>
       </c>
       <c r="E7" s="41" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>1325</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="29">
@@ -39255,10 +39626,10 @@
         <v>1022</v>
       </c>
       <c r="E8" s="41" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F8" s="36" t="s">
         <v>1327</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -39275,10 +39646,10 @@
         <v>1025</v>
       </c>
       <c r="E9" s="41" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F9" s="36" t="s">
         <v>1329</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="29">
@@ -39295,10 +39666,10 @@
         <v>1028</v>
       </c>
       <c r="E10" s="41" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F10" s="36" t="s">
         <v>1331</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="57">
@@ -39315,10 +39686,10 @@
         <v>1031</v>
       </c>
       <c r="E11" s="41" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F11" s="36" t="s">
         <v>1333</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -39335,10 +39706,10 @@
         <v>1019</v>
       </c>
       <c r="E12" s="41" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F12" s="36" t="s">
         <v>1335</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -39355,10 +39726,10 @@
         <v>1025</v>
       </c>
       <c r="E13" s="41" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F13" s="36" t="s">
         <v>1337</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="29">
@@ -39375,10 +39746,10 @@
         <v>1038</v>
       </c>
       <c r="E14" s="41" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F14" s="36" t="s">
         <v>1339</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="29">
@@ -39395,10 +39766,10 @@
         <v>1041</v>
       </c>
       <c r="E15" s="41" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F15" s="36" t="s">
         <v>1341</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -39415,10 +39786,10 @@
         <v>1044</v>
       </c>
       <c r="E16" s="41" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F16" s="36" t="s">
         <v>1343</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="29">
@@ -39435,10 +39806,10 @@
         <v>1047</v>
       </c>
       <c r="E17" s="41" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F17" s="36" t="s">
         <v>1345</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="29">
@@ -39455,10 +39826,10 @@
         <v>1050</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="29">
@@ -39475,7 +39846,7 @@
         <v>1053</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F19" s="36" t="s">
         <v>1054</v>
@@ -39492,13 +39863,13 @@
         <v>1056</v>
       </c>
       <c r="D20" s="38" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E20" s="41" t="s">
         <v>1349</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="F20" s="36" t="s">
         <v>1350</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="29">
@@ -39515,10 +39886,10 @@
         <v>1059</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -39535,10 +39906,10 @@
         <v>1019</v>
       </c>
       <c r="E22" s="41" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F22" s="36" t="s">
         <v>1353</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>1354</v>
       </c>
     </row>
   </sheetData>
@@ -39548,7 +39919,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57805981-D162-4E30-B88F-BB8439796E51}">
-  <sheetPr>
+  <sheetPr codeName="Foglio11">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:E34"/>
@@ -40149,13 +40520,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7D7861-F32F-3D4B-826A-283A347DA542}">
-  <sheetPr>
+  <sheetPr codeName="Foglio12">
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="114" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -40171,10 +40542,10 @@
         <v>982</v>
       </c>
       <c r="B1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C1" t="s">
         <v>1363</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1364</v>
       </c>
       <c r="D1" t="s">
         <v>928</v>
@@ -40183,7 +40554,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -40192,16 +40563,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E2" t="s">
         <v>1383</v>
       </c>
-      <c r="D2" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1384</v>
-      </c>
-      <c r="F2" s="62" t="s">
-        <v>1496</v>
+      <c r="F2" s="80" t="s">
+        <v>1495</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -40210,16 +40581,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D3" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E3" t="s">
-        <v>1385</v>
-      </c>
-      <c r="F3" s="62" t="s">
-        <v>1487</v>
+        <v>1384</v>
+      </c>
+      <c r="F3" s="81" t="s">
+        <v>1486</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -40228,16 +40599,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E4" t="s">
-        <v>1386</v>
-      </c>
-      <c r="F4" s="62" t="s">
-        <v>1477</v>
+        <v>1385</v>
+      </c>
+      <c r="F4" s="82" t="s">
+        <v>1476</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -40246,19 +40617,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C5" t="s">
         <v>1387</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="22" t="s">
         <v>1388</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="E5" t="s">
         <v>1389</v>
       </c>
-      <c r="E5" t="s">
-        <v>1390</v>
-      </c>
-      <c r="F5" s="62" t="s">
-        <v>1476</v>
+      <c r="F5" s="83" t="s">
+        <v>1475</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -40267,16 +40638,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F6" s="62" t="s">
-        <v>1497</v>
+        <v>1390</v>
+      </c>
+      <c r="F6" s="84" t="s">
+        <v>1496</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -40285,16 +40656,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>1392</v>
-      </c>
-      <c r="F7" s="62" t="s">
-        <v>1498</v>
+        <v>1391</v>
+      </c>
+      <c r="F7" s="85" t="s">
+        <v>1497</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -40303,16 +40674,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="D8" s="22" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E8" t="s">
         <v>1393</v>
       </c>
-      <c r="E8" t="s">
-        <v>1394</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>1499</v>
+      <c r="F8" s="86" t="s">
+        <v>1498</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -40321,19 +40692,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C9" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>1395</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="E9" t="s">
         <v>1396</v>
       </c>
-      <c r="E9" t="s">
-        <v>1397</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>1488</v>
+      <c r="F9" s="87" t="s">
+        <v>1487</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -40342,19 +40713,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C10" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D10" s="22" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E10" t="s">
         <v>1398</v>
       </c>
-      <c r="E10" t="s">
-        <v>1399</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>1481</v>
+      <c r="F10" s="88" t="s">
+        <v>1480</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -40363,16 +40734,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="E11" t="s">
-        <v>1640</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>1481</v>
+        <v>1636</v>
+      </c>
+      <c r="F11" s="88" t="s">
+        <v>1480</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -40381,19 +40752,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C12" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E12" t="s">
         <v>1400</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1401</v>
-      </c>
-      <c r="F12" s="62" t="s">
-        <v>1500</v>
+      <c r="F12" s="89" t="s">
+        <v>1499</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -40402,19 +40773,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C13" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>220</v>
       </c>
       <c r="E13" t="s">
-        <v>1403</v>
-      </c>
-      <c r="F13" s="62" t="s">
-        <v>1501</v>
+        <v>1402</v>
+      </c>
+      <c r="F13" s="90" t="s">
+        <v>1641</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -40423,16 +40794,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>284</v>
       </c>
       <c r="E14" t="s">
-        <v>1404</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>1502</v>
+        <v>1403</v>
+      </c>
+      <c r="F14" s="91" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -40441,19 +40812,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C15" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>1193</v>
       </c>
       <c r="E15" t="s">
-        <v>1406</v>
-      </c>
-      <c r="F15" s="62" t="s">
-        <v>1475</v>
+        <v>1405</v>
+      </c>
+      <c r="F15" s="92" t="s">
+        <v>1474</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -40462,19 +40833,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C16" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>1159</v>
       </c>
       <c r="E16" t="s">
-        <v>1408</v>
-      </c>
-      <c r="F16" s="62" t="s">
-        <v>1503</v>
+        <v>1407</v>
+      </c>
+      <c r="F16" s="93" t="s">
+        <v>1501</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -40483,16 +40854,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="D17" s="22" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E17" t="s">
         <v>1409</v>
       </c>
-      <c r="E17" t="s">
-        <v>1410</v>
-      </c>
-      <c r="F17" s="62" t="s">
-        <v>1504</v>
+      <c r="F17" s="94" t="s">
+        <v>1502</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -40501,19 +40872,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C18" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E18" t="s">
         <v>1411</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>1366</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1412</v>
-      </c>
-      <c r="F18" s="62" t="s">
-        <v>1493</v>
+      <c r="F18" s="95" t="s">
+        <v>1492</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -40522,19 +40893,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C19" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D19" s="22" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E19" t="s">
         <v>1413</v>
       </c>
-      <c r="E19" t="s">
-        <v>1414</v>
-      </c>
-      <c r="F19" s="62" t="s">
-        <v>1505</v>
+      <c r="F19" s="96" t="s">
+        <v>1503</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -40543,19 +40914,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C20" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D20" s="22" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E20" t="s">
         <v>1415</v>
       </c>
-      <c r="E20" t="s">
-        <v>1416</v>
-      </c>
-      <c r="F20" s="62" t="s">
-        <v>1506</v>
+      <c r="F20" s="97" t="s">
+        <v>1504</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -40564,19 +40935,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C21" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D21" s="22" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E21" t="s">
         <v>1417</v>
       </c>
-      <c r="E21" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F21" s="62" t="s">
-        <v>1507</v>
+      <c r="F21" s="98" t="s">
+        <v>1505</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -40585,19 +40956,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C22" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D22" s="22" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E22" t="s">
         <v>1419</v>
       </c>
-      <c r="E22" t="s">
-        <v>1420</v>
-      </c>
-      <c r="F22" s="62" t="s">
-        <v>1508</v>
+      <c r="F22" s="99" t="s">
+        <v>1506</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -40612,10 +40983,10 @@
         <v>330</v>
       </c>
       <c r="E23" t="s">
-        <v>1421</v>
-      </c>
-      <c r="F23" s="62" t="s">
-        <v>1509</v>
+        <v>1420</v>
+      </c>
+      <c r="F23" s="100" t="s">
+        <v>1642</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -40627,16 +40998,16 @@
         <v>330</v>
       </c>
       <c r="C24" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>1422</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="E24" t="s">
         <v>1423</v>
       </c>
-      <c r="E24" t="s">
-        <v>1424</v>
-      </c>
-      <c r="F24" s="62" t="s">
-        <v>1495</v>
+      <c r="F24" s="101" t="s">
+        <v>1494</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -40648,16 +41019,16 @@
         <v>330</v>
       </c>
       <c r="C25" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D25" s="22" t="s">
         <v>1425</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="E25" t="s">
         <v>1426</v>
       </c>
-      <c r="E25" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F25" s="62" t="s">
-        <v>1510</v>
+      <c r="F25" s="102" t="s">
+        <v>1507</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -40669,16 +41040,16 @@
         <v>330</v>
       </c>
       <c r="C26" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>426</v>
       </c>
       <c r="E26" t="s">
-        <v>1428</v>
-      </c>
-      <c r="F26" s="62" t="s">
-        <v>1482</v>
+        <v>1427</v>
+      </c>
+      <c r="F26" s="103" t="s">
+        <v>1481</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -40690,16 +41061,16 @@
         <v>330</v>
       </c>
       <c r="C27" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="E27" t="s">
-        <v>1638</v>
-      </c>
-      <c r="F27" s="62" t="s">
-        <v>1482</v>
+        <v>1634</v>
+      </c>
+      <c r="F27" s="103" t="s">
+        <v>1481</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -40711,16 +41082,16 @@
         <v>330</v>
       </c>
       <c r="C28" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E28" t="s">
         <v>1429</v>
       </c>
-      <c r="D28" s="22" t="s">
-        <v>1367</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1430</v>
-      </c>
-      <c r="F28" s="62" t="s">
-        <v>1491</v>
+      <c r="F28" s="104" t="s">
+        <v>1490</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -40732,16 +41103,16 @@
         <v>330</v>
       </c>
       <c r="C29" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D29" s="22" t="s">
         <v>1431</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="E29" t="s">
         <v>1432</v>
       </c>
-      <c r="E29" t="s">
-        <v>1433</v>
-      </c>
-      <c r="F29" s="62" t="s">
-        <v>1478</v>
+      <c r="F29" s="105" t="s">
+        <v>1477</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -40753,16 +41124,16 @@
         <v>330</v>
       </c>
       <c r="C30" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>369</v>
       </c>
       <c r="E30" t="s">
-        <v>1434</v>
-      </c>
-      <c r="F30" s="62" t="s">
-        <v>1511</v>
+        <v>1433</v>
+      </c>
+      <c r="F30" s="106" t="s">
+        <v>1508</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -40771,19 +41142,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="22" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D31" s="22" t="s">
         <v>1435</v>
       </c>
-      <c r="C31" t="s">
-        <v>1431</v>
-      </c>
-      <c r="D31" s="22" t="s">
+      <c r="E31" t="s">
         <v>1436</v>
       </c>
-      <c r="E31" t="s">
-        <v>1437</v>
-      </c>
-      <c r="F31" s="62" t="s">
-        <v>1512</v>
+      <c r="F31" s="107" t="s">
+        <v>1509</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -40792,19 +41163,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C32" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>430</v>
       </c>
       <c r="E32" t="s">
-        <v>1438</v>
-      </c>
-      <c r="F32" s="62" t="s">
-        <v>1492</v>
+        <v>1437</v>
+      </c>
+      <c r="F32" s="108" t="s">
+        <v>1491</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -40813,19 +41184,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C33" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>509</v>
       </c>
       <c r="E33" t="s">
-        <v>1439</v>
-      </c>
-      <c r="F33" s="62" t="s">
-        <v>1494</v>
+        <v>1438</v>
+      </c>
+      <c r="F33" s="109" t="s">
+        <v>1493</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -40834,19 +41205,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C34" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>510</v>
       </c>
       <c r="E34" t="s">
-        <v>1440</v>
-      </c>
-      <c r="F34" s="62" t="s">
-        <v>1480</v>
+        <v>1439</v>
+      </c>
+      <c r="F34" s="110" t="s">
+        <v>1479</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -40855,19 +41226,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C35" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>517</v>
       </c>
       <c r="E35" t="s">
-        <v>1441</v>
-      </c>
-      <c r="F35" s="62" t="s">
-        <v>1490</v>
+        <v>1440</v>
+      </c>
+      <c r="F35" s="111" t="s">
+        <v>1489</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -40876,19 +41247,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C36" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>524</v>
       </c>
       <c r="E36" t="s">
-        <v>1442</v>
-      </c>
-      <c r="F36" s="62" t="s">
-        <v>1479</v>
+        <v>1441</v>
+      </c>
+      <c r="F36" s="112" t="s">
+        <v>1478</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -40897,19 +41268,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C37" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D37" s="22" t="s">
         <v>529</v>
       </c>
       <c r="E37" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F37" s="62" t="s">
-        <v>1513</v>
+        <v>1442</v>
+      </c>
+      <c r="F37" s="113" t="s">
+        <v>1510</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -40918,19 +41289,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C38" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>553</v>
       </c>
       <c r="E38" t="s">
-        <v>1444</v>
-      </c>
-      <c r="F38" s="62" t="s">
-        <v>1486</v>
+        <v>1443</v>
+      </c>
+      <c r="F38" s="114" t="s">
+        <v>1485</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -40939,19 +41310,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C39" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>554</v>
       </c>
       <c r="E39" t="s">
-        <v>1445</v>
-      </c>
-      <c r="F39" s="62" t="s">
-        <v>1483</v>
+        <v>1444</v>
+      </c>
+      <c r="F39" s="115" t="s">
+        <v>1482</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -40960,19 +41331,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C40" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>561</v>
       </c>
       <c r="E40" t="s">
-        <v>1446</v>
-      </c>
-      <c r="F40" s="62" t="s">
-        <v>1514</v>
+        <v>1445</v>
+      </c>
+      <c r="F40" s="116" t="s">
+        <v>1511</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -40981,19 +41352,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C41" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>1147</v>
       </c>
       <c r="E41" t="s">
-        <v>1448</v>
-      </c>
-      <c r="F41" s="62" t="s">
-        <v>1474</v>
+        <v>1447</v>
+      </c>
+      <c r="F41" s="117" t="s">
+        <v>1473</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -41002,19 +41373,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C42" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E42" t="s">
-        <v>1449</v>
-      </c>
-      <c r="F42" s="62" t="s">
-        <v>1515</v>
+        <v>1448</v>
+      </c>
+      <c r="F42" s="118" t="s">
+        <v>1512</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -41023,19 +41394,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C43" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="E43" t="s">
-        <v>1450</v>
-      </c>
-      <c r="F43" s="62" t="s">
-        <v>1473</v>
+        <v>1449</v>
+      </c>
+      <c r="F43" s="119" t="s">
+        <v>1472</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -41044,19 +41415,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C44" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D44" s="22" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E44" t="s">
         <v>1451</v>
       </c>
-      <c r="E44" t="s">
-        <v>1452</v>
-      </c>
-      <c r="F44" s="62" t="s">
-        <v>1516</v>
+      <c r="F44" s="120" t="s">
+        <v>1513</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -41065,19 +41436,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C45" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>640</v>
       </c>
       <c r="E45" t="s">
-        <v>1454</v>
-      </c>
-      <c r="F45" s="62" t="s">
-        <v>1484</v>
+        <v>1453</v>
+      </c>
+      <c r="F45" s="121" t="s">
+        <v>1483</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -41086,19 +41457,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C46" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="E46" t="s">
-        <v>1630</v>
-      </c>
-      <c r="F46" s="62" t="s">
-        <v>1631</v>
+        <v>1626</v>
+      </c>
+      <c r="F46" s="122" t="s">
+        <v>1627</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -41107,19 +41478,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C47" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="E47" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F47" s="123" t="s">
         <v>1628</v>
-      </c>
-      <c r="F47" s="62" t="s">
-        <v>1632</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -41128,19 +41499,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C48" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D48" s="22" t="s">
         <v>567</v>
       </c>
       <c r="E48" t="s">
-        <v>1456</v>
-      </c>
-      <c r="F48" s="62" t="s">
-        <v>1485</v>
+        <v>1455</v>
+      </c>
+      <c r="F48" s="124" t="s">
+        <v>1484</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -41149,19 +41520,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C49" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D49" s="22" t="s">
         <v>672</v>
       </c>
       <c r="E49" t="s">
-        <v>1457</v>
-      </c>
-      <c r="F49" s="62" t="s">
-        <v>1636</v>
+        <v>1456</v>
+      </c>
+      <c r="F49" s="125" t="s">
+        <v>1632</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -41170,19 +41541,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C50" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="E50" t="s">
-        <v>1634</v>
-      </c>
-      <c r="F50" s="62" t="s">
-        <v>1635</v>
+        <v>1630</v>
+      </c>
+      <c r="F50" s="126" t="s">
+        <v>1631</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -41191,19 +41562,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C51" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D51" s="22" t="s">
         <v>718</v>
       </c>
       <c r="E51" t="s">
-        <v>1458</v>
-      </c>
-      <c r="F51" s="62" t="s">
-        <v>1517</v>
+        <v>1457</v>
+      </c>
+      <c r="F51" s="127" t="s">
+        <v>1514</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -41212,19 +41583,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C52" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D52" s="22" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E52" t="s">
         <v>1459</v>
       </c>
-      <c r="E52" t="s">
-        <v>1460</v>
-      </c>
-      <c r="F52" s="62" t="s">
-        <v>1518</v>
+      <c r="F52" s="128" t="s">
+        <v>1515</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -41233,16 +41604,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D53" s="22" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E53" t="s">
         <v>1461</v>
       </c>
-      <c r="E53" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F53" s="62" t="s">
-        <v>1489</v>
+      <c r="F53" s="129" t="s">
+        <v>1488</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -41251,16 +41622,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D54" s="22" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E54" t="s">
         <v>1463</v>
       </c>
-      <c r="E54" t="s">
-        <v>1464</v>
-      </c>
-      <c r="F54" s="62" t="s">
-        <v>1519</v>
+      <c r="F54" s="130" t="s">
+        <v>1516</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -41269,16 +41640,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D55" s="22" t="s">
         <v>1465</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="E55" t="s">
         <v>1466</v>
       </c>
-      <c r="E55" t="s">
-        <v>1467</v>
-      </c>
-      <c r="F55" s="62" t="s">
-        <v>1520</v>
+      <c r="F55" s="131" t="s">
+        <v>1517</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -41287,16 +41658,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D56" s="22" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E56" t="s">
         <v>1468</v>
       </c>
-      <c r="E56" t="s">
-        <v>1469</v>
-      </c>
-      <c r="F56" s="62" t="s">
-        <v>1521</v>
+      <c r="F56" s="132" t="s">
+        <v>1518</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -41305,19 +41676,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C57" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D57" s="22" t="s">
         <v>618</v>
       </c>
       <c r="E57" t="s">
-        <v>1470</v>
-      </c>
-      <c r="F57" s="62" t="s">
-        <v>1522</v>
+        <v>1469</v>
+      </c>
+      <c r="F57" s="133" t="s">
+        <v>1519</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -41326,19 +41697,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C58" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D58" s="22" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E58" t="s">
         <v>1471</v>
       </c>
-      <c r="E58" t="s">
-        <v>1472</v>
-      </c>
-      <c r="F58" s="62" t="s">
-        <v>1523</v>
+      <c r="F58" s="134" t="s">
+        <v>1643</v>
       </c>
     </row>
   </sheetData>
@@ -41353,6 +41724,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1F90D7-B950-E541-B424-81AF270A6A6D}">
+  <sheetPr codeName="Foglio13"/>
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -41371,20 +41743,20 @@
       <c r="A1" t="s">
         <v>982</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="64" t="s">
         <v>928</v>
       </c>
-      <c r="C1" s="65" t="s">
-        <v>1542</v>
-      </c>
-      <c r="D1" s="65" t="s">
+      <c r="C1" s="64" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
-        <v>1543</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>1524</v>
+      <c r="E1" s="64" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>1520</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16">
@@ -41393,19 +41765,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="C2" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="E2" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16">
@@ -41414,16 +41786,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="E3" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32">
@@ -41432,16 +41804,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="E4" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1">
@@ -41450,16 +41822,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="E5" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="48">
@@ -41468,19 +41840,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="C6" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="E6" t="s">
         <v>330</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="48">
@@ -41489,19 +41861,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="C7" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="E7" t="s">
         <v>330</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="48">
@@ -41510,19 +41882,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="C8" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="E8" t="s">
         <v>330</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="32">
@@ -41531,19 +41903,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="C9" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="E9" t="s">
         <v>330</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16">
@@ -41555,16 +41927,16 @@
         <v>884</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16">
@@ -41573,19 +41945,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="C11" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="E11" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="32">
@@ -41594,19 +41966,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="C12" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="E12" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16">
@@ -41615,19 +41987,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="C13" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="E13" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32">
@@ -41636,19 +42008,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="C14" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="E14" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32">
@@ -41657,19 +42029,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="C15" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="E15" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="32">
@@ -41678,19 +42050,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="C16" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="E16" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16">
@@ -41702,16 +42074,16 @@
         <v>915</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16">
@@ -41724,13 +42096,13 @@
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="39" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="32">
@@ -41739,19 +42111,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="C19" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="E19" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16">
@@ -41760,19 +42132,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="C20" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="E20" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="32">
@@ -41781,19 +42153,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="C21" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="E21" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16">
@@ -41805,16 +42177,16 @@
         <v>825</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16">
@@ -41823,19 +42195,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="C23" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="E23" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16">
@@ -41844,19 +42216,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="C24" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="E24" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="32">
@@ -41865,19 +42237,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="C25" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="E25" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16">
@@ -41886,16 +42258,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="E26" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16">
@@ -41907,16 +42279,16 @@
         <v>874</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
   </sheetData>
@@ -41930,6 +42302,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832ED7C-F607-6F42-BC5C-0D34BDD1E19D}">
+  <sheetPr codeName="Foglio14"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -41945,87 +42318,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="62" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B2" s="63" t="s">
         <v>1524</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="C2" s="63" t="s">
         <v>1525</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="D2" t="s">
         <v>1526</v>
       </c>
-      <c r="D1" s="63" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="63" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="62" t="s">
         <v>1527</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B3" s="63" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C3" s="63" t="s">
         <v>1528</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="D3" t="s">
         <v>1529</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="62" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="63" t="s">
+      <c r="B4" s="63" t="s">
         <v>1531</v>
       </c>
-      <c r="B3" s="64" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C3" s="64" t="s">
+      <c r="C4" s="63" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D4" t="s">
         <v>1532</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="62" t="s">
         <v>1533</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="63" t="s">
+      <c r="B5" s="63" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="63" t="s">
         <v>1534</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="D5" t="s">
         <v>1535</v>
       </c>
-      <c r="C4" s="64" t="s">
-        <v>1529</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="62" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="63" t="s">
+      <c r="B6" s="63" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D6" t="s">
         <v>1537</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>330</v>
-      </c>
-      <c r="C5" s="64" t="s">
-        <v>1538</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="63" t="s">
-        <v>1540</v>
-      </c>
-      <c r="B6" s="64" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1541</v>
       </c>
     </row>
   </sheetData>
@@ -42036,6 +42409,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B1B9EE-67F1-4840-BF11-417278E68DBE}">
+  <sheetPr codeName="Foglio2"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -42057,7 +42431,7 @@
         <v>928</v>
       </c>
       <c r="C1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -42077,7 +42451,7 @@
         <v>1147</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="E2" t="s">
         <v>1154</v>
@@ -42088,16 +42462,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="C3" t="s">
         <v>672</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="E3" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
   </sheetData>
@@ -42111,6 +42485,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C575F71-5844-7C49-BFFB-A74BF781DB6E}">
+  <sheetPr codeName="Foglio3"/>
   <dimension ref="A1:O86"/>
   <sheetViews>
     <sheetView zoomScale="114" workbookViewId="0">
@@ -42178,7 +42553,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="90" customHeight="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="76" t="s">
         <v>742</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -42224,7 +42599,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="65" customHeight="1">
-      <c r="A3" s="66"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="5" t="s">
         <v>746</v>
       </c>
@@ -42268,7 +42643,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="64">
-      <c r="A4" s="66"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="5" t="s">
         <v>749</v>
       </c>
@@ -42309,7 +42684,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="80">
-      <c r="A5" s="66"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="5" t="s">
         <v>752</v>
       </c>
@@ -42350,7 +42725,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="48">
-      <c r="A6" s="66"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="5" t="s">
         <v>754</v>
       </c>
@@ -42391,7 +42766,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="48">
-      <c r="A7" s="66"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="5" t="s">
         <v>478</v>
       </c>
@@ -42432,7 +42807,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="32">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="76" t="s">
         <v>758</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -42475,7 +42850,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="88" customHeight="1">
-      <c r="A9" s="66"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="5" t="s">
         <v>201</v>
       </c>
@@ -42516,7 +42891,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="26" customHeight="1">
-      <c r="A10" s="66"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="5" t="s">
         <v>82</v>
       </c>
@@ -42557,7 +42932,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="211" customHeight="1">
-      <c r="A11" s="66"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="5" t="s">
         <v>763</v>
       </c>
@@ -42598,7 +42973,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="130" customHeight="1">
-      <c r="A12" s="66"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="5" t="s">
         <v>765</v>
       </c>
@@ -42639,7 +43014,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="64">
-      <c r="A13" s="66"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="5" t="s">
         <v>768</v>
       </c>
@@ -42680,7 +43055,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="32">
-      <c r="A14" s="66"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="5" t="s">
         <v>770</v>
       </c>
@@ -42721,7 +43096,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="176">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="76" t="s">
         <v>773</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -42764,7 +43139,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="32">
-      <c r="A16" s="66"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="5" t="s">
         <v>776</v>
       </c>
@@ -42805,7 +43180,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="48">
-      <c r="A17" s="66"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="5" t="s">
         <v>100</v>
       </c>
@@ -42846,7 +43221,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="64">
-      <c r="A18" s="66"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="5" t="s">
         <v>779</v>
       </c>
@@ -42887,7 +43262,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="64">
-      <c r="A19" s="66"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="5" t="s">
         <v>781</v>
       </c>
@@ -42928,7 +43303,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="48">
-      <c r="A20" s="66"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="5" t="s">
         <v>783</v>
       </c>
@@ -42969,7 +43344,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="48">
-      <c r="A21" s="66"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="5" t="s">
         <v>201</v>
       </c>
@@ -43010,7 +43385,7 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="66"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="5" t="s">
         <v>787</v>
       </c>
@@ -43051,7 +43426,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="48">
-      <c r="A23" s="66"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="5" t="s">
         <v>789</v>
       </c>
@@ -43092,7 +43467,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="64">
-      <c r="A24" s="66"/>
+      <c r="A24" s="76"/>
       <c r="B24" s="3" t="s">
         <v>791</v>
       </c>
@@ -43133,7 +43508,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="48">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="76" t="s">
         <v>795</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -43176,7 +43551,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="80">
-      <c r="A26" s="66"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="5" t="s">
         <v>798</v>
       </c>
@@ -43217,7 +43592,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="32">
-      <c r="A27" s="66"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="5" t="s">
         <v>800</v>
       </c>
@@ -43258,7 +43633,7 @@
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="66"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="5" t="s">
         <v>802</v>
       </c>
@@ -43299,7 +43674,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="96">
-      <c r="A29" s="66"/>
+      <c r="A29" s="76"/>
       <c r="B29" s="5" t="s">
         <v>804</v>
       </c>
@@ -43340,7 +43715,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="48">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="77" t="s">
         <v>807</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -43383,7 +43758,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="48">
-      <c r="A31" s="67"/>
+      <c r="A31" s="77"/>
       <c r="B31" s="5" t="s">
         <v>810</v>
       </c>
@@ -43424,7 +43799,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="32">
-      <c r="A32" s="67"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="5" t="s">
         <v>812</v>
       </c>
@@ -43465,7 +43840,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="96">
-      <c r="A33" s="67"/>
+      <c r="A33" s="77"/>
       <c r="B33" s="5" t="s">
         <v>100</v>
       </c>
@@ -43506,7 +43881,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="32">
-      <c r="A34" s="67"/>
+      <c r="A34" s="77"/>
       <c r="B34" s="5" t="s">
         <v>815</v>
       </c>
@@ -43547,7 +43922,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="32">
-      <c r="A35" s="67"/>
+      <c r="A35" s="77"/>
       <c r="B35" s="5" t="s">
         <v>201</v>
       </c>
@@ -43588,7 +43963,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="80">
-      <c r="A36" s="67"/>
+      <c r="A36" s="77"/>
       <c r="B36" s="5" t="s">
         <v>818</v>
       </c>
@@ -43629,7 +44004,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="32">
-      <c r="A37" s="66" t="s">
+      <c r="A37" s="76" t="s">
         <v>820</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -43672,7 +44047,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="96">
-      <c r="A38" s="66"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="5" t="s">
         <v>804</v>
       </c>
@@ -43713,7 +44088,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="192">
-      <c r="A39" s="66"/>
+      <c r="A39" s="76"/>
       <c r="B39" s="5" t="s">
         <v>499</v>
       </c>
@@ -43754,7 +44129,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="32">
-      <c r="A40" s="66"/>
+      <c r="A40" s="76"/>
       <c r="B40" s="5" t="s">
         <v>770</v>
       </c>
@@ -43795,7 +44170,7 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="66" t="s">
+      <c r="A41" s="76" t="s">
         <v>822</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -43838,7 +44213,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="32">
-      <c r="A42" s="66"/>
+      <c r="A42" s="76"/>
       <c r="B42" s="5" t="s">
         <v>824</v>
       </c>
@@ -43879,7 +44254,7 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="66"/>
+      <c r="A43" s="76"/>
       <c r="B43" s="5" t="s">
         <v>802</v>
       </c>
@@ -43920,7 +44295,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="32">
-      <c r="A44" s="66" t="s">
+      <c r="A44" s="76" t="s">
         <v>825</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -43963,7 +44338,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="32">
-      <c r="A45" s="66"/>
+      <c r="A45" s="76"/>
       <c r="B45" s="7" t="s">
         <v>828</v>
       </c>
@@ -44004,7 +44379,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="16">
-      <c r="A46" s="66"/>
+      <c r="A46" s="76"/>
       <c r="B46" s="7" t="s">
         <v>830</v>
       </c>
@@ -44045,7 +44420,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="64">
-      <c r="A47" s="66"/>
+      <c r="A47" s="76"/>
       <c r="B47" s="7" t="s">
         <v>832</v>
       </c>
@@ -44086,7 +44461,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="48">
-      <c r="A48" s="66"/>
+      <c r="A48" s="76"/>
       <c r="B48" s="5" t="s">
         <v>834</v>
       </c>
@@ -44127,7 +44502,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" ht="78" customHeight="1">
-      <c r="A49" s="67" t="s">
+      <c r="A49" s="77" t="s">
         <v>836</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -44170,7 +44545,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" ht="32">
-      <c r="A50" s="67"/>
+      <c r="A50" s="77"/>
       <c r="B50" s="5" t="s">
         <v>613</v>
       </c>
@@ -44211,7 +44586,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" ht="16">
-      <c r="A51" s="67"/>
+      <c r="A51" s="77"/>
       <c r="B51" s="5" t="s">
         <v>201</v>
       </c>
@@ -44252,7 +44627,7 @@
       </c>
     </row>
     <row r="52" spans="1:13" ht="32">
-      <c r="A52" s="67"/>
+      <c r="A52" s="77"/>
       <c r="B52" s="5" t="s">
         <v>841</v>
       </c>
@@ -44293,7 +44668,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="96">
-      <c r="A53" s="67"/>
+      <c r="A53" s="77"/>
       <c r="B53" s="5" t="s">
         <v>843</v>
       </c>
@@ -44334,7 +44709,7 @@
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="67"/>
+      <c r="A54" s="77"/>
       <c r="B54" s="5" t="s">
         <v>845</v>
       </c>
@@ -44375,7 +44750,7 @@
       </c>
     </row>
     <row r="55" spans="1:13" ht="64">
-      <c r="A55" s="67"/>
+      <c r="A55" s="77"/>
       <c r="B55" s="5" t="s">
         <v>847</v>
       </c>
@@ -44416,7 +44791,7 @@
       </c>
     </row>
     <row r="56" spans="1:13" ht="64">
-      <c r="A56" s="67"/>
+      <c r="A56" s="77"/>
       <c r="B56" s="5" t="s">
         <v>849</v>
       </c>
@@ -44457,7 +44832,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="32">
-      <c r="A57" s="68" t="s">
+      <c r="A57" s="78" t="s">
         <v>851</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -44499,7 +44874,7 @@
       </c>
     </row>
     <row r="58" spans="1:13" ht="80">
-      <c r="A58" s="68"/>
+      <c r="A58" s="78"/>
       <c r="B58" s="7" t="s">
         <v>854</v>
       </c>
@@ -44539,7 +44914,7 @@
       </c>
     </row>
     <row r="59" spans="1:13" ht="64" customHeight="1">
-      <c r="A59" s="68"/>
+      <c r="A59" s="78"/>
       <c r="B59" s="7" t="s">
         <v>856</v>
       </c>
@@ -44579,7 +44954,7 @@
       </c>
     </row>
     <row r="60" spans="1:13" ht="16">
-      <c r="A60" s="68"/>
+      <c r="A60" s="78"/>
       <c r="B60" s="7" t="s">
         <v>95</v>
       </c>
@@ -44619,7 +44994,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="32">
-      <c r="A61" s="68"/>
+      <c r="A61" s="78"/>
       <c r="B61" s="7" t="s">
         <v>860</v>
       </c>
@@ -44659,7 +45034,7 @@
       </c>
     </row>
     <row r="62" spans="1:13" ht="32">
-      <c r="A62" s="68"/>
+      <c r="A62" s="78"/>
       <c r="B62" s="7" t="s">
         <v>862</v>
       </c>
@@ -44699,7 +45074,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="16">
-      <c r="A63" s="68"/>
+      <c r="A63" s="78"/>
       <c r="B63" s="7" t="s">
         <v>865</v>
       </c>
@@ -44739,7 +45114,7 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="32">
-      <c r="A64" s="68"/>
+      <c r="A64" s="78"/>
       <c r="B64" s="6" t="s">
         <v>867</v>
       </c>
@@ -44779,7 +45154,7 @@
       </c>
     </row>
     <row r="65" spans="1:13" ht="16">
-      <c r="A65" s="68"/>
+      <c r="A65" s="78"/>
       <c r="B65" s="7" t="s">
         <v>82</v>
       </c>
@@ -44819,7 +45194,7 @@
       </c>
     </row>
     <row r="66" spans="1:13" ht="16">
-      <c r="A66" s="68"/>
+      <c r="A66" s="78"/>
       <c r="B66" s="7" t="s">
         <v>870</v>
       </c>
@@ -44859,7 +45234,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" ht="48">
-      <c r="A67" s="68"/>
+      <c r="A67" s="78"/>
       <c r="B67" s="6" t="s">
         <v>92</v>
       </c>
@@ -44899,64 +45274,64 @@
       </c>
     </row>
     <row r="68" spans="1:13" ht="16">
-      <c r="A68" s="68"/>
-      <c r="B68" s="68" t="s">
+      <c r="A68" s="78"/>
+      <c r="B68" s="78" t="s">
         <v>169</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>872</v>
       </c>
-      <c r="D68" s="68" t="s">
+      <c r="D68" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="E68" s="68" t="s">
+      <c r="E68" s="78" t="s">
         <v>858</v>
       </c>
-      <c r="F68" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="H68" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="I68" s="68" t="s">
+      <c r="F68" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="I68" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="J68" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="K68" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="L68" s="68" t="s">
+      <c r="J68" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="K68" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="L68" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="M68" s="66" t="str">
+      <c r="M68" s="76" t="str">
         <f t="shared" si="2"/>
         <v>[n,n,p]</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="16">
-      <c r="A69" s="68"/>
-      <c r="B69" s="68"/>
+      <c r="A69" s="78"/>
+      <c r="B69" s="78"/>
       <c r="C69" s="6" t="s">
         <v>873</v>
       </c>
-      <c r="D69" s="68"/>
-      <c r="E69" s="68"/>
-      <c r="F69" s="68"/>
-      <c r="G69" s="68"/>
-      <c r="H69" s="66"/>
-      <c r="I69" s="68"/>
-      <c r="J69" s="68"/>
-      <c r="K69" s="68"/>
-      <c r="L69" s="68"/>
-      <c r="M69" s="66"/>
+      <c r="D69" s="78"/>
+      <c r="E69" s="78"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="78"/>
+      <c r="H69" s="76"/>
+      <c r="I69" s="78"/>
+      <c r="J69" s="78"/>
+      <c r="K69" s="78"/>
+      <c r="L69" s="78"/>
+      <c r="M69" s="76"/>
     </row>
     <row r="70" spans="1:13" ht="28">
-      <c r="A70" s="69" t="s">
+      <c r="A70" s="79" t="s">
         <v>874</v>
       </c>
       <c r="B70" s="16" t="s">
@@ -45002,7 +45377,7 @@
       </c>
     </row>
     <row r="71" spans="1:13" ht="51">
-      <c r="A71" s="69"/>
+      <c r="A71" s="79"/>
       <c r="B71" s="16" t="s">
         <v>100</v>
       </c>
@@ -45046,7 +45421,7 @@
       </c>
     </row>
     <row r="72" spans="1:13" ht="28">
-      <c r="A72" s="69"/>
+      <c r="A72" s="79"/>
       <c r="B72" s="16" t="s">
         <v>759</v>
       </c>
@@ -45090,7 +45465,7 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="28">
-      <c r="A73" s="69"/>
+      <c r="A73" s="79"/>
       <c r="B73" s="16" t="s">
         <v>881</v>
       </c>
@@ -45134,7 +45509,7 @@
       </c>
     </row>
     <row r="74" spans="1:13" ht="16">
-      <c r="A74" s="66" t="s">
+      <c r="A74" s="76" t="s">
         <v>884</v>
       </c>
       <c r="B74" s="4" t="s">
@@ -45178,7 +45553,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="16">
-      <c r="A75" s="66"/>
+      <c r="A75" s="76"/>
       <c r="B75" s="4" t="s">
         <v>889</v>
       </c>
@@ -45220,7 +45595,7 @@
       </c>
     </row>
     <row r="76" spans="1:13" ht="16">
-      <c r="A76" s="66"/>
+      <c r="A76" s="76"/>
       <c r="B76" s="4" t="s">
         <v>891</v>
       </c>
@@ -45262,7 +45637,7 @@
       </c>
     </row>
     <row r="77" spans="1:13" ht="16">
-      <c r="A77" s="66"/>
+      <c r="A77" s="76"/>
       <c r="B77" s="4" t="s">
         <v>893</v>
       </c>
@@ -45304,7 +45679,7 @@
       </c>
     </row>
     <row r="78" spans="1:13" ht="16">
-      <c r="A78" s="66"/>
+      <c r="A78" s="76"/>
       <c r="B78" s="4" t="s">
         <v>896</v>
       </c>
@@ -45346,7 +45721,7 @@
       </c>
     </row>
     <row r="79" spans="1:13" ht="16">
-      <c r="A79" s="66"/>
+      <c r="A79" s="76"/>
       <c r="B79" s="4" t="s">
         <v>898</v>
       </c>
@@ -45388,7 +45763,7 @@
       </c>
     </row>
     <row r="80" spans="1:13" ht="16">
-      <c r="A80" s="66"/>
+      <c r="A80" s="76"/>
       <c r="B80" s="4" t="s">
         <v>901</v>
       </c>
@@ -45430,7 +45805,7 @@
       </c>
     </row>
     <row r="81" spans="1:13" ht="64">
-      <c r="A81" s="66"/>
+      <c r="A81" s="76"/>
       <c r="B81" s="4" t="s">
         <v>904</v>
       </c>
@@ -45472,7 +45847,7 @@
       </c>
     </row>
     <row r="82" spans="1:13" ht="16">
-      <c r="A82" s="66"/>
+      <c r="A82" s="76"/>
       <c r="B82" s="8" t="s">
         <v>907</v>
       </c>
@@ -45514,7 +45889,7 @@
       </c>
     </row>
     <row r="83" spans="1:13" ht="32">
-      <c r="A83" s="66"/>
+      <c r="A83" s="76"/>
       <c r="B83" s="8" t="s">
         <v>909</v>
       </c>
@@ -45556,7 +45931,7 @@
       </c>
     </row>
     <row r="84" spans="1:13" ht="16">
-      <c r="A84" s="66"/>
+      <c r="A84" s="76"/>
       <c r="B84" s="4" t="s">
         <v>911</v>
       </c>
@@ -45598,7 +45973,7 @@
       </c>
     </row>
     <row r="85" spans="1:13" ht="112">
-      <c r="A85" s="66"/>
+      <c r="A85" s="76"/>
       <c r="B85" s="4" t="s">
         <v>913</v>
       </c>
@@ -45682,6 +46057,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E7551B-23E1-9447-B49C-DED27E36FCB1}">
+  <sheetPr codeName="Foglio4"/>
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -45925,7 +46301,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="22" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -45933,7 +46309,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="22" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B30">
         <v>11</v>
@@ -45955,6 +46331,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4B4BA5-7F5F-6549-846C-E8044419A2A5}">
+  <sheetPr codeName="Foglio5"/>
   <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -46584,10 +46961,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51FC597-29FA-1D4E-A4C8-B79027768242}">
+  <sheetPr codeName="Foglio6"/>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -46649,7 +47027,7 @@
         <v>934</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>935</v>
@@ -46679,7 +47057,7 @@
         <v>936</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>937</v>
@@ -46709,7 +47087,7 @@
         <v>940</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>941</v>
@@ -46727,7 +47105,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="272">
+    <row r="5" spans="1:10" ht="288">
       <c r="A5" s="26">
         <f>ROW(Tabella4[[#This Row],[Name]])-1</f>
         <v>4</v>
@@ -46739,7 +47117,7 @@
         <v>943</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>1143</v>
@@ -46769,7 +47147,7 @@
         <v>944</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>1142</v>
@@ -46823,7 +47201,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="48">
+    <row r="8" spans="1:10" ht="80">
       <c r="A8" s="26">
         <f>ROW(Tabella4[[#This Row],[Name]])-1</f>
         <v>7</v>
@@ -46835,7 +47213,7 @@
         <v>947</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>1216</v>
+        <v>1639</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>948</v>
@@ -46889,22 +47267,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>1220</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="E10" s="26" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G10" s="28" t="s">
         <v>1265</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>1221</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>1222</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>1223</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>1266</v>
       </c>
       <c r="H10" s="26" t="s">
         <v>1139</v>
@@ -46918,22 +47296,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>1220</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="E11" s="26" t="s">
         <v>1224</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>1221</v>
-      </c>
-      <c r="E11" s="26" t="s">
+      <c r="F11" s="53" t="s">
         <v>1225</v>
       </c>
-      <c r="F11" s="53" t="s">
-        <v>1226</v>
-      </c>
       <c r="G11" s="28" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H11" s="26" t="s">
         <v>1139</v>
@@ -46947,22 +47325,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>1227</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="D12" s="27" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F12" s="53" t="s">
         <v>1228</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>1221</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>1268</v>
-      </c>
-      <c r="F12" s="53" t="s">
-        <v>1229</v>
-      </c>
       <c r="G12" s="28" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H12" s="26" t="s">
         <v>1139</v>
@@ -46976,22 +47354,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C13" s="28" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>1301</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="E13" s="27" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F13" s="53" t="s">
         <v>1302</v>
       </c>
-      <c r="E13" s="27" t="s">
-        <v>1300</v>
-      </c>
-      <c r="F13" s="53" t="s">
-        <v>1303</v>
-      </c>
       <c r="G13" s="28" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H13" s="26" t="s">
         <v>1139</v>
@@ -47005,22 +47383,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>1230</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="D14" s="27" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F14" s="53" t="s">
         <v>1231</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>1299</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>1300</v>
-      </c>
-      <c r="F14" s="53" t="s">
+      <c r="G14" s="28" t="s">
         <v>1232</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>1233</v>
       </c>
       <c r="H14" s="26" t="s">
         <v>1139</v>
@@ -47034,20 +47412,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="54" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>1234</v>
       </c>
-      <c r="C15" s="28" t="s">
-        <v>1235</v>
-      </c>
       <c r="D15" s="27" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="27" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G15" s="28" t="s">
         <v>1236</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>1237</v>
       </c>
       <c r="H15" s="26" t="s">
         <v>1139</v>
@@ -47061,20 +47439,20 @@
         <v>15</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H16" s="26" t="s">
         <v>1139</v>
@@ -47085,22 +47463,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="26" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>1371</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>1374</v>
-      </c>
-      <c r="D17" s="27" t="s">
+      <c r="F17" s="27" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G17" s="28" t="s">
         <v>1375</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>1372</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>1373</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>1376</v>
       </c>
       <c r="H17" s="26" t="s">
         <v>1139</v>
@@ -47111,22 +47489,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="26" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>1377</v>
       </c>
-      <c r="C18" s="53" t="s">
-        <v>1382</v>
-      </c>
-      <c r="D18" s="27" t="s">
+      <c r="E18" s="26" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F18" s="27" t="s">
         <v>1378</v>
       </c>
-      <c r="E18" s="26" t="s">
-        <v>1381</v>
-      </c>
-      <c r="F18" s="27" t="s">
+      <c r="G18" s="28" t="s">
         <v>1379</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>1380</v>
       </c>
       <c r="H18" s="26" t="s">
         <v>1139</v>
@@ -47137,19 +47515,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="H19" s="26" t="s">
         <v>1139</v>
@@ -47167,7 +47545,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D12478-9988-534B-8D3B-482A1C74F489}">
-  <sheetPr>
+  <sheetPr codeName="Foglio7">
     <tabColor theme="8"/>
   </sheetPr>
   <dimension ref="A1:C24"/>
@@ -47497,7 +47875,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B97E7E-7CAD-47DD-BCC4-7963110B0F42}">
-  <sheetPr>
+  <sheetPr codeName="Foglio8">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
@@ -47537,7 +47915,7 @@
         <v>975</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -47551,7 +47929,7 @@
         <v>977</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -47565,7 +47943,7 @@
         <v>979</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30">
@@ -47579,7 +47957,7 @@
         <v>981</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
   </sheetData>
@@ -47589,7 +47967,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607F3A23-340F-4E31-B47A-68DEF91E91AE}">
-  <sheetPr>
+  <sheetPr codeName="Foglio9">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:D16"/>
@@ -47615,7 +47993,7 @@
         <v>984</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -47685,7 +48063,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -47699,7 +48077,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -47713,7 +48091,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -47727,7 +48105,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -47741,7 +48119,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -47755,7 +48133,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -47834,15 +48212,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009A9CE0B21D9C3A45B31425227616CD6F" ma:contentTypeVersion="34" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8a882b22c4c6ceab40c069a6a2420ef3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="633f040f-4953-46e7-8610-82b0c5296ba0" xmlns:ns3="f62ef740-d444-4f18-80a2-7590fdcab1ce" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="77035a69dc4d6b80a35ec1b02b2030a4" ns2:_="" ns3:_="">
     <xsd:import namespace="633f040f-4953-46e7-8610-82b0c5296ba0"/>
@@ -48259,7 +48628,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="633f040f-4953-46e7-8610-82b0c5296ba0">
@@ -48315,15 +48684,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C6CC7BA-2E2C-4B0D-8103-11A51D82E8EC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C20BFB-BCC5-4457-BE44-22D2F12F84BE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -48342,7 +48712,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83D5100D-0E56-4B30-B42D-2AEC6B837C39}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -48357,4 +48727,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C6CC7BA-2E2C-4B0D-8103-11A51D82E8EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>